--- a/user-data/uganda-household-san-cov/uganda-household-san-cov.xlsx
+++ b/user-data/uganda-household-san-cov/uganda-household-san-cov.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="240">
   <si>
     <t>id</t>
   </si>
@@ -713,9 +713,6 @@
   </si>
   <si>
     <t>Source: Ministry of Water and Environment (Uganda)</t>
-  </si>
-  <si>
-    <t>Source-link: NA</t>
   </si>
   <si>
     <t/>
@@ -1100,32 +1097,32 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13">
@@ -1141,11 +1138,6 @@
     <row r="15">
       <c r="A15" t="s">
         <v>239</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/uganda-household-san-cov/uganda-household-san-cov.xlsx
+++ b/user-data/uganda-household-san-cov/uganda-household-san-cov.xlsx
@@ -8,7 +8,7 @@
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Data-wide" sheetId="3" r:id="rId3"/>
+    <sheet name="Data-wide-value" sheetId="3" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
@@ -721,7 +721,7 @@
     <t>Notes:</t>
   </si>
   <si>
-    <t>On the 'Data-wide' sheet, we have provided the indicator in a wide format. The values you see listed there are only from the 'value' column.</t>
+    <t>On the 'Data-wide-value' sheet, we have provided the indicator in a wide format. The values you see listed there are from the 'value' column.</t>
   </si>
   <si>
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>

--- a/user-data/uganda-household-san-cov/uganda-household-san-cov.xlsx
+++ b/user-data/uganda-household-san-cov/uganda-household-san-cov.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="242">
   <si>
     <t>id</t>
   </si>
@@ -706,13 +706,16 @@
     <t>Name: uganda-household-san-cov</t>
   </si>
   <si>
-    <t>Description: Ugandan Household Sanitation coverage (%)</t>
+    <t>Description: Household Sanitation Coverage (%)</t>
   </si>
   <si>
     <t>Units of measure: %</t>
   </si>
   <si>
-    <t>Source: Ministry of Water and Environment (Uganda)</t>
+    <t>Source: Water and Environment Sector Performance Reports 2010-2014 - Ministry of Water and Environment</t>
+  </si>
+  <si>
+    <t>Source-link: http://www.mwe.go.ug/index.php?option=com_docman&amp;task=cat_view&amp;Itemid=223&amp;gid=15</t>
   </si>
   <si>
     <t/>
@@ -727,7 +730,10 @@
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
   </si>
   <si>
-    <t>It is provided on an as-is basis under an open-use license.</t>
+    <t>It is licensed under a Creative Commons Attribution 4.0 International license.</t>
+  </si>
+  <si>
+    <t>More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/</t>
   </si>
   <si>
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
@@ -1097,32 +1103,32 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13">
@@ -1138,6 +1144,16 @@
     <row r="15">
       <c r="A15" t="s">
         <v>239</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/uganda-household-san-cov/uganda-household-san-cov.xlsx
+++ b/user-data/uganda-household-san-cov/uganda-household-san-cov.xlsx
@@ -706,13 +706,13 @@
     <t>Name: uganda-household-san-cov</t>
   </si>
   <si>
-    <t>Description: Household Sanitation Coverage (%)</t>
+    <t>Description: Household sanitation coverage (%)</t>
   </si>
   <si>
     <t>Units of measure: %</t>
   </si>
   <si>
-    <t>Source: Water and Environment Sector Performance Reports 2010-2014 - Ministry of Water and Environment</t>
+    <t>Source: Water and environment sector performance reports 2010â€“2014 â€“ Ministry of Water and Environment</t>
   </si>
   <si>
     <t>Source-link: http://www.mwe.go.ug/index.php?option=com_docman&amp;task=cat_view&amp;Itemid=223&amp;gid=15</t>

--- a/user-data/uganda-household-san-cov/uganda-household-san-cov.xlsx
+++ b/user-data/uganda-household-san-cov/uganda-household-san-cov.xlsx
@@ -739,7 +739,7 @@
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
   </si>
   <si>
-    <t>Copyright Development Initiatives Poverty Research Ltd. 2015</t>
+    <t>Copyright Development Initiatives Poverty Research Ltd. 2016</t>
   </si>
 </sst>
 </file>

--- a/user-data/uganda-household-san-cov/uganda-household-san-cov.xlsx
+++ b/user-data/uganda-household-san-cov/uganda-household-san-cov.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="242">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -31,337 +31,673 @@
     <t xml:space="preserve">d101</t>
   </si>
   <si>
+    <t xml:space="preserve">Kalangala</t>
+  </si>
+  <si>
     <t xml:space="preserve">d102</t>
   </si>
   <si>
+    <t xml:space="preserve">Kampala</t>
+  </si>
+  <si>
     <t xml:space="preserve">d103</t>
   </si>
   <si>
+    <t xml:space="preserve">Kiboga</t>
+  </si>
+  <si>
     <t xml:space="preserve">d104</t>
   </si>
   <si>
+    <t xml:space="preserve">Luwero</t>
+  </si>
+  <si>
     <t xml:space="preserve">d105</t>
   </si>
   <si>
+    <t xml:space="preserve">Masaka</t>
+  </si>
+  <si>
     <t xml:space="preserve">d106</t>
   </si>
   <si>
+    <t xml:space="preserve">Mpigi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d107</t>
   </si>
   <si>
+    <t xml:space="preserve">Mubende</t>
+  </si>
+  <si>
     <t xml:space="preserve">d108</t>
   </si>
   <si>
+    <t xml:space="preserve">Mukono</t>
+  </si>
+  <si>
     <t xml:space="preserve">d109</t>
   </si>
   <si>
+    <t xml:space="preserve">Nakasongola</t>
+  </si>
+  <si>
     <t xml:space="preserve">d110</t>
   </si>
   <si>
+    <t xml:space="preserve">Rakai</t>
+  </si>
+  <si>
     <t xml:space="preserve">d111</t>
   </si>
   <si>
+    <t xml:space="preserve">Ssembabule</t>
+  </si>
+  <si>
     <t xml:space="preserve">d112</t>
   </si>
   <si>
+    <t xml:space="preserve">Kayunga</t>
+  </si>
+  <si>
     <t xml:space="preserve">d113</t>
   </si>
   <si>
+    <t xml:space="preserve">Wakiso</t>
+  </si>
+  <si>
     <t xml:space="preserve">d114</t>
   </si>
   <si>
+    <t xml:space="preserve">Lyantonde</t>
+  </si>
+  <si>
     <t xml:space="preserve">d115</t>
   </si>
   <si>
+    <t xml:space="preserve">Mityana</t>
+  </si>
+  <si>
     <t xml:space="preserve">d116</t>
   </si>
   <si>
+    <t xml:space="preserve">Nakaseke</t>
+  </si>
+  <si>
     <t xml:space="preserve">d117</t>
   </si>
   <si>
+    <t xml:space="preserve">Buikwe</t>
+  </si>
+  <si>
     <t xml:space="preserve">d118</t>
   </si>
   <si>
+    <t xml:space="preserve">Bukomansimbi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d119</t>
   </si>
   <si>
+    <t xml:space="preserve">Butambala</t>
+  </si>
+  <si>
     <t xml:space="preserve">d120</t>
   </si>
   <si>
+    <t xml:space="preserve">Buvuma</t>
+  </si>
+  <si>
     <t xml:space="preserve">d121</t>
   </si>
   <si>
+    <t xml:space="preserve">Gomba</t>
+  </si>
+  <si>
     <t xml:space="preserve">d122</t>
   </si>
   <si>
+    <t xml:space="preserve">Kalungu</t>
+  </si>
+  <si>
     <t xml:space="preserve">d123</t>
   </si>
   <si>
+    <t xml:space="preserve">Kyankwanzi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d124</t>
   </si>
   <si>
+    <t xml:space="preserve">Lwengo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d201</t>
   </si>
   <si>
+    <t xml:space="preserve">Bugiri</t>
+  </si>
+  <si>
     <t xml:space="preserve">d202</t>
   </si>
   <si>
+    <t xml:space="preserve">Busia</t>
+  </si>
+  <si>
     <t xml:space="preserve">d203</t>
   </si>
   <si>
+    <t xml:space="preserve">Iganga</t>
+  </si>
+  <si>
     <t xml:space="preserve">d204</t>
   </si>
   <si>
+    <t xml:space="preserve">Jinja</t>
+  </si>
+  <si>
     <t xml:space="preserve">d205</t>
   </si>
   <si>
+    <t xml:space="preserve">Kamuli</t>
+  </si>
+  <si>
     <t xml:space="preserve">d206</t>
   </si>
   <si>
+    <t xml:space="preserve">Kapchorwa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d207</t>
   </si>
   <si>
+    <t xml:space="preserve">Katakwi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d208</t>
   </si>
   <si>
+    <t xml:space="preserve">Kumi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d209</t>
   </si>
   <si>
+    <t xml:space="preserve">Mbale</t>
+  </si>
+  <si>
     <t xml:space="preserve">d210</t>
   </si>
   <si>
+    <t xml:space="preserve">Pallisa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d211</t>
   </si>
   <si>
+    <t xml:space="preserve">Soroti</t>
+  </si>
+  <si>
     <t xml:space="preserve">d212</t>
   </si>
   <si>
+    <t xml:space="preserve">Tororo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d213</t>
   </si>
   <si>
+    <t xml:space="preserve">Kaberamaido</t>
+  </si>
+  <si>
     <t xml:space="preserve">d214</t>
   </si>
   <si>
+    <t xml:space="preserve">Mayuge</t>
+  </si>
+  <si>
     <t xml:space="preserve">d215</t>
   </si>
   <si>
+    <t xml:space="preserve">Sironko</t>
+  </si>
+  <si>
     <t xml:space="preserve">d216</t>
   </si>
   <si>
+    <t xml:space="preserve">Amuria</t>
+  </si>
+  <si>
     <t xml:space="preserve">d217</t>
   </si>
   <si>
+    <t xml:space="preserve">Budaka</t>
+  </si>
+  <si>
     <t xml:space="preserve">d218</t>
   </si>
   <si>
+    <t xml:space="preserve">Bududa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d219</t>
   </si>
   <si>
+    <t xml:space="preserve">Bukedea</t>
+  </si>
+  <si>
     <t xml:space="preserve">d220</t>
   </si>
   <si>
+    <t xml:space="preserve">Bukwo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d221</t>
   </si>
   <si>
+    <t xml:space="preserve">Butaleja</t>
+  </si>
+  <si>
     <t xml:space="preserve">d222</t>
   </si>
   <si>
+    <t xml:space="preserve">Kaliro</t>
+  </si>
+  <si>
     <t xml:space="preserve">d223</t>
   </si>
   <si>
+    <t xml:space="preserve">Manafwa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d224</t>
   </si>
   <si>
+    <t xml:space="preserve">Namutumba</t>
+  </si>
+  <si>
     <t xml:space="preserve">d225</t>
   </si>
   <si>
+    <t xml:space="preserve">Bulambuli</t>
+  </si>
+  <si>
     <t xml:space="preserve">d226</t>
   </si>
   <si>
+    <t xml:space="preserve">Buyende</t>
+  </si>
+  <si>
     <t xml:space="preserve">d227</t>
   </si>
   <si>
+    <t xml:space="preserve">Kibuku</t>
+  </si>
+  <si>
     <t xml:space="preserve">d228</t>
   </si>
   <si>
+    <t xml:space="preserve">Kween</t>
+  </si>
+  <si>
     <t xml:space="preserve">d229</t>
   </si>
   <si>
+    <t xml:space="preserve">Luuka</t>
+  </si>
+  <si>
     <t xml:space="preserve">d230</t>
   </si>
   <si>
+    <t xml:space="preserve">Namayingo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d231</t>
   </si>
   <si>
+    <t xml:space="preserve">Ngora</t>
+  </si>
+  <si>
     <t xml:space="preserve">d232</t>
   </si>
   <si>
+    <t xml:space="preserve">Serere</t>
+  </si>
+  <si>
     <t xml:space="preserve">d301</t>
   </si>
   <si>
+    <t xml:space="preserve">Adjumani</t>
+  </si>
+  <si>
     <t xml:space="preserve">d302</t>
   </si>
   <si>
+    <t xml:space="preserve">Apac</t>
+  </si>
+  <si>
     <t xml:space="preserve">d303</t>
   </si>
   <si>
+    <t xml:space="preserve">Arua</t>
+  </si>
+  <si>
     <t xml:space="preserve">d304</t>
   </si>
   <si>
+    <t xml:space="preserve">Gulu</t>
+  </si>
+  <si>
     <t xml:space="preserve">d305</t>
   </si>
   <si>
+    <t xml:space="preserve">Kitgum</t>
+  </si>
+  <si>
     <t xml:space="preserve">d306</t>
   </si>
   <si>
+    <t xml:space="preserve">Kotido</t>
+  </si>
+  <si>
     <t xml:space="preserve">d307</t>
   </si>
   <si>
+    <t xml:space="preserve">Lira</t>
+  </si>
+  <si>
     <t xml:space="preserve">d308</t>
   </si>
   <si>
+    <t xml:space="preserve">Moroto</t>
+  </si>
+  <si>
     <t xml:space="preserve">d309</t>
   </si>
   <si>
+    <t xml:space="preserve">Moyo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d310</t>
   </si>
   <si>
+    <t xml:space="preserve">Nebbi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d311</t>
   </si>
   <si>
+    <t xml:space="preserve">Nakapiripirit</t>
+  </si>
+  <si>
     <t xml:space="preserve">d312</t>
   </si>
   <si>
+    <t xml:space="preserve">Pader</t>
+  </si>
+  <si>
     <t xml:space="preserve">d313</t>
   </si>
   <si>
+    <t xml:space="preserve">Yumbe</t>
+  </si>
+  <si>
     <t xml:space="preserve">d314</t>
   </si>
   <si>
+    <t xml:space="preserve">Abim</t>
+  </si>
+  <si>
     <t xml:space="preserve">d315</t>
   </si>
   <si>
+    <t xml:space="preserve">Amolatar</t>
+  </si>
+  <si>
     <t xml:space="preserve">d316</t>
   </si>
   <si>
+    <t xml:space="preserve">Amuru</t>
+  </si>
+  <si>
     <t xml:space="preserve">d317</t>
   </si>
   <si>
+    <t xml:space="preserve">Dokolo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d318</t>
   </si>
   <si>
+    <t xml:space="preserve">Kaabong</t>
+  </si>
+  <si>
     <t xml:space="preserve">d319</t>
   </si>
   <si>
+    <t xml:space="preserve">Koboko</t>
+  </si>
+  <si>
     <t xml:space="preserve">d320</t>
   </si>
   <si>
+    <t xml:space="preserve">Maracha</t>
+  </si>
+  <si>
     <t xml:space="preserve">d321</t>
   </si>
   <si>
+    <t xml:space="preserve">Oyam</t>
+  </si>
+  <si>
     <t xml:space="preserve">d322</t>
   </si>
   <si>
+    <t xml:space="preserve">Agago</t>
+  </si>
+  <si>
     <t xml:space="preserve">d323</t>
   </si>
   <si>
+    <t xml:space="preserve">Alebtong</t>
+  </si>
+  <si>
     <t xml:space="preserve">d324</t>
   </si>
   <si>
+    <t xml:space="preserve">Amudat</t>
+  </si>
+  <si>
     <t xml:space="preserve">d325</t>
   </si>
   <si>
+    <t xml:space="preserve">Kole</t>
+  </si>
+  <si>
     <t xml:space="preserve">d326</t>
   </si>
   <si>
+    <t xml:space="preserve">Lamwo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d327</t>
   </si>
   <si>
+    <t xml:space="preserve">Napak</t>
+  </si>
+  <si>
     <t xml:space="preserve">d328</t>
   </si>
   <si>
+    <t xml:space="preserve">Nwoya</t>
+  </si>
+  <si>
     <t xml:space="preserve">d329</t>
   </si>
   <si>
+    <t xml:space="preserve">Otuke</t>
+  </si>
+  <si>
     <t xml:space="preserve">d330</t>
   </si>
   <si>
+    <t xml:space="preserve">Zombo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d401</t>
   </si>
   <si>
+    <t xml:space="preserve">Bundibugyo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d402</t>
   </si>
   <si>
+    <t xml:space="preserve">Bushenyi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d403</t>
   </si>
   <si>
+    <t xml:space="preserve">Hoima</t>
+  </si>
+  <si>
     <t xml:space="preserve">d404</t>
   </si>
   <si>
+    <t xml:space="preserve">Kabale</t>
+  </si>
+  <si>
     <t xml:space="preserve">d405</t>
   </si>
   <si>
+    <t xml:space="preserve">Kabarole</t>
+  </si>
+  <si>
     <t xml:space="preserve">d406</t>
   </si>
   <si>
+    <t xml:space="preserve">Kasese</t>
+  </si>
+  <si>
     <t xml:space="preserve">d407</t>
   </si>
   <si>
+    <t xml:space="preserve">Kibaale</t>
+  </si>
+  <si>
     <t xml:space="preserve">d408</t>
   </si>
   <si>
+    <t xml:space="preserve">Kisoro</t>
+  </si>
+  <si>
     <t xml:space="preserve">d409</t>
   </si>
   <si>
+    <t xml:space="preserve">Masindi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d410</t>
   </si>
   <si>
+    <t xml:space="preserve">Mbarara</t>
+  </si>
+  <si>
     <t xml:space="preserve">d411</t>
   </si>
   <si>
+    <t xml:space="preserve">Ntungamo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d412</t>
   </si>
   <si>
+    <t xml:space="preserve">Rukungiri</t>
+  </si>
+  <si>
     <t xml:space="preserve">d413</t>
   </si>
   <si>
+    <t xml:space="preserve">Kamwenge</t>
+  </si>
+  <si>
     <t xml:space="preserve">d414</t>
   </si>
   <si>
+    <t xml:space="preserve">Kanungu</t>
+  </si>
+  <si>
     <t xml:space="preserve">d415</t>
   </si>
   <si>
+    <t xml:space="preserve">Kyenjojo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d416</t>
   </si>
   <si>
+    <t xml:space="preserve">Buliisa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d417</t>
   </si>
   <si>
+    <t xml:space="preserve">Ibanda</t>
+  </si>
+  <si>
     <t xml:space="preserve">d418</t>
   </si>
   <si>
+    <t xml:space="preserve">Isingiro</t>
+  </si>
+  <si>
     <t xml:space="preserve">d419</t>
   </si>
   <si>
+    <t xml:space="preserve">Kiruhura</t>
+  </si>
+  <si>
     <t xml:space="preserve">d420</t>
   </si>
   <si>
+    <t xml:space="preserve">Buhweju</t>
+  </si>
+  <si>
     <t xml:space="preserve">d421</t>
   </si>
   <si>
+    <t xml:space="preserve">Kiryandongo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d422</t>
   </si>
   <si>
+    <t xml:space="preserve">Kyegegwa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d423</t>
   </si>
   <si>
+    <t xml:space="preserve">Mitooma</t>
+  </si>
+  <si>
     <t xml:space="preserve">d424</t>
   </si>
   <si>
+    <t xml:space="preserve">Ntoroko</t>
+  </si>
+  <si>
     <t xml:space="preserve">d425</t>
   </si>
   <si>
+    <t xml:space="preserve">Rubirizi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheema</t>
   </si>
   <si>
     <t xml:space="preserve">2014</t>
@@ -737,22 +1073,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>117</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5">
@@ -760,7 +1096,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7">
@@ -768,52 +1104,52 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>123</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>123</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>123</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>124</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>125</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>126</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>127</v>
+        <v>239</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>128</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>129</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -848,7 +1184,9 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2"/>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
       <c r="C2" t="n">
         <v>2014</v>
       </c>
@@ -858,9 +1196,11 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3"/>
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
       <c r="C3" t="n">
         <v>2014</v>
       </c>
@@ -868,9 +1208,11 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4"/>
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
       <c r="C4" t="n">
         <v>2014</v>
       </c>
@@ -880,9 +1222,11 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5"/>
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
       <c r="C5" t="n">
         <v>2014</v>
       </c>
@@ -892,9 +1236,11 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6"/>
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
       <c r="C6" t="n">
         <v>2014</v>
       </c>
@@ -904,9 +1250,11 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7"/>
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
       <c r="C7" t="n">
         <v>2014</v>
       </c>
@@ -916,9 +1264,11 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8"/>
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
       <c r="C8" t="n">
         <v>2014</v>
       </c>
@@ -928,9 +1278,11 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9"/>
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
       <c r="C9" t="n">
         <v>2014</v>
       </c>
@@ -940,9 +1292,11 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10"/>
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
       <c r="C10" t="n">
         <v>2014</v>
       </c>
@@ -952,9 +1306,11 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11"/>
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
       <c r="C11" t="n">
         <v>2014</v>
       </c>
@@ -964,9 +1320,11 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12"/>
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
       <c r="C12" t="n">
         <v>2014</v>
       </c>
@@ -976,9 +1334,11 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13"/>
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
       <c r="C13" t="n">
         <v>2014</v>
       </c>
@@ -988,9 +1348,11 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14"/>
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
       <c r="C14" t="n">
         <v>2014</v>
       </c>
@@ -1000,9 +1362,11 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15"/>
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
       <c r="C15" t="n">
         <v>2014</v>
       </c>
@@ -1012,9 +1376,11 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16"/>
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
       <c r="C16" t="n">
         <v>2014</v>
       </c>
@@ -1024,9 +1390,11 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17"/>
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
       <c r="C17" t="n">
         <v>2014</v>
       </c>
@@ -1036,9 +1404,11 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18"/>
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
       <c r="C18" t="n">
         <v>2014</v>
       </c>
@@ -1048,9 +1418,11 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19"/>
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
       <c r="C19" t="n">
         <v>2014</v>
       </c>
@@ -1060,9 +1432,11 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20"/>
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
       <c r="C20" t="n">
         <v>2014</v>
       </c>
@@ -1072,9 +1446,11 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21"/>
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
       <c r="C21" t="n">
         <v>2014</v>
       </c>
@@ -1084,9 +1460,11 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22"/>
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
       <c r="C22" t="n">
         <v>2014</v>
       </c>
@@ -1096,9 +1474,11 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23"/>
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
       <c r="C23" t="n">
         <v>2014</v>
       </c>
@@ -1108,9 +1488,11 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24"/>
+        <v>48</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
       <c r="C24" t="n">
         <v>2014</v>
       </c>
@@ -1120,9 +1502,11 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25"/>
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
       <c r="C25" t="n">
         <v>2014</v>
       </c>
@@ -1132,9 +1516,11 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26"/>
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
       <c r="C26" t="n">
         <v>2014</v>
       </c>
@@ -1144,9 +1530,11 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27"/>
+        <v>54</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
       <c r="C27" t="n">
         <v>2014</v>
       </c>
@@ -1156,9 +1544,11 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28"/>
+        <v>56</v>
+      </c>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
       <c r="C28" t="n">
         <v>2014</v>
       </c>
@@ -1168,9 +1558,11 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29"/>
+        <v>58</v>
+      </c>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
       <c r="C29" t="n">
         <v>2014</v>
       </c>
@@ -1180,9 +1572,11 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30"/>
+        <v>60</v>
+      </c>
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
       <c r="C30" t="n">
         <v>2014</v>
       </c>
@@ -1192,9 +1586,11 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31"/>
+        <v>62</v>
+      </c>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
       <c r="C31" t="n">
         <v>2014</v>
       </c>
@@ -1204,9 +1600,11 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32"/>
+        <v>64</v>
+      </c>
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
       <c r="C32" t="n">
         <v>2014</v>
       </c>
@@ -1216,9 +1614,11 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33"/>
+        <v>66</v>
+      </c>
+      <c r="B33" t="s">
+        <v>67</v>
+      </c>
       <c r="C33" t="n">
         <v>2014</v>
       </c>
@@ -1228,9 +1628,11 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34"/>
+        <v>68</v>
+      </c>
+      <c r="B34" t="s">
+        <v>69</v>
+      </c>
       <c r="C34" t="n">
         <v>2014</v>
       </c>
@@ -1240,9 +1642,11 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35"/>
+        <v>70</v>
+      </c>
+      <c r="B35" t="s">
+        <v>71</v>
+      </c>
       <c r="C35" t="n">
         <v>2014</v>
       </c>
@@ -1252,9 +1656,11 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36"/>
+        <v>72</v>
+      </c>
+      <c r="B36" t="s">
+        <v>73</v>
+      </c>
       <c r="C36" t="n">
         <v>2014</v>
       </c>
@@ -1264,9 +1670,11 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37"/>
+        <v>74</v>
+      </c>
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
       <c r="C37" t="n">
         <v>2014</v>
       </c>
@@ -1276,9 +1684,11 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38"/>
+        <v>76</v>
+      </c>
+      <c r="B38" t="s">
+        <v>77</v>
+      </c>
       <c r="C38" t="n">
         <v>2014</v>
       </c>
@@ -1288,9 +1698,11 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39"/>
+        <v>78</v>
+      </c>
+      <c r="B39" t="s">
+        <v>79</v>
+      </c>
       <c r="C39" t="n">
         <v>2014</v>
       </c>
@@ -1300,9 +1712,11 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40"/>
+        <v>80</v>
+      </c>
+      <c r="B40" t="s">
+        <v>81</v>
+      </c>
       <c r="C40" t="n">
         <v>2014</v>
       </c>
@@ -1312,9 +1726,11 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41"/>
+        <v>82</v>
+      </c>
+      <c r="B41" t="s">
+        <v>83</v>
+      </c>
       <c r="C41" t="n">
         <v>2014</v>
       </c>
@@ -1324,9 +1740,11 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>44</v>
-      </c>
-      <c r="B42"/>
+        <v>84</v>
+      </c>
+      <c r="B42" t="s">
+        <v>85</v>
+      </c>
       <c r="C42" t="n">
         <v>2014</v>
       </c>
@@ -1336,9 +1754,11 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43"/>
+        <v>86</v>
+      </c>
+      <c r="B43" t="s">
+        <v>87</v>
+      </c>
       <c r="C43" t="n">
         <v>2014</v>
       </c>
@@ -1348,9 +1768,11 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>46</v>
-      </c>
-      <c r="B44"/>
+        <v>88</v>
+      </c>
+      <c r="B44" t="s">
+        <v>89</v>
+      </c>
       <c r="C44" t="n">
         <v>2014</v>
       </c>
@@ -1360,9 +1782,11 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>47</v>
-      </c>
-      <c r="B45"/>
+        <v>90</v>
+      </c>
+      <c r="B45" t="s">
+        <v>91</v>
+      </c>
       <c r="C45" t="n">
         <v>2014</v>
       </c>
@@ -1372,9 +1796,11 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>48</v>
-      </c>
-      <c r="B46"/>
+        <v>92</v>
+      </c>
+      <c r="B46" t="s">
+        <v>93</v>
+      </c>
       <c r="C46" t="n">
         <v>2014</v>
       </c>
@@ -1384,9 +1810,11 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>49</v>
-      </c>
-      <c r="B47"/>
+        <v>94</v>
+      </c>
+      <c r="B47" t="s">
+        <v>95</v>
+      </c>
       <c r="C47" t="n">
         <v>2014</v>
       </c>
@@ -1396,9 +1824,11 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>50</v>
-      </c>
-      <c r="B48"/>
+        <v>96</v>
+      </c>
+      <c r="B48" t="s">
+        <v>97</v>
+      </c>
       <c r="C48" t="n">
         <v>2014</v>
       </c>
@@ -1408,9 +1838,11 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>51</v>
-      </c>
-      <c r="B49"/>
+        <v>98</v>
+      </c>
+      <c r="B49" t="s">
+        <v>99</v>
+      </c>
       <c r="C49" t="n">
         <v>2014</v>
       </c>
@@ -1420,9 +1852,11 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>52</v>
-      </c>
-      <c r="B50"/>
+        <v>100</v>
+      </c>
+      <c r="B50" t="s">
+        <v>101</v>
+      </c>
       <c r="C50" t="n">
         <v>2014</v>
       </c>
@@ -1432,9 +1866,11 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>53</v>
-      </c>
-      <c r="B51"/>
+        <v>102</v>
+      </c>
+      <c r="B51" t="s">
+        <v>103</v>
+      </c>
       <c r="C51" t="n">
         <v>2014</v>
       </c>
@@ -1444,9 +1880,11 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>54</v>
-      </c>
-      <c r="B52"/>
+        <v>104</v>
+      </c>
+      <c r="B52" t="s">
+        <v>105</v>
+      </c>
       <c r="C52" t="n">
         <v>2014</v>
       </c>
@@ -1456,9 +1894,11 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>55</v>
-      </c>
-      <c r="B53"/>
+        <v>106</v>
+      </c>
+      <c r="B53" t="s">
+        <v>107</v>
+      </c>
       <c r="C53" t="n">
         <v>2014</v>
       </c>
@@ -1468,9 +1908,11 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>56</v>
-      </c>
-      <c r="B54"/>
+        <v>108</v>
+      </c>
+      <c r="B54" t="s">
+        <v>109</v>
+      </c>
       <c r="C54" t="n">
         <v>2014</v>
       </c>
@@ -1480,9 +1922,11 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>57</v>
-      </c>
-      <c r="B55"/>
+        <v>110</v>
+      </c>
+      <c r="B55" t="s">
+        <v>111</v>
+      </c>
       <c r="C55" t="n">
         <v>2014</v>
       </c>
@@ -1492,9 +1936,11 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>58</v>
-      </c>
-      <c r="B56"/>
+        <v>112</v>
+      </c>
+      <c r="B56" t="s">
+        <v>113</v>
+      </c>
       <c r="C56" t="n">
         <v>2014</v>
       </c>
@@ -1504,9 +1950,11 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>59</v>
-      </c>
-      <c r="B57"/>
+        <v>114</v>
+      </c>
+      <c r="B57" t="s">
+        <v>115</v>
+      </c>
       <c r="C57" t="n">
         <v>2014</v>
       </c>
@@ -1516,9 +1964,11 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>60</v>
-      </c>
-      <c r="B58"/>
+        <v>116</v>
+      </c>
+      <c r="B58" t="s">
+        <v>117</v>
+      </c>
       <c r="C58" t="n">
         <v>2014</v>
       </c>
@@ -1528,9 +1978,11 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>61</v>
-      </c>
-      <c r="B59"/>
+        <v>118</v>
+      </c>
+      <c r="B59" t="s">
+        <v>119</v>
+      </c>
       <c r="C59" t="n">
         <v>2014</v>
       </c>
@@ -1540,9 +1992,11 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>62</v>
-      </c>
-      <c r="B60"/>
+        <v>120</v>
+      </c>
+      <c r="B60" t="s">
+        <v>121</v>
+      </c>
       <c r="C60" t="n">
         <v>2014</v>
       </c>
@@ -1552,9 +2006,11 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>63</v>
-      </c>
-      <c r="B61"/>
+        <v>122</v>
+      </c>
+      <c r="B61" t="s">
+        <v>123</v>
+      </c>
       <c r="C61" t="n">
         <v>2014</v>
       </c>
@@ -1564,9 +2020,11 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>64</v>
-      </c>
-      <c r="B62"/>
+        <v>124</v>
+      </c>
+      <c r="B62" t="s">
+        <v>125</v>
+      </c>
       <c r="C62" t="n">
         <v>2014</v>
       </c>
@@ -1576,9 +2034,11 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>65</v>
-      </c>
-      <c r="B63"/>
+        <v>126</v>
+      </c>
+      <c r="B63" t="s">
+        <v>127</v>
+      </c>
       <c r="C63" t="n">
         <v>2014</v>
       </c>
@@ -1588,9 +2048,11 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>66</v>
-      </c>
-      <c r="B64"/>
+        <v>128</v>
+      </c>
+      <c r="B64" t="s">
+        <v>129</v>
+      </c>
       <c r="C64" t="n">
         <v>2014</v>
       </c>
@@ -1600,9 +2062,11 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>67</v>
-      </c>
-      <c r="B65"/>
+        <v>130</v>
+      </c>
+      <c r="B65" t="s">
+        <v>131</v>
+      </c>
       <c r="C65" t="n">
         <v>2014</v>
       </c>
@@ -1612,9 +2076,11 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>68</v>
-      </c>
-      <c r="B66"/>
+        <v>132</v>
+      </c>
+      <c r="B66" t="s">
+        <v>133</v>
+      </c>
       <c r="C66" t="n">
         <v>2014</v>
       </c>
@@ -1624,9 +2090,11 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>69</v>
-      </c>
-      <c r="B67"/>
+        <v>134</v>
+      </c>
+      <c r="B67" t="s">
+        <v>135</v>
+      </c>
       <c r="C67" t="n">
         <v>2014</v>
       </c>
@@ -1636,9 +2104,11 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>70</v>
-      </c>
-      <c r="B68"/>
+        <v>136</v>
+      </c>
+      <c r="B68" t="s">
+        <v>137</v>
+      </c>
       <c r="C68" t="n">
         <v>2014</v>
       </c>
@@ -1648,9 +2118,11 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>71</v>
-      </c>
-      <c r="B69"/>
+        <v>138</v>
+      </c>
+      <c r="B69" t="s">
+        <v>139</v>
+      </c>
       <c r="C69" t="n">
         <v>2014</v>
       </c>
@@ -1660,9 +2132,11 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>72</v>
-      </c>
-      <c r="B70"/>
+        <v>140</v>
+      </c>
+      <c r="B70" t="s">
+        <v>141</v>
+      </c>
       <c r="C70" t="n">
         <v>2014</v>
       </c>
@@ -1672,9 +2146,11 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>73</v>
-      </c>
-      <c r="B71"/>
+        <v>142</v>
+      </c>
+      <c r="B71" t="s">
+        <v>143</v>
+      </c>
       <c r="C71" t="n">
         <v>2014</v>
       </c>
@@ -1684,9 +2160,11 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>74</v>
-      </c>
-      <c r="B72"/>
+        <v>144</v>
+      </c>
+      <c r="B72" t="s">
+        <v>145</v>
+      </c>
       <c r="C72" t="n">
         <v>2014</v>
       </c>
@@ -1696,9 +2174,11 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>75</v>
-      </c>
-      <c r="B73"/>
+        <v>146</v>
+      </c>
+      <c r="B73" t="s">
+        <v>147</v>
+      </c>
       <c r="C73" t="n">
         <v>2014</v>
       </c>
@@ -1708,9 +2188,11 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>76</v>
-      </c>
-      <c r="B74"/>
+        <v>148</v>
+      </c>
+      <c r="B74" t="s">
+        <v>149</v>
+      </c>
       <c r="C74" t="n">
         <v>2014</v>
       </c>
@@ -1720,9 +2202,11 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>77</v>
-      </c>
-      <c r="B75"/>
+        <v>150</v>
+      </c>
+      <c r="B75" t="s">
+        <v>151</v>
+      </c>
       <c r="C75" t="n">
         <v>2014</v>
       </c>
@@ -1732,9 +2216,11 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>78</v>
-      </c>
-      <c r="B76"/>
+        <v>152</v>
+      </c>
+      <c r="B76" t="s">
+        <v>153</v>
+      </c>
       <c r="C76" t="n">
         <v>2014</v>
       </c>
@@ -1744,9 +2230,11 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>79</v>
-      </c>
-      <c r="B77"/>
+        <v>154</v>
+      </c>
+      <c r="B77" t="s">
+        <v>155</v>
+      </c>
       <c r="C77" t="n">
         <v>2014</v>
       </c>
@@ -1756,9 +2244,11 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>80</v>
-      </c>
-      <c r="B78"/>
+        <v>156</v>
+      </c>
+      <c r="B78" t="s">
+        <v>157</v>
+      </c>
       <c r="C78" t="n">
         <v>2014</v>
       </c>
@@ -1768,9 +2258,11 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>81</v>
-      </c>
-      <c r="B79"/>
+        <v>158</v>
+      </c>
+      <c r="B79" t="s">
+        <v>159</v>
+      </c>
       <c r="C79" t="n">
         <v>2014</v>
       </c>
@@ -1780,9 +2272,11 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>82</v>
-      </c>
-      <c r="B80"/>
+        <v>160</v>
+      </c>
+      <c r="B80" t="s">
+        <v>161</v>
+      </c>
       <c r="C80" t="n">
         <v>2014</v>
       </c>
@@ -1792,9 +2286,11 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>83</v>
-      </c>
-      <c r="B81"/>
+        <v>162</v>
+      </c>
+      <c r="B81" t="s">
+        <v>163</v>
+      </c>
       <c r="C81" t="n">
         <v>2014</v>
       </c>
@@ -1804,9 +2300,11 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>84</v>
-      </c>
-      <c r="B82"/>
+        <v>164</v>
+      </c>
+      <c r="B82" t="s">
+        <v>165</v>
+      </c>
       <c r="C82" t="n">
         <v>2014</v>
       </c>
@@ -1816,9 +2314,11 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>85</v>
-      </c>
-      <c r="B83"/>
+        <v>166</v>
+      </c>
+      <c r="B83" t="s">
+        <v>167</v>
+      </c>
       <c r="C83" t="n">
         <v>2014</v>
       </c>
@@ -1828,9 +2328,11 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>86</v>
-      </c>
-      <c r="B84"/>
+        <v>168</v>
+      </c>
+      <c r="B84" t="s">
+        <v>169</v>
+      </c>
       <c r="C84" t="n">
         <v>2014</v>
       </c>
@@ -1840,9 +2342,11 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>87</v>
-      </c>
-      <c r="B85"/>
+        <v>170</v>
+      </c>
+      <c r="B85" t="s">
+        <v>171</v>
+      </c>
       <c r="C85" t="n">
         <v>2014</v>
       </c>
@@ -1852,9 +2356,11 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>88</v>
-      </c>
-      <c r="B86"/>
+        <v>172</v>
+      </c>
+      <c r="B86" t="s">
+        <v>173</v>
+      </c>
       <c r="C86" t="n">
         <v>2014</v>
       </c>
@@ -1864,9 +2370,11 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>89</v>
-      </c>
-      <c r="B87"/>
+        <v>174</v>
+      </c>
+      <c r="B87" t="s">
+        <v>175</v>
+      </c>
       <c r="C87" t="n">
         <v>2014</v>
       </c>
@@ -1876,9 +2384,11 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>90</v>
-      </c>
-      <c r="B88"/>
+        <v>176</v>
+      </c>
+      <c r="B88" t="s">
+        <v>177</v>
+      </c>
       <c r="C88" t="n">
         <v>2014</v>
       </c>
@@ -1888,9 +2398,11 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>91</v>
-      </c>
-      <c r="B89"/>
+        <v>178</v>
+      </c>
+      <c r="B89" t="s">
+        <v>179</v>
+      </c>
       <c r="C89" t="n">
         <v>2014</v>
       </c>
@@ -1900,9 +2412,11 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>92</v>
-      </c>
-      <c r="B90"/>
+        <v>180</v>
+      </c>
+      <c r="B90" t="s">
+        <v>181</v>
+      </c>
       <c r="C90" t="n">
         <v>2014</v>
       </c>
@@ -1912,9 +2426,11 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>93</v>
-      </c>
-      <c r="B91"/>
+        <v>182</v>
+      </c>
+      <c r="B91" t="s">
+        <v>183</v>
+      </c>
       <c r="C91" t="n">
         <v>2014</v>
       </c>
@@ -1924,9 +2440,11 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>94</v>
-      </c>
-      <c r="B92"/>
+        <v>184</v>
+      </c>
+      <c r="B92" t="s">
+        <v>185</v>
+      </c>
       <c r="C92" t="n">
         <v>2014</v>
       </c>
@@ -1936,9 +2454,11 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>95</v>
-      </c>
-      <c r="B93"/>
+        <v>186</v>
+      </c>
+      <c r="B93" t="s">
+        <v>187</v>
+      </c>
       <c r="C93" t="n">
         <v>2014</v>
       </c>
@@ -1948,9 +2468,11 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>96</v>
-      </c>
-      <c r="B94"/>
+        <v>188</v>
+      </c>
+      <c r="B94" t="s">
+        <v>189</v>
+      </c>
       <c r="C94" t="n">
         <v>2014</v>
       </c>
@@ -1960,9 +2482,11 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>97</v>
-      </c>
-      <c r="B95"/>
+        <v>190</v>
+      </c>
+      <c r="B95" t="s">
+        <v>191</v>
+      </c>
       <c r="C95" t="n">
         <v>2014</v>
       </c>
@@ -1972,9 +2496,11 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>98</v>
-      </c>
-      <c r="B96"/>
+        <v>192</v>
+      </c>
+      <c r="B96" t="s">
+        <v>193</v>
+      </c>
       <c r="C96" t="n">
         <v>2014</v>
       </c>
@@ -1984,9 +2510,11 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>99</v>
-      </c>
-      <c r="B97"/>
+        <v>194</v>
+      </c>
+      <c r="B97" t="s">
+        <v>195</v>
+      </c>
       <c r="C97" t="n">
         <v>2014</v>
       </c>
@@ -1996,9 +2524,11 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>100</v>
-      </c>
-      <c r="B98"/>
+        <v>196</v>
+      </c>
+      <c r="B98" t="s">
+        <v>197</v>
+      </c>
       <c r="C98" t="n">
         <v>2014</v>
       </c>
@@ -2008,9 +2538,11 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>101</v>
-      </c>
-      <c r="B99"/>
+        <v>198</v>
+      </c>
+      <c r="B99" t="s">
+        <v>199</v>
+      </c>
       <c r="C99" t="n">
         <v>2014</v>
       </c>
@@ -2020,9 +2552,11 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>102</v>
-      </c>
-      <c r="B100"/>
+        <v>200</v>
+      </c>
+      <c r="B100" t="s">
+        <v>201</v>
+      </c>
       <c r="C100" t="n">
         <v>2014</v>
       </c>
@@ -2032,9 +2566,11 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>103</v>
-      </c>
-      <c r="B101"/>
+        <v>202</v>
+      </c>
+      <c r="B101" t="s">
+        <v>203</v>
+      </c>
       <c r="C101" t="n">
         <v>2014</v>
       </c>
@@ -2044,9 +2580,11 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>104</v>
-      </c>
-      <c r="B102"/>
+        <v>204</v>
+      </c>
+      <c r="B102" t="s">
+        <v>205</v>
+      </c>
       <c r="C102" t="n">
         <v>2014</v>
       </c>
@@ -2056,9 +2594,11 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>105</v>
-      </c>
-      <c r="B103"/>
+        <v>206</v>
+      </c>
+      <c r="B103" t="s">
+        <v>207</v>
+      </c>
       <c r="C103" t="n">
         <v>2014</v>
       </c>
@@ -2068,9 +2608,11 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>106</v>
-      </c>
-      <c r="B104"/>
+        <v>208</v>
+      </c>
+      <c r="B104" t="s">
+        <v>209</v>
+      </c>
       <c r="C104" t="n">
         <v>2014</v>
       </c>
@@ -2080,9 +2622,11 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105"/>
+        <v>210</v>
+      </c>
+      <c r="B105" t="s">
+        <v>211</v>
+      </c>
       <c r="C105" t="n">
         <v>2014</v>
       </c>
@@ -2092,9 +2636,11 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>108</v>
-      </c>
-      <c r="B106"/>
+        <v>212</v>
+      </c>
+      <c r="B106" t="s">
+        <v>213</v>
+      </c>
       <c r="C106" t="n">
         <v>2014</v>
       </c>
@@ -2104,9 +2650,11 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>109</v>
-      </c>
-      <c r="B107"/>
+        <v>214</v>
+      </c>
+      <c r="B107" t="s">
+        <v>215</v>
+      </c>
       <c r="C107" t="n">
         <v>2014</v>
       </c>
@@ -2116,9 +2664,11 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>110</v>
-      </c>
-      <c r="B108"/>
+        <v>216</v>
+      </c>
+      <c r="B108" t="s">
+        <v>217</v>
+      </c>
       <c r="C108" t="n">
         <v>2014</v>
       </c>
@@ -2128,9 +2678,11 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>111</v>
-      </c>
-      <c r="B109"/>
+        <v>218</v>
+      </c>
+      <c r="B109" t="s">
+        <v>219</v>
+      </c>
       <c r="C109" t="n">
         <v>2014</v>
       </c>
@@ -2140,9 +2692,11 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>112</v>
-      </c>
-      <c r="B110"/>
+        <v>220</v>
+      </c>
+      <c r="B110" t="s">
+        <v>221</v>
+      </c>
       <c r="C110" t="n">
         <v>2014</v>
       </c>
@@ -2152,9 +2706,11 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>113</v>
-      </c>
-      <c r="B111"/>
+        <v>222</v>
+      </c>
+      <c r="B111" t="s">
+        <v>223</v>
+      </c>
       <c r="C111" t="n">
         <v>2014</v>
       </c>
@@ -2164,9 +2720,11 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>114</v>
-      </c>
-      <c r="B112"/>
+        <v>224</v>
+      </c>
+      <c r="B112" t="s">
+        <v>225</v>
+      </c>
       <c r="C112" t="n">
         <v>2014</v>
       </c>
@@ -2176,9 +2734,11 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>115</v>
-      </c>
-      <c r="B113"/>
+        <v>226</v>
+      </c>
+      <c r="B113" t="s">
+        <v>227</v>
+      </c>
       <c r="C113" t="n">
         <v>2014</v>
       </c>
@@ -2205,7 +2765,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>116</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2">
@@ -2218,13 +2778,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>49</v>
@@ -2232,7 +2792,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5" t="n">
         <v>82</v>
@@ -2240,7 +2800,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6" t="n">
         <v>77</v>
@@ -2248,7 +2808,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B7" t="n">
         <v>65</v>
@@ -2256,7 +2816,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B8" t="n">
         <v>82.1</v>
@@ -2264,7 +2824,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B9" t="n">
         <v>83</v>
@@ -2272,7 +2832,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B10" t="n">
         <v>89</v>
@@ -2280,7 +2840,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B11" t="n">
         <v>86</v>
@@ -2288,7 +2848,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B12" t="n">
         <v>69.8</v>
@@ -2296,7 +2856,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B13" t="n">
         <v>69.7</v>
@@ -2304,7 +2864,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B14" t="n">
         <v>89</v>
@@ -2312,7 +2872,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B15" t="n">
         <v>86</v>
@@ -2320,7 +2880,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B16" t="n">
         <v>88.2</v>
@@ -2328,7 +2888,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B17" t="n">
         <v>82.7</v>
@@ -2336,7 +2896,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B18" t="n">
         <v>75</v>
@@ -2344,7 +2904,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B19" t="n">
         <v>79.5</v>
@@ -2352,7 +2912,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B20" t="n">
         <v>65</v>
@@ -2360,7 +2920,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B21" t="n">
         <v>29.2</v>
@@ -2368,7 +2928,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B22" t="n">
         <v>55</v>
@@ -2376,7 +2936,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B23" t="n">
         <v>75</v>
@@ -2384,7 +2944,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="B24" t="n">
         <v>63</v>
@@ -2392,7 +2952,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B25" t="n">
         <v>96</v>
@@ -2400,7 +2960,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="B26" t="n">
         <v>82.7</v>
@@ -2408,7 +2968,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="B27" t="n">
         <v>84</v>
@@ -2416,7 +2976,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="B28" t="n">
         <v>74.8</v>
@@ -2424,7 +2984,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="B29" t="n">
         <v>82.5</v>
@@ -2432,7 +2992,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="B30" t="n">
         <v>78</v>
@@ -2440,7 +3000,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="B31" t="n">
         <v>74.4</v>
@@ -2448,7 +3008,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="B32" t="n">
         <v>63.2</v>
@@ -2456,7 +3016,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="B33" t="n">
         <v>90</v>
@@ -2464,7 +3024,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="B34" t="n">
         <v>70</v>
@@ -2472,7 +3032,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="B35" t="n">
         <v>78.4</v>
@@ -2480,7 +3040,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="B36" t="n">
         <v>80</v>
@@ -2488,7 +3048,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="B37" t="n">
         <v>76.1</v>
@@ -2496,7 +3056,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="B38" t="n">
         <v>69</v>
@@ -2504,7 +3064,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="B39" t="n">
         <v>62.7</v>
@@ -2512,7 +3072,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="B40" t="n">
         <v>89.4</v>
@@ -2520,7 +3080,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="B41" t="n">
         <v>75.4</v>
@@ -2528,7 +3088,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="B42" t="n">
         <v>69.5</v>
@@ -2536,7 +3096,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="B43" t="n">
         <v>71</v>
@@ -2544,7 +3104,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="B44" t="n">
         <v>77</v>
@@ -2552,7 +3112,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="B45" t="n">
         <v>76.2</v>
@@ -2560,7 +3120,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="B46" t="n">
         <v>80</v>
@@ -2568,7 +3128,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="B47" t="n">
         <v>85</v>
@@ -2576,7 +3136,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="B48" t="n">
         <v>75</v>
@@ -2584,7 +3144,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="B49" t="n">
         <v>74</v>
@@ -2592,7 +3152,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="B50" t="n">
         <v>68.9</v>
@@ -2600,7 +3160,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="B51" t="n">
         <v>80</v>
@@ -2608,7 +3168,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="B52" t="n">
         <v>84.6</v>
@@ -2616,7 +3176,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="B53" t="n">
         <v>80</v>
@@ -2624,7 +3184,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="B54" t="n">
         <v>63</v>
@@ -2632,7 +3192,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="B55" t="n">
         <v>69</v>
@@ -2640,7 +3200,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="B56" t="n">
         <v>81</v>
@@ -2648,7 +3208,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="B57" t="n">
         <v>70</v>
@@ -2656,7 +3216,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="B58" t="n">
         <v>84.3</v>
@@ -2664,7 +3224,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="B59" t="n">
         <v>71.4</v>
@@ -2672,7 +3232,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="B60" t="n">
         <v>63</v>
@@ -2680,7 +3240,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="B61" t="n">
         <v>71.3</v>
@@ -2688,7 +3248,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>64</v>
+        <v>124</v>
       </c>
       <c r="B62" t="n">
         <v>55.9</v>
@@ -2696,7 +3256,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="B63" t="n">
         <v>20.3</v>
@@ -2704,7 +3264,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>66</v>
+        <v>128</v>
       </c>
       <c r="B64" t="n">
         <v>82</v>
@@ -2712,7 +3272,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>67</v>
+        <v>130</v>
       </c>
       <c r="B65" t="n">
         <v>3.6</v>
@@ -2720,7 +3280,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>68</v>
+        <v>132</v>
       </c>
       <c r="B66" t="n">
         <v>88</v>
@@ -2728,7 +3288,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>69</v>
+        <v>134</v>
       </c>
       <c r="B67" t="n">
         <v>77.6</v>
@@ -2736,7 +3296,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>70</v>
+        <v>136</v>
       </c>
       <c r="B68" t="n">
         <v>15.4</v>
@@ -2744,7 +3304,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>71</v>
+        <v>138</v>
       </c>
       <c r="B69" t="n">
         <v>46.8</v>
@@ -2752,7 +3312,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>72</v>
+        <v>140</v>
       </c>
       <c r="B70" t="n">
         <v>50</v>
@@ -2760,7 +3320,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>73</v>
+        <v>142</v>
       </c>
       <c r="B71" t="n">
         <v>50.3</v>
@@ -2768,7 +3328,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>74</v>
+        <v>144</v>
       </c>
       <c r="B72" t="n">
         <v>78.9</v>
@@ -2776,7 +3336,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>75</v>
+        <v>146</v>
       </c>
       <c r="B73" t="n">
         <v>72.4</v>
@@ -2784,7 +3344,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>76</v>
+        <v>148</v>
       </c>
       <c r="B74" t="n">
         <v>84</v>
@@ -2792,7 +3352,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>77</v>
+        <v>150</v>
       </c>
       <c r="B75" t="n">
         <v>20.9</v>
@@ -2800,7 +3360,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>78</v>
+        <v>152</v>
       </c>
       <c r="B76" t="n">
         <v>73</v>
@@ -2808,7 +3368,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="B77" t="n">
         <v>70</v>
@@ -2816,7 +3376,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>80</v>
+        <v>156</v>
       </c>
       <c r="B78" t="n">
         <v>84.1</v>
@@ -2824,7 +3384,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>81</v>
+        <v>158</v>
       </c>
       <c r="B79" t="n">
         <v>34.5</v>
@@ -2832,7 +3392,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>82</v>
+        <v>160</v>
       </c>
       <c r="B80" t="n">
         <v>75.9</v>
@@ -2840,7 +3400,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>83</v>
+        <v>162</v>
       </c>
       <c r="B81" t="n">
         <v>5.4</v>
@@ -2848,7 +3408,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>84</v>
+        <v>164</v>
       </c>
       <c r="B82" t="n">
         <v>73.4</v>
@@ -2856,7 +3416,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>85</v>
+        <v>166</v>
       </c>
       <c r="B83" t="n">
         <v>42</v>
@@ -2864,7 +3424,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>86</v>
+        <v>168</v>
       </c>
       <c r="B84" t="n">
         <v>28</v>
@@ -2872,7 +3432,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>87</v>
+        <v>170</v>
       </c>
       <c r="B85" t="n">
         <v>70.1</v>
@@ -2880,7 +3440,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>88</v>
+        <v>172</v>
       </c>
       <c r="B86" t="n">
         <v>58</v>
@@ -2888,7 +3448,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>89</v>
+        <v>174</v>
       </c>
       <c r="B87" t="n">
         <v>71</v>
@@ -2896,7 +3456,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>90</v>
+        <v>176</v>
       </c>
       <c r="B88" t="n">
         <v>71</v>
@@ -2904,7 +3464,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>91</v>
+        <v>178</v>
       </c>
       <c r="B89" t="n">
         <v>89</v>
@@ -2912,7 +3472,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>92</v>
+        <v>180</v>
       </c>
       <c r="B90" t="n">
         <v>73.7</v>
@@ -2920,7 +3480,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>93</v>
+        <v>182</v>
       </c>
       <c r="B91" t="n">
         <v>94</v>
@@ -2928,7 +3488,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>94</v>
+        <v>184</v>
       </c>
       <c r="B92" t="n">
         <v>56</v>
@@ -2936,7 +3496,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>95</v>
+        <v>186</v>
       </c>
       <c r="B93" t="n">
         <v>85.4</v>
@@ -2944,7 +3504,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>96</v>
+        <v>188</v>
       </c>
       <c r="B94" t="n">
         <v>75</v>
@@ -2952,7 +3512,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>97</v>
+        <v>190</v>
       </c>
       <c r="B95" t="n">
         <v>63</v>
@@ -2960,7 +3520,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>98</v>
+        <v>192</v>
       </c>
       <c r="B96" t="n">
         <v>75</v>
@@ -2968,7 +3528,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>99</v>
+        <v>194</v>
       </c>
       <c r="B97" t="n">
         <v>97</v>
@@ -2976,7 +3536,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>100</v>
+        <v>196</v>
       </c>
       <c r="B98" t="n">
         <v>99.1</v>
@@ -2984,7 +3544,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>101</v>
+        <v>198</v>
       </c>
       <c r="B99" t="n">
         <v>98.9</v>
@@ -2992,7 +3552,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>102</v>
+        <v>200</v>
       </c>
       <c r="B100" t="n">
         <v>79</v>
@@ -3000,7 +3560,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>103</v>
+        <v>202</v>
       </c>
       <c r="B101" t="n">
         <v>92</v>
@@ -3008,7 +3568,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>104</v>
+        <v>204</v>
       </c>
       <c r="B102" t="n">
         <v>84.5</v>
@@ -3016,7 +3576,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>105</v>
+        <v>206</v>
       </c>
       <c r="B103" t="n">
         <v>65</v>
@@ -3024,7 +3584,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>106</v>
+        <v>208</v>
       </c>
       <c r="B104" t="n">
         <v>88.4</v>
@@ -3032,7 +3592,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>107</v>
+        <v>210</v>
       </c>
       <c r="B105" t="n">
         <v>86.4</v>
@@ -3040,7 +3600,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>108</v>
+        <v>212</v>
       </c>
       <c r="B106" t="n">
         <v>89</v>
@@ -3048,7 +3608,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>109</v>
+        <v>214</v>
       </c>
       <c r="B107" t="n">
         <v>57</v>
@@ -3056,7 +3616,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>110</v>
+        <v>216</v>
       </c>
       <c r="B108" t="n">
         <v>72</v>
@@ -3064,7 +3624,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>111</v>
+        <v>218</v>
       </c>
       <c r="B109" t="n">
         <v>77.5</v>
@@ -3072,7 +3632,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>112</v>
+        <v>220</v>
       </c>
       <c r="B110" t="n">
         <v>89.6</v>
@@ -3080,7 +3640,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>113</v>
+        <v>222</v>
       </c>
       <c r="B111" t="n">
         <v>66.3</v>
@@ -3088,7 +3648,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>114</v>
+        <v>224</v>
       </c>
       <c r="B112" t="n">
         <v>80.5</v>
@@ -3096,7 +3656,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>115</v>
+        <v>226</v>
       </c>
       <c r="B113" t="n">
         <v>78.4</v>

--- a/user-data/uganda-household-san-cov/uganda-household-san-cov.xlsx
+++ b/user-data/uganda-household-san-cov/uganda-household-san-cov.xlsx
@@ -28,36 +28,498 @@
     <t xml:space="preserve">value</t>
   </si>
   <si>
+    <t xml:space="preserve">d314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adjumani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alebtong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amolatar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amudat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amuria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amuru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Budaka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bududa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bugiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d420</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buhweju</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buikwe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bukedea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bukomansimbi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bukwo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulambuli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buliisa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bundibugyo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bushenyi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Busia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Butaleja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Butambala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buvuma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buyende</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dokolo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gomba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gulu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ibanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iganga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isingiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jinja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaabong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kabale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kabarole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaberamaido</t>
+  </si>
+  <si>
     <t xml:space="preserve">d101</t>
   </si>
   <si>
     <t xml:space="preserve">Kalangala</t>
   </si>
   <si>
+    <t xml:space="preserve">d222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaliro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kalungu</t>
+  </si>
+  <si>
     <t xml:space="preserve">d102</t>
   </si>
   <si>
     <t xml:space="preserve">Kampala</t>
   </si>
   <si>
+    <t xml:space="preserve">d205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamuli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamwenge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kanungu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kapchorwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kasese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katakwi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kayunga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kibaale</t>
+  </si>
+  <si>
     <t xml:space="preserve">d103</t>
   </si>
   <si>
     <t xml:space="preserve">Kiboga</t>
   </si>
   <si>
+    <t xml:space="preserve">d227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kibuku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiruhura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiryandongo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kisoro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kitgum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Koboko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kotido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kumi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kween</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyankwanzi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyegegwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyenjojo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lamwo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luuka</t>
+  </si>
+  <si>
     <t xml:space="preserve">d104</t>
   </si>
   <si>
     <t xml:space="preserve">Luwero</t>
   </si>
   <si>
+    <t xml:space="preserve">d124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lwengo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lyantonde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manafwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maracha</t>
+  </si>
+  <si>
     <t xml:space="preserve">d105</t>
   </si>
   <si>
     <t xml:space="preserve">Masaka</t>
   </si>
   <si>
+    <t xml:space="preserve">d409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masindi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mayuge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mbale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mbarara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mitooma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mityana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moroto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moyo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d106</t>
   </si>
   <si>
@@ -76,28 +538,148 @@
     <t xml:space="preserve">Mukono</t>
   </si>
   <si>
+    <t xml:space="preserve">d311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nakapiripirit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nakaseke</t>
+  </si>
+  <si>
     <t xml:space="preserve">d109</t>
   </si>
   <si>
     <t xml:space="preserve">Nakasongola</t>
   </si>
   <si>
+    <t xml:space="preserve">d230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namayingo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namutumba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Napak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nebbi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ntoroko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ntungamo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nwoya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Otuke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oyam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pallisa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d110</t>
   </si>
   <si>
     <t xml:space="preserve">Rakai</t>
   </si>
   <si>
+    <t xml:space="preserve">d425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rubirizi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rukungiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sironko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soroti</t>
+  </si>
+  <si>
     <t xml:space="preserve">d111</t>
   </si>
   <si>
     <t xml:space="preserve">Ssembabule</t>
   </si>
   <si>
-    <t xml:space="preserve">d112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kayunga</t>
+    <t xml:space="preserve">d212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tororo</t>
   </si>
   <si>
     <t xml:space="preserve">d113</t>
@@ -106,598 +688,16 @@
     <t xml:space="preserve">Wakiso</t>
   </si>
   <si>
-    <t xml:space="preserve">d114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lyantonde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mityana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nakaseke</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buikwe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bukomansimbi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Butambala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buvuma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gomba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kalungu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kyankwanzi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lwengo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bugiri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Busia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iganga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jinja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kamuli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kapchorwa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Katakwi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kumi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mbale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d210</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pallisa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soroti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tororo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kaberamaido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mayuge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sironko</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amuria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Budaka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bududa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bukedea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bukwo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Butaleja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kaliro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manafwa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namutumba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bulambuli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buyende</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kibuku</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kween</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luuka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d230</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namayingo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ngora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serere</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adjumani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apac</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gulu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kitgum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kotido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moroto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moyo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d310</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nebbi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nakapiripirit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pader</t>
-  </si>
-  <si>
     <t xml:space="preserve">d313</t>
   </si>
   <si>
     <t xml:space="preserve">Yumbe</t>
   </si>
   <si>
-    <t xml:space="preserve">d314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amolatar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amuru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dokolo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kaabong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Koboko</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d320</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maracha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oyam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agago</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alebtong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amudat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kole</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lamwo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Napak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nwoya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Otuke</t>
-  </si>
-  <si>
     <t xml:space="preserve">d330</t>
   </si>
   <si>
     <t xml:space="preserve">Zombo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bundibugyo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bushenyi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hoima</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kabale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kabarole</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kasese</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kibaale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kisoro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Masindi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d410</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mbarara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ntungamo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rukungiri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kamwenge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kanungu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kyenjojo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buliisa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ibanda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Isingiro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiruhura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d420</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buhweju</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiryandongo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kyegegwa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mitooma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ntoroko</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rubirizi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sheema</t>
   </si>
   <si>
     <t xml:space="preserve">2014</t>
@@ -1191,7 +1191,7 @@
         <v>2014</v>
       </c>
       <c r="D2" t="n">
-        <v>65</v>
+        <v>50.3</v>
       </c>
     </row>
     <row r="3">
@@ -1204,7 +1204,9 @@
       <c r="C3" t="n">
         <v>2014</v>
       </c>
-      <c r="D3"/>
+      <c r="D3" t="n">
+        <v>84.3</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -1217,7 +1219,7 @@
         <v>2014</v>
       </c>
       <c r="D4" t="n">
-        <v>49</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="5">
@@ -1231,7 +1233,7 @@
         <v>2014</v>
       </c>
       <c r="D5" t="n">
-        <v>82</v>
+        <v>75.9</v>
       </c>
     </row>
     <row r="6">
@@ -1245,7 +1247,7 @@
         <v>2014</v>
       </c>
       <c r="D6" t="n">
-        <v>77</v>
+        <v>78.9</v>
       </c>
     </row>
     <row r="7">
@@ -1259,7 +1261,7 @@
         <v>2014</v>
       </c>
       <c r="D7" t="n">
-        <v>65</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="8">
@@ -1273,7 +1275,7 @@
         <v>2014</v>
       </c>
       <c r="D8" t="n">
-        <v>82.1</v>
+        <v>75.4</v>
       </c>
     </row>
     <row r="9">
@@ -1287,7 +1289,7 @@
         <v>2014</v>
       </c>
       <c r="D9" t="n">
-        <v>83</v>
+        <v>72.4</v>
       </c>
     </row>
     <row r="10">
@@ -1301,7 +1303,7 @@
         <v>2014</v>
       </c>
       <c r="D10" t="n">
-        <v>89</v>
+        <v>71.4</v>
       </c>
     </row>
     <row r="11">
@@ -1315,7 +1317,7 @@
         <v>2014</v>
       </c>
       <c r="D11" t="n">
-        <v>86</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12">
@@ -1329,7 +1331,7 @@
         <v>2014</v>
       </c>
       <c r="D12" t="n">
-        <v>69.8</v>
+        <v>69.5</v>
       </c>
     </row>
     <row r="13">
@@ -1343,7 +1345,7 @@
         <v>2014</v>
       </c>
       <c r="D13" t="n">
-        <v>69.7</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14">
@@ -1357,7 +1359,7 @@
         <v>2014</v>
       </c>
       <c r="D14" t="n">
-        <v>89</v>
+        <v>82.7</v>
       </c>
     </row>
     <row r="15">
@@ -1371,7 +1373,7 @@
         <v>2014</v>
       </c>
       <c r="D15" t="n">
-        <v>86</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16">
@@ -1385,7 +1387,7 @@
         <v>2014</v>
       </c>
       <c r="D16" t="n">
-        <v>88.2</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17">
@@ -1399,7 +1401,7 @@
         <v>2014</v>
       </c>
       <c r="D17" t="n">
-        <v>82.7</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18">
@@ -1413,7 +1415,7 @@
         <v>2014</v>
       </c>
       <c r="D18" t="n">
-        <v>75</v>
+        <v>79.5</v>
       </c>
     </row>
     <row r="19">
@@ -1427,7 +1429,7 @@
         <v>2014</v>
       </c>
       <c r="D19" t="n">
-        <v>79.5</v>
+        <v>76.2</v>
       </c>
     </row>
     <row r="20">
@@ -1441,7 +1443,7 @@
         <v>2014</v>
       </c>
       <c r="D20" t="n">
-        <v>65</v>
+        <v>68.9</v>
       </c>
     </row>
     <row r="21">
@@ -1455,7 +1457,7 @@
         <v>2014</v>
       </c>
       <c r="D21" t="n">
-        <v>29.2</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22">
@@ -1469,7 +1471,7 @@
         <v>2014</v>
       </c>
       <c r="D22" t="n">
-        <v>55</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23">
@@ -1483,7 +1485,7 @@
         <v>2014</v>
       </c>
       <c r="D23" t="n">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24">
@@ -1497,7 +1499,7 @@
         <v>2014</v>
       </c>
       <c r="D24" t="n">
-        <v>63</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25">
@@ -1511,7 +1513,7 @@
         <v>2014</v>
       </c>
       <c r="D25" t="n">
-        <v>96</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26">
@@ -1525,7 +1527,7 @@
         <v>2014</v>
       </c>
       <c r="D26" t="n">
-        <v>82.7</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27">
@@ -1539,7 +1541,7 @@
         <v>2014</v>
       </c>
       <c r="D27" t="n">
-        <v>84</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="28">
@@ -1553,7 +1555,7 @@
         <v>2014</v>
       </c>
       <c r="D28" t="n">
-        <v>74.8</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29">
@@ -1567,7 +1569,7 @@
         <v>2014</v>
       </c>
       <c r="D29" t="n">
-        <v>82.5</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30">
@@ -1581,7 +1583,7 @@
         <v>2014</v>
       </c>
       <c r="D30" t="n">
-        <v>78</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31">
@@ -1595,7 +1597,7 @@
         <v>2014</v>
       </c>
       <c r="D31" t="n">
-        <v>74.4</v>
+        <v>71.3</v>
       </c>
     </row>
     <row r="32">
@@ -1609,7 +1611,7 @@
         <v>2014</v>
       </c>
       <c r="D32" t="n">
-        <v>63.2</v>
+        <v>73.7</v>
       </c>
     </row>
     <row r="33">
@@ -1623,7 +1625,7 @@
         <v>2014</v>
       </c>
       <c r="D33" t="n">
-        <v>90</v>
+        <v>88.4</v>
       </c>
     </row>
     <row r="34">
@@ -1637,7 +1639,7 @@
         <v>2014</v>
       </c>
       <c r="D34" t="n">
-        <v>70</v>
+        <v>74.8</v>
       </c>
     </row>
     <row r="35">
@@ -1651,7 +1653,7 @@
         <v>2014</v>
       </c>
       <c r="D35" t="n">
-        <v>78.4</v>
+        <v>86.4</v>
       </c>
     </row>
     <row r="36">
@@ -1665,7 +1667,7 @@
         <v>2014</v>
       </c>
       <c r="D36" t="n">
-        <v>80</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="37">
@@ -1679,7 +1681,7 @@
         <v>2014</v>
       </c>
       <c r="D37" t="n">
-        <v>76.1</v>
+        <v>20.9</v>
       </c>
     </row>
     <row r="38">
@@ -1693,7 +1695,7 @@
         <v>2014</v>
       </c>
       <c r="D38" t="n">
-        <v>69</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39">
@@ -1707,7 +1709,7 @@
         <v>2014</v>
       </c>
       <c r="D39" t="n">
-        <v>62.7</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40">
@@ -1721,7 +1723,7 @@
         <v>2014</v>
       </c>
       <c r="D40" t="n">
-        <v>89.4</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41">
@@ -1735,7 +1737,7 @@
         <v>2014</v>
       </c>
       <c r="D41" t="n">
-        <v>75.4</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42">
@@ -1749,7 +1751,7 @@
         <v>2014</v>
       </c>
       <c r="D42" t="n">
-        <v>69.5</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43">
@@ -1763,7 +1765,7 @@
         <v>2014</v>
       </c>
       <c r="D43" t="n">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44">
@@ -1776,9 +1778,7 @@
       <c r="C44" t="n">
         <v>2014</v>
       </c>
-      <c r="D44" t="n">
-        <v>77</v>
-      </c>
+      <c r="D44"/>
     </row>
     <row r="45">
       <c r="A45" t="s">
@@ -1791,7 +1791,7 @@
         <v>2014</v>
       </c>
       <c r="D45" t="n">
-        <v>76.2</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46">
@@ -1805,7 +1805,7 @@
         <v>2014</v>
       </c>
       <c r="D46" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47">
@@ -1819,7 +1819,7 @@
         <v>2014</v>
       </c>
       <c r="D47" t="n">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48">
@@ -1833,7 +1833,7 @@
         <v>2014</v>
       </c>
       <c r="D48" t="n">
-        <v>75</v>
+        <v>74.4</v>
       </c>
     </row>
     <row r="49">
@@ -1847,7 +1847,7 @@
         <v>2014</v>
       </c>
       <c r="D49" t="n">
-        <v>74</v>
+        <v>85.4</v>
       </c>
     </row>
     <row r="50">
@@ -1861,7 +1861,7 @@
         <v>2014</v>
       </c>
       <c r="D50" t="n">
-        <v>68.9</v>
+        <v>63.2</v>
       </c>
     </row>
     <row r="51">
@@ -1875,7 +1875,7 @@
         <v>2014</v>
       </c>
       <c r="D51" t="n">
-        <v>80</v>
+        <v>69.7</v>
       </c>
     </row>
     <row r="52">
@@ -1889,7 +1889,7 @@
         <v>2014</v>
       </c>
       <c r="D52" t="n">
-        <v>84.6</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53">
@@ -1903,7 +1903,7 @@
         <v>2014</v>
       </c>
       <c r="D53" t="n">
-        <v>80</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54">
@@ -1917,7 +1917,7 @@
         <v>2014</v>
       </c>
       <c r="D54" t="n">
-        <v>63</v>
+        <v>84.6</v>
       </c>
     </row>
     <row r="55">
@@ -1931,7 +1931,7 @@
         <v>2014</v>
       </c>
       <c r="D55" t="n">
-        <v>69</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56">
@@ -1945,7 +1945,7 @@
         <v>2014</v>
       </c>
       <c r="D56" t="n">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57">
@@ -1959,7 +1959,7 @@
         <v>2014</v>
       </c>
       <c r="D57" t="n">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58">
@@ -1973,7 +1973,7 @@
         <v>2014</v>
       </c>
       <c r="D58" t="n">
-        <v>84.3</v>
+        <v>55.9</v>
       </c>
     </row>
     <row r="59">
@@ -1987,7 +1987,7 @@
         <v>2014</v>
       </c>
       <c r="D59" t="n">
-        <v>71.4</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60">
@@ -2001,7 +2001,7 @@
         <v>2014</v>
       </c>
       <c r="D60" t="n">
-        <v>63</v>
+        <v>73.4</v>
       </c>
     </row>
     <row r="61">
@@ -2015,7 +2015,7 @@
         <v>2014</v>
       </c>
       <c r="D61" t="n">
-        <v>71.3</v>
+        <v>20.3</v>
       </c>
     </row>
     <row r="62">
@@ -2029,7 +2029,7 @@
         <v>2014</v>
       </c>
       <c r="D62" t="n">
-        <v>55.9</v>
+        <v>90</v>
       </c>
     </row>
     <row r="63">
@@ -2043,7 +2043,7 @@
         <v>2014</v>
       </c>
       <c r="D63" t="n">
-        <v>20.3</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64">
@@ -2057,7 +2057,7 @@
         <v>2014</v>
       </c>
       <c r="D64" t="n">
-        <v>82</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65">
@@ -2071,7 +2071,7 @@
         <v>2014</v>
       </c>
       <c r="D65" t="n">
-        <v>3.6</v>
+        <v>77.5</v>
       </c>
     </row>
     <row r="66">
@@ -2085,7 +2085,7 @@
         <v>2014</v>
       </c>
       <c r="D66" t="n">
-        <v>88</v>
+        <v>84.5</v>
       </c>
     </row>
     <row r="67">
@@ -2099,7 +2099,7 @@
         <v>2014</v>
       </c>
       <c r="D67" t="n">
-        <v>77.6</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68">
@@ -2113,7 +2113,7 @@
         <v>2014</v>
       </c>
       <c r="D68" t="n">
-        <v>15.4</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69">
@@ -2127,7 +2127,7 @@
         <v>2014</v>
       </c>
       <c r="D69" t="n">
-        <v>46.8</v>
+        <v>63</v>
       </c>
     </row>
     <row r="70">
@@ -2141,7 +2141,7 @@
         <v>2014</v>
       </c>
       <c r="D70" t="n">
-        <v>50</v>
+        <v>82</v>
       </c>
     </row>
     <row r="71">
@@ -2155,7 +2155,7 @@
         <v>2014</v>
       </c>
       <c r="D71" t="n">
-        <v>50.3</v>
+        <v>96</v>
       </c>
     </row>
     <row r="72">
@@ -2169,7 +2169,7 @@
         <v>2014</v>
       </c>
       <c r="D72" t="n">
-        <v>78.9</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73">
@@ -2183,7 +2183,7 @@
         <v>2014</v>
       </c>
       <c r="D73" t="n">
-        <v>72.4</v>
+        <v>75</v>
       </c>
     </row>
     <row r="74">
@@ -2197,7 +2197,7 @@
         <v>2014</v>
       </c>
       <c r="D74" t="n">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="75">
@@ -2211,7 +2211,7 @@
         <v>2014</v>
       </c>
       <c r="D75" t="n">
-        <v>20.9</v>
+        <v>77</v>
       </c>
     </row>
     <row r="76">
@@ -2225,7 +2225,7 @@
         <v>2014</v>
       </c>
       <c r="D76" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77">
@@ -2239,7 +2239,7 @@
         <v>2014</v>
       </c>
       <c r="D77" t="n">
-        <v>70</v>
+        <v>62.7</v>
       </c>
     </row>
     <row r="78">
@@ -2253,7 +2253,7 @@
         <v>2014</v>
       </c>
       <c r="D78" t="n">
-        <v>84.1</v>
+        <v>70</v>
       </c>
     </row>
     <row r="79">
@@ -2267,7 +2267,7 @@
         <v>2014</v>
       </c>
       <c r="D79" t="n">
-        <v>34.5</v>
+        <v>97</v>
       </c>
     </row>
     <row r="80">
@@ -2281,7 +2281,7 @@
         <v>2014</v>
       </c>
       <c r="D80" t="n">
-        <v>75.9</v>
+        <v>89.6</v>
       </c>
     </row>
     <row r="81">
@@ -2295,7 +2295,7 @@
         <v>2014</v>
       </c>
       <c r="D81" t="n">
-        <v>5.4</v>
+        <v>88.2</v>
       </c>
     </row>
     <row r="82">
@@ -2309,7 +2309,7 @@
         <v>2014</v>
       </c>
       <c r="D82" t="n">
-        <v>73.4</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="83">
@@ -2323,7 +2323,7 @@
         <v>2014</v>
       </c>
       <c r="D83" t="n">
-        <v>42</v>
+        <v>88</v>
       </c>
     </row>
     <row r="84">
@@ -2337,7 +2337,7 @@
         <v>2014</v>
       </c>
       <c r="D84" t="n">
-        <v>28</v>
+        <v>65</v>
       </c>
     </row>
     <row r="85">
@@ -2351,7 +2351,7 @@
         <v>2014</v>
       </c>
       <c r="D85" t="n">
-        <v>70.1</v>
+        <v>82.1</v>
       </c>
     </row>
     <row r="86">
@@ -2365,7 +2365,7 @@
         <v>2014</v>
       </c>
       <c r="D86" t="n">
-        <v>58</v>
+        <v>83</v>
       </c>
     </row>
     <row r="87">
@@ -2379,7 +2379,7 @@
         <v>2014</v>
       </c>
       <c r="D87" t="n">
-        <v>71</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="88">
@@ -2393,7 +2393,7 @@
         <v>2014</v>
       </c>
       <c r="D88" t="n">
-        <v>71</v>
+        <v>82.7</v>
       </c>
     </row>
     <row r="89">
@@ -2421,7 +2421,7 @@
         <v>2014</v>
       </c>
       <c r="D90" t="n">
-        <v>73.7</v>
+        <v>69</v>
       </c>
     </row>
     <row r="91">
@@ -2435,7 +2435,7 @@
         <v>2014</v>
       </c>
       <c r="D91" t="n">
-        <v>94</v>
+        <v>74</v>
       </c>
     </row>
     <row r="92">
@@ -2449,7 +2449,7 @@
         <v>2014</v>
       </c>
       <c r="D92" t="n">
-        <v>56</v>
+        <v>28</v>
       </c>
     </row>
     <row r="93">
@@ -2463,7 +2463,7 @@
         <v>2014</v>
       </c>
       <c r="D93" t="n">
-        <v>85.4</v>
+        <v>77.6</v>
       </c>
     </row>
     <row r="94">
@@ -2477,7 +2477,7 @@
         <v>2014</v>
       </c>
       <c r="D94" t="n">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="95">
@@ -2491,7 +2491,7 @@
         <v>2014</v>
       </c>
       <c r="D95" t="n">
-        <v>63</v>
+        <v>66.3</v>
       </c>
     </row>
     <row r="96">
@@ -2505,7 +2505,7 @@
         <v>2014</v>
       </c>
       <c r="D96" t="n">
-        <v>75</v>
+        <v>99.1</v>
       </c>
     </row>
     <row r="97">
@@ -2519,7 +2519,7 @@
         <v>2014</v>
       </c>
       <c r="D97" t="n">
-        <v>97</v>
+        <v>70.1</v>
       </c>
     </row>
     <row r="98">
@@ -2533,7 +2533,7 @@
         <v>2014</v>
       </c>
       <c r="D98" t="n">
-        <v>99.1</v>
+        <v>58</v>
       </c>
     </row>
     <row r="99">
@@ -2547,7 +2547,7 @@
         <v>2014</v>
       </c>
       <c r="D99" t="n">
-        <v>98.9</v>
+        <v>84.1</v>
       </c>
     </row>
     <row r="100">
@@ -2561,7 +2561,7 @@
         <v>2014</v>
       </c>
       <c r="D100" t="n">
-        <v>79</v>
+        <v>46.8</v>
       </c>
     </row>
     <row r="101">
@@ -2575,7 +2575,7 @@
         <v>2014</v>
       </c>
       <c r="D101" t="n">
-        <v>92</v>
+        <v>78.4</v>
       </c>
     </row>
     <row r="102">
@@ -2589,7 +2589,7 @@
         <v>2014</v>
       </c>
       <c r="D102" t="n">
-        <v>84.5</v>
+        <v>86</v>
       </c>
     </row>
     <row r="103">
@@ -2603,7 +2603,7 @@
         <v>2014</v>
       </c>
       <c r="D103" t="n">
-        <v>65</v>
+        <v>80.5</v>
       </c>
     </row>
     <row r="104">
@@ -2617,7 +2617,7 @@
         <v>2014</v>
       </c>
       <c r="D104" t="n">
-        <v>88.4</v>
+        <v>98.9</v>
       </c>
     </row>
     <row r="105">
@@ -2631,7 +2631,7 @@
         <v>2014</v>
       </c>
       <c r="D105" t="n">
-        <v>86.4</v>
+        <v>70</v>
       </c>
     </row>
     <row r="106">
@@ -2645,7 +2645,7 @@
         <v>2014</v>
       </c>
       <c r="D106" t="n">
-        <v>89</v>
+        <v>78.4</v>
       </c>
     </row>
     <row r="107">
@@ -2659,7 +2659,7 @@
         <v>2014</v>
       </c>
       <c r="D107" t="n">
-        <v>57</v>
+        <v>89.4</v>
       </c>
     </row>
     <row r="108">
@@ -2673,7 +2673,7 @@
         <v>2014</v>
       </c>
       <c r="D108" t="n">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="109">
@@ -2687,7 +2687,7 @@
         <v>2014</v>
       </c>
       <c r="D109" t="n">
-        <v>77.5</v>
+        <v>69.8</v>
       </c>
     </row>
     <row r="110">
@@ -2701,7 +2701,7 @@
         <v>2014</v>
       </c>
       <c r="D110" t="n">
-        <v>89.6</v>
+        <v>76.1</v>
       </c>
     </row>
     <row r="111">
@@ -2715,7 +2715,7 @@
         <v>2014</v>
       </c>
       <c r="D111" t="n">
-        <v>66.3</v>
+        <v>89</v>
       </c>
     </row>
     <row r="112">
@@ -2729,7 +2729,7 @@
         <v>2014</v>
       </c>
       <c r="D112" t="n">
-        <v>80.5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="113">
@@ -2743,7 +2743,7 @@
         <v>2014</v>
       </c>
       <c r="D113" t="n">
-        <v>78.4</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2765,6 +2765,9 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -2772,701 +2775,965 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="n">
-        <v>65</v>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>50.3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3"/>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>84.3</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="n">
-        <v>49</v>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>34.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="n">
-        <v>82</v>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="n">
+        <v>75.9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="n">
-        <v>77</v>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="n">
+        <v>78.9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="n">
-        <v>65</v>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5.4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="n">
-        <v>82.1</v>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="n">
+        <v>75.4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="n">
-        <v>83</v>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="n">
+        <v>72.4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" t="n">
-        <v>89</v>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="n">
+        <v>71.4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" t="n">
-        <v>86</v>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>24</v>
       </c>
-      <c r="B12" t="n">
-        <v>69.8</v>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="n">
+        <v>69.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
         <v>26</v>
       </c>
-      <c r="B13" t="n">
-        <v>69.7</v>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
         <v>28</v>
       </c>
-      <c r="B14" t="n">
-        <v>89</v>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="n">
+        <v>82.7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
         <v>30</v>
       </c>
-      <c r="B15" t="n">
-        <v>86</v>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
         <v>32</v>
       </c>
-      <c r="B16" t="n">
-        <v>88.2</v>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
         <v>34</v>
       </c>
-      <c r="B17" t="n">
-        <v>82.7</v>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
         <v>36</v>
       </c>
-      <c r="B18" t="n">
-        <v>75</v>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="n">
+        <v>79.5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
         <v>38</v>
       </c>
-      <c r="B19" t="n">
-        <v>79.5</v>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="n">
+        <v>76.2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
         <v>40</v>
       </c>
-      <c r="B20" t="n">
-        <v>65</v>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="n">
+        <v>68.9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
         <v>42</v>
       </c>
-      <c r="B21" t="n">
-        <v>29.2</v>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
         <v>44</v>
       </c>
-      <c r="B22" t="n">
-        <v>55</v>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
         <v>46</v>
       </c>
-      <c r="B23" t="n">
-        <v>75</v>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="n">
+        <v>89</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
         <v>48</v>
       </c>
-      <c r="B24" t="n">
-        <v>63</v>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
         <v>50</v>
       </c>
-      <c r="B25" t="n">
-        <v>96</v>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
         <v>52</v>
       </c>
-      <c r="B26" t="n">
-        <v>82.7</v>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
         <v>54</v>
       </c>
-      <c r="B27" t="n">
-        <v>84</v>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" t="n">
+        <v>29.2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
         <v>56</v>
       </c>
-      <c r="B28" t="n">
-        <v>74.8</v>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
         <v>58</v>
       </c>
-      <c r="B29" t="n">
-        <v>82.5</v>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
         <v>60</v>
       </c>
-      <c r="B30" t="n">
-        <v>78</v>
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
         <v>62</v>
       </c>
-      <c r="B31" t="n">
-        <v>74.4</v>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" t="n">
+        <v>71.3</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
         <v>64</v>
       </c>
-      <c r="B32" t="n">
-        <v>63.2</v>
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" t="n">
+        <v>73.7</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
         <v>66</v>
       </c>
-      <c r="B33" t="n">
-        <v>90</v>
+      <c r="B33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" t="n">
+        <v>88.4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
         <v>68</v>
       </c>
-      <c r="B34" t="n">
-        <v>70</v>
+      <c r="B34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" t="n">
+        <v>74.8</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
         <v>70</v>
       </c>
-      <c r="B35" t="n">
-        <v>78.4</v>
+      <c r="B35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" t="n">
+        <v>86.4</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
         <v>72</v>
       </c>
-      <c r="B36" t="n">
-        <v>80</v>
+      <c r="B36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" t="n">
+        <v>82.5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
         <v>74</v>
       </c>
-      <c r="B37" t="n">
-        <v>76.1</v>
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" t="n">
+        <v>20.9</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
         <v>76</v>
       </c>
-      <c r="B38" t="n">
-        <v>69</v>
+      <c r="B38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" t="n">
+        <v>94</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
         <v>78</v>
       </c>
-      <c r="B39" t="n">
-        <v>62.7</v>
+      <c r="B39" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
         <v>80</v>
       </c>
-      <c r="B40" t="n">
-        <v>89.4</v>
+      <c r="B40" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
         <v>82</v>
       </c>
-      <c r="B41" t="n">
-        <v>75.4</v>
+      <c r="B41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
         <v>84</v>
       </c>
-      <c r="B42" t="n">
-        <v>69.5</v>
+      <c r="B42" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" t="n">
+        <v>85</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
         <v>86</v>
       </c>
-      <c r="B43" t="n">
-        <v>71</v>
+      <c r="B43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
         <v>88</v>
       </c>
-      <c r="B44" t="n">
-        <v>77</v>
-      </c>
+      <c r="B44" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44"/>
     </row>
     <row r="45">
       <c r="A45" t="s">
         <v>90</v>
       </c>
-      <c r="B45" t="n">
-        <v>76.2</v>
+      <c r="B45" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" t="n">
+        <v>78</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
         <v>92</v>
       </c>
-      <c r="B46" t="n">
-        <v>80</v>
+      <c r="B46" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" t="n">
+        <v>79</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
         <v>94</v>
       </c>
-      <c r="B47" t="n">
-        <v>85</v>
+      <c r="B47" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" t="n">
+        <v>92</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
         <v>96</v>
       </c>
-      <c r="B48" t="n">
-        <v>75</v>
+      <c r="B48" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" t="n">
+        <v>74.4</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
         <v>98</v>
       </c>
-      <c r="B49" t="n">
-        <v>74</v>
+      <c r="B49" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" t="n">
+        <v>85.4</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
         <v>100</v>
       </c>
-      <c r="B50" t="n">
-        <v>68.9</v>
+      <c r="B50" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" t="n">
+        <v>63.2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
         <v>102</v>
       </c>
-      <c r="B51" t="n">
-        <v>80</v>
+      <c r="B51" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51" t="n">
+        <v>69.7</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
         <v>104</v>
       </c>
-      <c r="B52" t="n">
-        <v>84.6</v>
+      <c r="B52" t="s">
+        <v>105</v>
+      </c>
+      <c r="C52" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
         <v>106</v>
       </c>
-      <c r="B53" t="n">
-        <v>80</v>
+      <c r="B53" t="s">
+        <v>107</v>
+      </c>
+      <c r="C53" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
         <v>108</v>
       </c>
-      <c r="B54" t="n">
-        <v>63</v>
+      <c r="B54" t="s">
+        <v>109</v>
+      </c>
+      <c r="C54" t="n">
+        <v>84.6</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
         <v>110</v>
       </c>
-      <c r="B55" t="n">
-        <v>69</v>
+      <c r="B55" t="s">
+        <v>111</v>
+      </c>
+      <c r="C55" t="n">
+        <v>89</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
         <v>112</v>
       </c>
-      <c r="B56" t="n">
-        <v>81</v>
+      <c r="B56" t="s">
+        <v>113</v>
+      </c>
+      <c r="C56" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
         <v>114</v>
       </c>
-      <c r="B57" t="n">
-        <v>70</v>
+      <c r="B57" t="s">
+        <v>115</v>
+      </c>
+      <c r="C57" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
         <v>116</v>
       </c>
-      <c r="B58" t="n">
-        <v>84.3</v>
+      <c r="B58" t="s">
+        <v>117</v>
+      </c>
+      <c r="C58" t="n">
+        <v>55.9</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
         <v>118</v>
       </c>
-      <c r="B59" t="n">
-        <v>71.4</v>
+      <c r="B59" t="s">
+        <v>119</v>
+      </c>
+      <c r="C59" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
         <v>120</v>
       </c>
-      <c r="B60" t="n">
-        <v>63</v>
+      <c r="B60" t="s">
+        <v>121</v>
+      </c>
+      <c r="C60" t="n">
+        <v>73.4</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
         <v>122</v>
       </c>
-      <c r="B61" t="n">
-        <v>71.3</v>
+      <c r="B61" t="s">
+        <v>123</v>
+      </c>
+      <c r="C61" t="n">
+        <v>20.3</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
         <v>124</v>
       </c>
-      <c r="B62" t="n">
-        <v>55.9</v>
+      <c r="B62" t="s">
+        <v>125</v>
+      </c>
+      <c r="C62" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
         <v>126</v>
       </c>
-      <c r="B63" t="n">
-        <v>20.3</v>
+      <c r="B63" t="s">
+        <v>127</v>
+      </c>
+      <c r="C63" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
         <v>128</v>
       </c>
-      <c r="B64" t="n">
-        <v>82</v>
+      <c r="B64" t="s">
+        <v>129</v>
+      </c>
+      <c r="C64" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
         <v>130</v>
       </c>
-      <c r="B65" t="n">
-        <v>3.6</v>
+      <c r="B65" t="s">
+        <v>131</v>
+      </c>
+      <c r="C65" t="n">
+        <v>77.5</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
         <v>132</v>
       </c>
-      <c r="B66" t="n">
-        <v>88</v>
+      <c r="B66" t="s">
+        <v>133</v>
+      </c>
+      <c r="C66" t="n">
+        <v>84.5</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
         <v>134</v>
       </c>
-      <c r="B67" t="n">
-        <v>77.6</v>
+      <c r="B67" t="s">
+        <v>135</v>
+      </c>
+      <c r="C67" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
         <v>136</v>
       </c>
-      <c r="B68" t="n">
-        <v>15.4</v>
+      <c r="B68" t="s">
+        <v>137</v>
+      </c>
+      <c r="C68" t="n">
+        <v>82</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
         <v>138</v>
       </c>
-      <c r="B69" t="n">
-        <v>46.8</v>
+      <c r="B69" t="s">
+        <v>139</v>
+      </c>
+      <c r="C69" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
         <v>140</v>
       </c>
-      <c r="B70" t="n">
-        <v>50</v>
+      <c r="B70" t="s">
+        <v>141</v>
+      </c>
+      <c r="C70" t="n">
+        <v>82</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
         <v>142</v>
       </c>
-      <c r="B71" t="n">
-        <v>50.3</v>
+      <c r="B71" t="s">
+        <v>143</v>
+      </c>
+      <c r="C71" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
         <v>144</v>
       </c>
-      <c r="B72" t="n">
-        <v>78.9</v>
+      <c r="B72" t="s">
+        <v>145</v>
+      </c>
+      <c r="C72" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
         <v>146</v>
       </c>
-      <c r="B73" t="n">
-        <v>72.4</v>
+      <c r="B73" t="s">
+        <v>147</v>
+      </c>
+      <c r="C73" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
         <v>148</v>
       </c>
-      <c r="B74" t="n">
-        <v>84</v>
+      <c r="B74" t="s">
+        <v>149</v>
+      </c>
+      <c r="C74" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
         <v>150</v>
       </c>
-      <c r="B75" t="n">
-        <v>20.9</v>
+      <c r="B75" t="s">
+        <v>151</v>
+      </c>
+      <c r="C75" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
         <v>152</v>
       </c>
-      <c r="B76" t="n">
-        <v>73</v>
+      <c r="B76" t="s">
+        <v>153</v>
+      </c>
+      <c r="C76" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
         <v>154</v>
       </c>
-      <c r="B77" t="n">
-        <v>70</v>
+      <c r="B77" t="s">
+        <v>155</v>
+      </c>
+      <c r="C77" t="n">
+        <v>62.7</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
         <v>156</v>
       </c>
-      <c r="B78" t="n">
-        <v>84.1</v>
+      <c r="B78" t="s">
+        <v>157</v>
+      </c>
+      <c r="C78" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
         <v>158</v>
       </c>
-      <c r="B79" t="n">
-        <v>34.5</v>
+      <c r="B79" t="s">
+        <v>159</v>
+      </c>
+      <c r="C79" t="n">
+        <v>97</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
         <v>160</v>
       </c>
-      <c r="B80" t="n">
-        <v>75.9</v>
+      <c r="B80" t="s">
+        <v>161</v>
+      </c>
+      <c r="C80" t="n">
+        <v>89.6</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
         <v>162</v>
       </c>
-      <c r="B81" t="n">
-        <v>5.4</v>
+      <c r="B81" t="s">
+        <v>163</v>
+      </c>
+      <c r="C81" t="n">
+        <v>88.2</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
         <v>164</v>
       </c>
-      <c r="B82" t="n">
-        <v>73.4</v>
+      <c r="B82" t="s">
+        <v>165</v>
+      </c>
+      <c r="C82" t="n">
+        <v>3.6</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
         <v>166</v>
       </c>
-      <c r="B83" t="n">
-        <v>42</v>
+      <c r="B83" t="s">
+        <v>167</v>
+      </c>
+      <c r="C83" t="n">
+        <v>88</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
         <v>168</v>
       </c>
-      <c r="B84" t="n">
-        <v>28</v>
+      <c r="B84" t="s">
+        <v>169</v>
+      </c>
+      <c r="C84" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
         <v>170</v>
       </c>
-      <c r="B85" t="n">
-        <v>70.1</v>
+      <c r="B85" t="s">
+        <v>171</v>
+      </c>
+      <c r="C85" t="n">
+        <v>82.1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
         <v>172</v>
       </c>
-      <c r="B86" t="n">
-        <v>58</v>
+      <c r="B86" t="s">
+        <v>173</v>
+      </c>
+      <c r="C86" t="n">
+        <v>83</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
         <v>174</v>
       </c>
-      <c r="B87" t="n">
-        <v>71</v>
+      <c r="B87" t="s">
+        <v>175</v>
+      </c>
+      <c r="C87" t="n">
+        <v>15.4</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
         <v>176</v>
       </c>
-      <c r="B88" t="n">
-        <v>71</v>
+      <c r="B88" t="s">
+        <v>177</v>
+      </c>
+      <c r="C88" t="n">
+        <v>82.7</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
         <v>178</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89" t="s">
+        <v>179</v>
+      </c>
+      <c r="C89" t="n">
         <v>89</v>
       </c>
     </row>
@@ -3474,192 +3741,264 @@
       <c r="A90" t="s">
         <v>180</v>
       </c>
-      <c r="B90" t="n">
-        <v>73.7</v>
+      <c r="B90" t="s">
+        <v>181</v>
+      </c>
+      <c r="C90" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
         <v>182</v>
       </c>
-      <c r="B91" t="n">
-        <v>94</v>
+      <c r="B91" t="s">
+        <v>183</v>
+      </c>
+      <c r="C91" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
         <v>184</v>
       </c>
-      <c r="B92" t="n">
-        <v>56</v>
+      <c r="B92" t="s">
+        <v>185</v>
+      </c>
+      <c r="C92" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
         <v>186</v>
       </c>
-      <c r="B93" t="n">
-        <v>85.4</v>
+      <c r="B93" t="s">
+        <v>187</v>
+      </c>
+      <c r="C93" t="n">
+        <v>77.6</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
         <v>188</v>
       </c>
-      <c r="B94" t="n">
-        <v>75</v>
+      <c r="B94" t="s">
+        <v>189</v>
+      </c>
+      <c r="C94" t="n">
+        <v>81</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
         <v>190</v>
       </c>
-      <c r="B95" t="n">
-        <v>63</v>
+      <c r="B95" t="s">
+        <v>191</v>
+      </c>
+      <c r="C95" t="n">
+        <v>66.3</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
         <v>192</v>
       </c>
-      <c r="B96" t="n">
-        <v>75</v>
+      <c r="B96" t="s">
+        <v>193</v>
+      </c>
+      <c r="C96" t="n">
+        <v>99.1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
         <v>194</v>
       </c>
-      <c r="B97" t="n">
-        <v>97</v>
+      <c r="B97" t="s">
+        <v>195</v>
+      </c>
+      <c r="C97" t="n">
+        <v>70.1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
         <v>196</v>
       </c>
-      <c r="B98" t="n">
-        <v>99.1</v>
+      <c r="B98" t="s">
+        <v>197</v>
+      </c>
+      <c r="C98" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
         <v>198</v>
       </c>
-      <c r="B99" t="n">
-        <v>98.9</v>
+      <c r="B99" t="s">
+        <v>199</v>
+      </c>
+      <c r="C99" t="n">
+        <v>84.1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
         <v>200</v>
       </c>
-      <c r="B100" t="n">
-        <v>79</v>
+      <c r="B100" t="s">
+        <v>201</v>
+      </c>
+      <c r="C100" t="n">
+        <v>46.8</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
         <v>202</v>
       </c>
-      <c r="B101" t="n">
-        <v>92</v>
+      <c r="B101" t="s">
+        <v>203</v>
+      </c>
+      <c r="C101" t="n">
+        <v>78.4</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
         <v>204</v>
       </c>
-      <c r="B102" t="n">
-        <v>84.5</v>
+      <c r="B102" t="s">
+        <v>205</v>
+      </c>
+      <c r="C102" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
         <v>206</v>
       </c>
-      <c r="B103" t="n">
-        <v>65</v>
+      <c r="B103" t="s">
+        <v>207</v>
+      </c>
+      <c r="C103" t="n">
+        <v>80.5</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
         <v>208</v>
       </c>
-      <c r="B104" t="n">
-        <v>88.4</v>
+      <c r="B104" t="s">
+        <v>209</v>
+      </c>
+      <c r="C104" t="n">
+        <v>98.9</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
         <v>210</v>
       </c>
-      <c r="B105" t="n">
-        <v>86.4</v>
+      <c r="B105" t="s">
+        <v>211</v>
+      </c>
+      <c r="C105" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
         <v>212</v>
       </c>
-      <c r="B106" t="n">
-        <v>89</v>
+      <c r="B106" t="s">
+        <v>213</v>
+      </c>
+      <c r="C106" t="n">
+        <v>78.4</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
         <v>214</v>
       </c>
-      <c r="B107" t="n">
-        <v>57</v>
+      <c r="B107" t="s">
+        <v>215</v>
+      </c>
+      <c r="C107" t="n">
+        <v>89.4</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
         <v>216</v>
       </c>
-      <c r="B108" t="n">
-        <v>72</v>
+      <c r="B108" t="s">
+        <v>217</v>
+      </c>
+      <c r="C108" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
         <v>218</v>
       </c>
-      <c r="B109" t="n">
-        <v>77.5</v>
+      <c r="B109" t="s">
+        <v>219</v>
+      </c>
+      <c r="C109" t="n">
+        <v>69.8</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
         <v>220</v>
       </c>
-      <c r="B110" t="n">
-        <v>89.6</v>
+      <c r="B110" t="s">
+        <v>221</v>
+      </c>
+      <c r="C110" t="n">
+        <v>76.1</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
         <v>222</v>
       </c>
-      <c r="B111" t="n">
-        <v>66.3</v>
+      <c r="B111" t="s">
+        <v>223</v>
+      </c>
+      <c r="C111" t="n">
+        <v>89</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
         <v>224</v>
       </c>
-      <c r="B112" t="n">
-        <v>80.5</v>
+      <c r="B112" t="s">
+        <v>225</v>
+      </c>
+      <c r="C112" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
         <v>226</v>
       </c>
-      <c r="B113" t="n">
-        <v>78.4</v>
+      <c r="B113" t="s">
+        <v>227</v>
+      </c>
+      <c r="C113" t="n">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/uganda-household-san-cov/uganda-household-san-cov.xlsx
+++ b/user-data/uganda-household-san-cov/uganda-household-san-cov.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="242">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -28,340 +28,676 @@
     <t xml:space="preserve">value</t>
   </si>
   <si>
+    <t xml:space="preserve">d314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adjumani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alebtong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amolatar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amudat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amuria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amuru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Budaka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bududa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bugiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d420</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buhweju</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buikwe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bukedea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bukomansimbi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bukwo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulambuli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buliisa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bundibugyo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bushenyi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Busia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Butaleja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Butambala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buvuma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buyende</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dokolo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gomba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gulu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ibanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iganga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isingiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jinja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaabong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kabale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kabarole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaberamaido</t>
+  </si>
+  <si>
     <t xml:space="preserve">d101</t>
   </si>
   <si>
+    <t xml:space="preserve">Kalangala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaliro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kalungu</t>
+  </si>
+  <si>
     <t xml:space="preserve">d102</t>
   </si>
   <si>
+    <t xml:space="preserve">Kampala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamuli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamwenge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kanungu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kapchorwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kasese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katakwi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kayunga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kibaale</t>
+  </si>
+  <si>
     <t xml:space="preserve">d103</t>
   </si>
   <si>
+    <t xml:space="preserve">Kiboga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kibuku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiruhura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiryandongo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kisoro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kitgum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Koboko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kotido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kumi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kween</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyankwanzi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyegegwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyenjojo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lamwo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luuka</t>
+  </si>
+  <si>
     <t xml:space="preserve">d104</t>
   </si>
   <si>
+    <t xml:space="preserve">Luwero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lwengo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lyantonde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manafwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maracha</t>
+  </si>
+  <si>
     <t xml:space="preserve">d105</t>
   </si>
   <si>
+    <t xml:space="preserve">Masaka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masindi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mayuge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mbale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mbarara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mitooma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mityana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moroto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moyo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d106</t>
   </si>
   <si>
+    <t xml:space="preserve">Mpigi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d107</t>
   </si>
   <si>
+    <t xml:space="preserve">Mubende</t>
+  </si>
+  <si>
     <t xml:space="preserve">d108</t>
   </si>
   <si>
+    <t xml:space="preserve">Mukono</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nakapiripirit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nakaseke</t>
+  </si>
+  <si>
     <t xml:space="preserve">d109</t>
   </si>
   <si>
+    <t xml:space="preserve">Nakasongola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namayingo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namutumba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Napak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nebbi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ntoroko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ntungamo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nwoya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Otuke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oyam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pallisa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d110</t>
   </si>
   <si>
+    <t xml:space="preserve">Rakai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rubirizi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rukungiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sironko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soroti</t>
+  </si>
+  <si>
     <t xml:space="preserve">d111</t>
   </si>
   <si>
-    <t xml:space="preserve">d112</t>
+    <t xml:space="preserve">Ssembabule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tororo</t>
   </si>
   <si>
     <t xml:space="preserve">d113</t>
   </si>
   <si>
-    <t xml:space="preserve">d114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d210</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d230</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d310</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d312</t>
+    <t xml:space="preserve">Wakiso</t>
   </si>
   <si>
     <t xml:space="preserve">d313</t>
   </si>
   <si>
-    <t xml:space="preserve">d314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d320</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d329</t>
+    <t xml:space="preserve">Yumbe</t>
   </si>
   <si>
     <t xml:space="preserve">d330</t>
   </si>
   <si>
-    <t xml:space="preserve">d401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d410</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d420</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d426</t>
+    <t xml:space="preserve">Zombo</t>
   </si>
   <si>
     <t xml:space="preserve">2014</t>
@@ -737,22 +1073,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>117</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5">
@@ -760,7 +1096,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7">
@@ -768,52 +1104,52 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>123</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>123</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>123</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>124</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>125</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>126</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>127</v>
+        <v>239</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>128</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>129</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -848,1049 +1184,1225 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2"/>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
       <c r="C2" t="n">
         <v>2014</v>
       </c>
       <c r="D2" t="n">
-        <v>65</v>
+        <v>50.3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3"/>
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
       <c r="C3" t="n">
         <v>2014</v>
       </c>
-      <c r="D3"/>
+      <c r="D3" t="n">
+        <v>84.3</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4"/>
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
       <c r="C4" t="n">
         <v>2014</v>
       </c>
       <c r="D4" t="n">
-        <v>49</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5"/>
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
       <c r="C5" t="n">
         <v>2014</v>
       </c>
       <c r="D5" t="n">
-        <v>82</v>
+        <v>75.9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6"/>
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
       <c r="C6" t="n">
         <v>2014</v>
       </c>
       <c r="D6" t="n">
-        <v>77</v>
+        <v>78.9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7"/>
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
       <c r="C7" t="n">
         <v>2014</v>
       </c>
       <c r="D7" t="n">
-        <v>65</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8"/>
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
       <c r="C8" t="n">
         <v>2014</v>
       </c>
       <c r="D8" t="n">
-        <v>82.1</v>
+        <v>75.4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9"/>
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
       <c r="C9" t="n">
         <v>2014</v>
       </c>
       <c r="D9" t="n">
-        <v>83</v>
+        <v>72.4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10"/>
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
       <c r="C10" t="n">
         <v>2014</v>
       </c>
       <c r="D10" t="n">
-        <v>89</v>
+        <v>71.4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11"/>
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
       <c r="C11" t="n">
         <v>2014</v>
       </c>
       <c r="D11" t="n">
-        <v>86</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12"/>
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
       <c r="C12" t="n">
         <v>2014</v>
       </c>
       <c r="D12" t="n">
-        <v>69.8</v>
+        <v>69.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13"/>
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
       <c r="C13" t="n">
         <v>2014</v>
       </c>
       <c r="D13" t="n">
-        <v>69.7</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14"/>
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
       <c r="C14" t="n">
         <v>2014</v>
       </c>
       <c r="D14" t="n">
-        <v>89</v>
+        <v>82.7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15"/>
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
       <c r="C15" t="n">
         <v>2014</v>
       </c>
       <c r="D15" t="n">
-        <v>86</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16"/>
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
       <c r="C16" t="n">
         <v>2014</v>
       </c>
       <c r="D16" t="n">
-        <v>88.2</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17"/>
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
       <c r="C17" t="n">
         <v>2014</v>
       </c>
       <c r="D17" t="n">
-        <v>82.7</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18"/>
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
       <c r="C18" t="n">
         <v>2014</v>
       </c>
       <c r="D18" t="n">
-        <v>75</v>
+        <v>79.5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19"/>
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
       <c r="C19" t="n">
         <v>2014</v>
       </c>
       <c r="D19" t="n">
-        <v>79.5</v>
+        <v>76.2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20"/>
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
       <c r="C20" t="n">
         <v>2014</v>
       </c>
       <c r="D20" t="n">
-        <v>65</v>
+        <v>68.9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21"/>
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
       <c r="C21" t="n">
         <v>2014</v>
       </c>
       <c r="D21" t="n">
-        <v>29.2</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22"/>
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
       <c r="C22" t="n">
         <v>2014</v>
       </c>
       <c r="D22" t="n">
-        <v>55</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23"/>
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
       <c r="C23" t="n">
         <v>2014</v>
       </c>
       <c r="D23" t="n">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24"/>
+        <v>48</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
       <c r="C24" t="n">
         <v>2014</v>
       </c>
       <c r="D24" t="n">
-        <v>63</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25"/>
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
       <c r="C25" t="n">
         <v>2014</v>
       </c>
       <c r="D25" t="n">
-        <v>96</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26"/>
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
       <c r="C26" t="n">
         <v>2014</v>
       </c>
       <c r="D26" t="n">
-        <v>82.7</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27"/>
+        <v>54</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
       <c r="C27" t="n">
         <v>2014</v>
       </c>
       <c r="D27" t="n">
-        <v>84</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28"/>
+        <v>56</v>
+      </c>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
       <c r="C28" t="n">
         <v>2014</v>
       </c>
       <c r="D28" t="n">
-        <v>74.8</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29"/>
+        <v>58</v>
+      </c>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
       <c r="C29" t="n">
         <v>2014</v>
       </c>
       <c r="D29" t="n">
-        <v>82.5</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30"/>
+        <v>60</v>
+      </c>
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
       <c r="C30" t="n">
         <v>2014</v>
       </c>
       <c r="D30" t="n">
-        <v>78</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31"/>
+        <v>62</v>
+      </c>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
       <c r="C31" t="n">
         <v>2014</v>
       </c>
       <c r="D31" t="n">
-        <v>74.4</v>
+        <v>71.3</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32"/>
+        <v>64</v>
+      </c>
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
       <c r="C32" t="n">
         <v>2014</v>
       </c>
       <c r="D32" t="n">
-        <v>63.2</v>
+        <v>73.7</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33"/>
+        <v>66</v>
+      </c>
+      <c r="B33" t="s">
+        <v>67</v>
+      </c>
       <c r="C33" t="n">
         <v>2014</v>
       </c>
       <c r="D33" t="n">
-        <v>90</v>
+        <v>88.4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34"/>
+        <v>68</v>
+      </c>
+      <c r="B34" t="s">
+        <v>69</v>
+      </c>
       <c r="C34" t="n">
         <v>2014</v>
       </c>
       <c r="D34" t="n">
-        <v>70</v>
+        <v>74.8</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35"/>
+        <v>70</v>
+      </c>
+      <c r="B35" t="s">
+        <v>71</v>
+      </c>
       <c r="C35" t="n">
         <v>2014</v>
       </c>
       <c r="D35" t="n">
-        <v>78.4</v>
+        <v>86.4</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36"/>
+        <v>72</v>
+      </c>
+      <c r="B36" t="s">
+        <v>73</v>
+      </c>
       <c r="C36" t="n">
         <v>2014</v>
       </c>
       <c r="D36" t="n">
-        <v>80</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37"/>
+        <v>74</v>
+      </c>
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
       <c r="C37" t="n">
         <v>2014</v>
       </c>
       <c r="D37" t="n">
-        <v>76.1</v>
+        <v>20.9</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38"/>
+        <v>76</v>
+      </c>
+      <c r="B38" t="s">
+        <v>77</v>
+      </c>
       <c r="C38" t="n">
         <v>2014</v>
       </c>
       <c r="D38" t="n">
-        <v>69</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39"/>
+        <v>78</v>
+      </c>
+      <c r="B39" t="s">
+        <v>79</v>
+      </c>
       <c r="C39" t="n">
         <v>2014</v>
       </c>
       <c r="D39" t="n">
-        <v>62.7</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40"/>
+        <v>80</v>
+      </c>
+      <c r="B40" t="s">
+        <v>81</v>
+      </c>
       <c r="C40" t="n">
         <v>2014</v>
       </c>
       <c r="D40" t="n">
-        <v>89.4</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41"/>
+        <v>82</v>
+      </c>
+      <c r="B41" t="s">
+        <v>83</v>
+      </c>
       <c r="C41" t="n">
         <v>2014</v>
       </c>
       <c r="D41" t="n">
-        <v>75.4</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>44</v>
-      </c>
-      <c r="B42"/>
+        <v>84</v>
+      </c>
+      <c r="B42" t="s">
+        <v>85</v>
+      </c>
       <c r="C42" t="n">
         <v>2014</v>
       </c>
       <c r="D42" t="n">
-        <v>69.5</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43"/>
+        <v>86</v>
+      </c>
+      <c r="B43" t="s">
+        <v>87</v>
+      </c>
       <c r="C43" t="n">
         <v>2014</v>
       </c>
       <c r="D43" t="n">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>46</v>
-      </c>
-      <c r="B44"/>
+        <v>88</v>
+      </c>
+      <c r="B44" t="s">
+        <v>89</v>
+      </c>
       <c r="C44" t="n">
         <v>2014</v>
       </c>
-      <c r="D44" t="n">
-        <v>77</v>
-      </c>
+      <c r="D44"/>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>47</v>
-      </c>
-      <c r="B45"/>
+        <v>90</v>
+      </c>
+      <c r="B45" t="s">
+        <v>91</v>
+      </c>
       <c r="C45" t="n">
         <v>2014</v>
       </c>
       <c r="D45" t="n">
-        <v>76.2</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>48</v>
-      </c>
-      <c r="B46"/>
+        <v>92</v>
+      </c>
+      <c r="B46" t="s">
+        <v>93</v>
+      </c>
       <c r="C46" t="n">
         <v>2014</v>
       </c>
       <c r="D46" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>49</v>
-      </c>
-      <c r="B47"/>
+        <v>94</v>
+      </c>
+      <c r="B47" t="s">
+        <v>95</v>
+      </c>
       <c r="C47" t="n">
         <v>2014</v>
       </c>
       <c r="D47" t="n">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>50</v>
-      </c>
-      <c r="B48"/>
+        <v>96</v>
+      </c>
+      <c r="B48" t="s">
+        <v>97</v>
+      </c>
       <c r="C48" t="n">
         <v>2014</v>
       </c>
       <c r="D48" t="n">
-        <v>75</v>
+        <v>74.4</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>51</v>
-      </c>
-      <c r="B49"/>
+        <v>98</v>
+      </c>
+      <c r="B49" t="s">
+        <v>99</v>
+      </c>
       <c r="C49" t="n">
         <v>2014</v>
       </c>
       <c r="D49" t="n">
-        <v>74</v>
+        <v>85.4</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>52</v>
-      </c>
-      <c r="B50"/>
+        <v>100</v>
+      </c>
+      <c r="B50" t="s">
+        <v>101</v>
+      </c>
       <c r="C50" t="n">
         <v>2014</v>
       </c>
       <c r="D50" t="n">
-        <v>68.9</v>
+        <v>63.2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>53</v>
-      </c>
-      <c r="B51"/>
+        <v>102</v>
+      </c>
+      <c r="B51" t="s">
+        <v>103</v>
+      </c>
       <c r="C51" t="n">
         <v>2014</v>
       </c>
       <c r="D51" t="n">
-        <v>80</v>
+        <v>69.7</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>54</v>
-      </c>
-      <c r="B52"/>
+        <v>104</v>
+      </c>
+      <c r="B52" t="s">
+        <v>105</v>
+      </c>
       <c r="C52" t="n">
         <v>2014</v>
       </c>
       <c r="D52" t="n">
-        <v>84.6</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>55</v>
-      </c>
-      <c r="B53"/>
+        <v>106</v>
+      </c>
+      <c r="B53" t="s">
+        <v>107</v>
+      </c>
       <c r="C53" t="n">
         <v>2014</v>
       </c>
       <c r="D53" t="n">
-        <v>80</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>56</v>
-      </c>
-      <c r="B54"/>
+        <v>108</v>
+      </c>
+      <c r="B54" t="s">
+        <v>109</v>
+      </c>
       <c r="C54" t="n">
         <v>2014</v>
       </c>
       <c r="D54" t="n">
-        <v>63</v>
+        <v>84.6</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>57</v>
-      </c>
-      <c r="B55"/>
+        <v>110</v>
+      </c>
+      <c r="B55" t="s">
+        <v>111</v>
+      </c>
       <c r="C55" t="n">
         <v>2014</v>
       </c>
       <c r="D55" t="n">
-        <v>69</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>58</v>
-      </c>
-      <c r="B56"/>
+        <v>112</v>
+      </c>
+      <c r="B56" t="s">
+        <v>113</v>
+      </c>
       <c r="C56" t="n">
         <v>2014</v>
       </c>
       <c r="D56" t="n">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>59</v>
-      </c>
-      <c r="B57"/>
+        <v>114</v>
+      </c>
+      <c r="B57" t="s">
+        <v>115</v>
+      </c>
       <c r="C57" t="n">
         <v>2014</v>
       </c>
       <c r="D57" t="n">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>60</v>
-      </c>
-      <c r="B58"/>
+        <v>116</v>
+      </c>
+      <c r="B58" t="s">
+        <v>117</v>
+      </c>
       <c r="C58" t="n">
         <v>2014</v>
       </c>
       <c r="D58" t="n">
-        <v>84.3</v>
+        <v>55.9</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>61</v>
-      </c>
-      <c r="B59"/>
+        <v>118</v>
+      </c>
+      <c r="B59" t="s">
+        <v>119</v>
+      </c>
       <c r="C59" t="n">
         <v>2014</v>
       </c>
       <c r="D59" t="n">
-        <v>71.4</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>62</v>
-      </c>
-      <c r="B60"/>
+        <v>120</v>
+      </c>
+      <c r="B60" t="s">
+        <v>121</v>
+      </c>
       <c r="C60" t="n">
         <v>2014</v>
       </c>
       <c r="D60" t="n">
-        <v>63</v>
+        <v>73.4</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>63</v>
-      </c>
-      <c r="B61"/>
+        <v>122</v>
+      </c>
+      <c r="B61" t="s">
+        <v>123</v>
+      </c>
       <c r="C61" t="n">
         <v>2014</v>
       </c>
       <c r="D61" t="n">
-        <v>71.3</v>
+        <v>20.3</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>64</v>
-      </c>
-      <c r="B62"/>
+        <v>124</v>
+      </c>
+      <c r="B62" t="s">
+        <v>125</v>
+      </c>
       <c r="C62" t="n">
         <v>2014</v>
       </c>
       <c r="D62" t="n">
-        <v>55.9</v>
+        <v>90</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>65</v>
-      </c>
-      <c r="B63"/>
+        <v>126</v>
+      </c>
+      <c r="B63" t="s">
+        <v>127</v>
+      </c>
       <c r="C63" t="n">
         <v>2014</v>
       </c>
       <c r="D63" t="n">
-        <v>20.3</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>66</v>
-      </c>
-      <c r="B64"/>
+        <v>128</v>
+      </c>
+      <c r="B64" t="s">
+        <v>129</v>
+      </c>
       <c r="C64" t="n">
         <v>2014</v>
       </c>
       <c r="D64" t="n">
-        <v>82</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>67</v>
-      </c>
-      <c r="B65"/>
+        <v>130</v>
+      </c>
+      <c r="B65" t="s">
+        <v>131</v>
+      </c>
       <c r="C65" t="n">
         <v>2014</v>
       </c>
       <c r="D65" t="n">
-        <v>3.6</v>
+        <v>77.5</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>68</v>
-      </c>
-      <c r="B66"/>
+        <v>132</v>
+      </c>
+      <c r="B66" t="s">
+        <v>133</v>
+      </c>
       <c r="C66" t="n">
         <v>2014</v>
       </c>
       <c r="D66" t="n">
-        <v>88</v>
+        <v>84.5</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>69</v>
-      </c>
-      <c r="B67"/>
+        <v>134</v>
+      </c>
+      <c r="B67" t="s">
+        <v>135</v>
+      </c>
       <c r="C67" t="n">
         <v>2014</v>
       </c>
       <c r="D67" t="n">
-        <v>77.6</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>70</v>
-      </c>
-      <c r="B68"/>
+        <v>136</v>
+      </c>
+      <c r="B68" t="s">
+        <v>137</v>
+      </c>
       <c r="C68" t="n">
         <v>2014</v>
       </c>
       <c r="D68" t="n">
-        <v>15.4</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>71</v>
-      </c>
-      <c r="B69"/>
+        <v>138</v>
+      </c>
+      <c r="B69" t="s">
+        <v>139</v>
+      </c>
       <c r="C69" t="n">
         <v>2014</v>
       </c>
       <c r="D69" t="n">
-        <v>46.8</v>
+        <v>63</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>72</v>
-      </c>
-      <c r="B70"/>
+        <v>140</v>
+      </c>
+      <c r="B70" t="s">
+        <v>141</v>
+      </c>
       <c r="C70" t="n">
         <v>2014</v>
       </c>
       <c r="D70" t="n">
-        <v>50</v>
+        <v>82</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>73</v>
-      </c>
-      <c r="B71"/>
+        <v>142</v>
+      </c>
+      <c r="B71" t="s">
+        <v>143</v>
+      </c>
       <c r="C71" t="n">
         <v>2014</v>
       </c>
       <c r="D71" t="n">
-        <v>50.3</v>
+        <v>96</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>74</v>
-      </c>
-      <c r="B72"/>
+        <v>144</v>
+      </c>
+      <c r="B72" t="s">
+        <v>145</v>
+      </c>
       <c r="C72" t="n">
         <v>2014</v>
       </c>
       <c r="D72" t="n">
-        <v>78.9</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
+        <v>146</v>
+      </c>
+      <c r="B73" t="s">
+        <v>147</v>
+      </c>
+      <c r="C73" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D73" t="n">
         <v>75</v>
-      </c>
-      <c r="B73"/>
-      <c r="C73" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D73" t="n">
-        <v>72.4</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>76</v>
-      </c>
-      <c r="B74"/>
+        <v>148</v>
+      </c>
+      <c r="B74" t="s">
+        <v>149</v>
+      </c>
       <c r="C74" t="n">
         <v>2014</v>
       </c>
       <c r="D74" t="n">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
+        <v>150</v>
+      </c>
+      <c r="B75" t="s">
+        <v>151</v>
+      </c>
+      <c r="C75" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D75" t="n">
         <v>77</v>
-      </c>
-      <c r="B75"/>
-      <c r="C75" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D75" t="n">
-        <v>20.9</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>78</v>
-      </c>
-      <c r="B76"/>
+        <v>152</v>
+      </c>
+      <c r="B76" t="s">
+        <v>153</v>
+      </c>
       <c r="C76" t="n">
         <v>2014</v>
       </c>
       <c r="D76" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>79</v>
-      </c>
-      <c r="B77"/>
+        <v>154</v>
+      </c>
+      <c r="B77" t="s">
+        <v>155</v>
+      </c>
       <c r="C77" t="n">
         <v>2014</v>
       </c>
       <c r="D77" t="n">
-        <v>70</v>
+        <v>62.7</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>80</v>
-      </c>
-      <c r="B78"/>
+        <v>156</v>
+      </c>
+      <c r="B78" t="s">
+        <v>157</v>
+      </c>
       <c r="C78" t="n">
         <v>2014</v>
       </c>
       <c r="D78" t="n">
-        <v>84.1</v>
+        <v>70</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>81</v>
-      </c>
-      <c r="B79"/>
+        <v>158</v>
+      </c>
+      <c r="B79" t="s">
+        <v>159</v>
+      </c>
       <c r="C79" t="n">
         <v>2014</v>
       </c>
       <c r="D79" t="n">
-        <v>34.5</v>
+        <v>97</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>82</v>
-      </c>
-      <c r="B80"/>
+        <v>160</v>
+      </c>
+      <c r="B80" t="s">
+        <v>161</v>
+      </c>
       <c r="C80" t="n">
         <v>2014</v>
       </c>
       <c r="D80" t="n">
-        <v>75.9</v>
+        <v>89.6</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>83</v>
-      </c>
-      <c r="B81"/>
+        <v>162</v>
+      </c>
+      <c r="B81" t="s">
+        <v>163</v>
+      </c>
       <c r="C81" t="n">
         <v>2014</v>
       </c>
       <c r="D81" t="n">
-        <v>5.4</v>
+        <v>88.2</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>84</v>
-      </c>
-      <c r="B82"/>
+        <v>164</v>
+      </c>
+      <c r="B82" t="s">
+        <v>165</v>
+      </c>
       <c r="C82" t="n">
         <v>2014</v>
       </c>
       <c r="D82" t="n">
-        <v>73.4</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>85</v>
-      </c>
-      <c r="B83"/>
+        <v>166</v>
+      </c>
+      <c r="B83" t="s">
+        <v>167</v>
+      </c>
       <c r="C83" t="n">
         <v>2014</v>
       </c>
       <c r="D83" t="n">
-        <v>42</v>
+        <v>88</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>86</v>
-      </c>
-      <c r="B84"/>
+        <v>168</v>
+      </c>
+      <c r="B84" t="s">
+        <v>169</v>
+      </c>
       <c r="C84" t="n">
         <v>2014</v>
       </c>
       <c r="D84" t="n">
-        <v>28</v>
+        <v>65</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>87</v>
-      </c>
-      <c r="B85"/>
+        <v>170</v>
+      </c>
+      <c r="B85" t="s">
+        <v>171</v>
+      </c>
       <c r="C85" t="n">
         <v>2014</v>
       </c>
       <c r="D85" t="n">
-        <v>70.1</v>
+        <v>82.1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>88</v>
-      </c>
-      <c r="B86"/>
+        <v>172</v>
+      </c>
+      <c r="B86" t="s">
+        <v>173</v>
+      </c>
       <c r="C86" t="n">
         <v>2014</v>
       </c>
       <c r="D86" t="n">
-        <v>58</v>
+        <v>83</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>89</v>
-      </c>
-      <c r="B87"/>
+        <v>174</v>
+      </c>
+      <c r="B87" t="s">
+        <v>175</v>
+      </c>
       <c r="C87" t="n">
         <v>2014</v>
       </c>
       <c r="D87" t="n">
-        <v>71</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>90</v>
-      </c>
-      <c r="B88"/>
+        <v>176</v>
+      </c>
+      <c r="B88" t="s">
+        <v>177</v>
+      </c>
       <c r="C88" t="n">
         <v>2014</v>
       </c>
       <c r="D88" t="n">
-        <v>71</v>
+        <v>82.7</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>91</v>
-      </c>
-      <c r="B89"/>
+        <v>178</v>
+      </c>
+      <c r="B89" t="s">
+        <v>179</v>
+      </c>
       <c r="C89" t="n">
         <v>2014</v>
       </c>
@@ -1900,290 +2412,338 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>92</v>
-      </c>
-      <c r="B90"/>
+        <v>180</v>
+      </c>
+      <c r="B90" t="s">
+        <v>181</v>
+      </c>
       <c r="C90" t="n">
         <v>2014</v>
       </c>
       <c r="D90" t="n">
-        <v>73.7</v>
+        <v>69</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>93</v>
-      </c>
-      <c r="B91"/>
+        <v>182</v>
+      </c>
+      <c r="B91" t="s">
+        <v>183</v>
+      </c>
       <c r="C91" t="n">
         <v>2014</v>
       </c>
       <c r="D91" t="n">
-        <v>94</v>
+        <v>74</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>94</v>
-      </c>
-      <c r="B92"/>
+        <v>184</v>
+      </c>
+      <c r="B92" t="s">
+        <v>185</v>
+      </c>
       <c r="C92" t="n">
         <v>2014</v>
       </c>
       <c r="D92" t="n">
-        <v>56</v>
+        <v>28</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>95</v>
-      </c>
-      <c r="B93"/>
+        <v>186</v>
+      </c>
+      <c r="B93" t="s">
+        <v>187</v>
+      </c>
       <c r="C93" t="n">
         <v>2014</v>
       </c>
       <c r="D93" t="n">
-        <v>85.4</v>
+        <v>77.6</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>96</v>
-      </c>
-      <c r="B94"/>
+        <v>188</v>
+      </c>
+      <c r="B94" t="s">
+        <v>189</v>
+      </c>
       <c r="C94" t="n">
         <v>2014</v>
       </c>
       <c r="D94" t="n">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>97</v>
-      </c>
-      <c r="B95"/>
+        <v>190</v>
+      </c>
+      <c r="B95" t="s">
+        <v>191</v>
+      </c>
       <c r="C95" t="n">
         <v>2014</v>
       </c>
       <c r="D95" t="n">
-        <v>63</v>
+        <v>66.3</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>98</v>
-      </c>
-      <c r="B96"/>
+        <v>192</v>
+      </c>
+      <c r="B96" t="s">
+        <v>193</v>
+      </c>
       <c r="C96" t="n">
         <v>2014</v>
       </c>
       <c r="D96" t="n">
-        <v>75</v>
+        <v>99.1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>99</v>
-      </c>
-      <c r="B97"/>
+        <v>194</v>
+      </c>
+      <c r="B97" t="s">
+        <v>195</v>
+      </c>
       <c r="C97" t="n">
         <v>2014</v>
       </c>
       <c r="D97" t="n">
-        <v>97</v>
+        <v>70.1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>100</v>
-      </c>
-      <c r="B98"/>
+        <v>196</v>
+      </c>
+      <c r="B98" t="s">
+        <v>197</v>
+      </c>
       <c r="C98" t="n">
         <v>2014</v>
       </c>
       <c r="D98" t="n">
-        <v>99.1</v>
+        <v>58</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>101</v>
-      </c>
-      <c r="B99"/>
+        <v>198</v>
+      </c>
+      <c r="B99" t="s">
+        <v>199</v>
+      </c>
       <c r="C99" t="n">
         <v>2014</v>
       </c>
       <c r="D99" t="n">
-        <v>98.9</v>
+        <v>84.1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>102</v>
-      </c>
-      <c r="B100"/>
+        <v>200</v>
+      </c>
+      <c r="B100" t="s">
+        <v>201</v>
+      </c>
       <c r="C100" t="n">
         <v>2014</v>
       </c>
       <c r="D100" t="n">
-        <v>79</v>
+        <v>46.8</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>103</v>
-      </c>
-      <c r="B101"/>
+        <v>202</v>
+      </c>
+      <c r="B101" t="s">
+        <v>203</v>
+      </c>
       <c r="C101" t="n">
         <v>2014</v>
       </c>
       <c r="D101" t="n">
-        <v>92</v>
+        <v>78.4</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>104</v>
-      </c>
-      <c r="B102"/>
+        <v>204</v>
+      </c>
+      <c r="B102" t="s">
+        <v>205</v>
+      </c>
       <c r="C102" t="n">
         <v>2014</v>
       </c>
       <c r="D102" t="n">
-        <v>84.5</v>
+        <v>86</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>105</v>
-      </c>
-      <c r="B103"/>
+        <v>206</v>
+      </c>
+      <c r="B103" t="s">
+        <v>207</v>
+      </c>
       <c r="C103" t="n">
         <v>2014</v>
       </c>
       <c r="D103" t="n">
-        <v>65</v>
+        <v>80.5</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>106</v>
-      </c>
-      <c r="B104"/>
+        <v>208</v>
+      </c>
+      <c r="B104" t="s">
+        <v>209</v>
+      </c>
       <c r="C104" t="n">
         <v>2014</v>
       </c>
       <c r="D104" t="n">
-        <v>88.4</v>
+        <v>98.9</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105"/>
+        <v>210</v>
+      </c>
+      <c r="B105" t="s">
+        <v>211</v>
+      </c>
       <c r="C105" t="n">
         <v>2014</v>
       </c>
       <c r="D105" t="n">
-        <v>86.4</v>
+        <v>70</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>108</v>
-      </c>
-      <c r="B106"/>
+        <v>212</v>
+      </c>
+      <c r="B106" t="s">
+        <v>213</v>
+      </c>
       <c r="C106" t="n">
         <v>2014</v>
       </c>
       <c r="D106" t="n">
-        <v>89</v>
+        <v>78.4</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>109</v>
-      </c>
-      <c r="B107"/>
+        <v>214</v>
+      </c>
+      <c r="B107" t="s">
+        <v>215</v>
+      </c>
       <c r="C107" t="n">
         <v>2014</v>
       </c>
       <c r="D107" t="n">
-        <v>57</v>
+        <v>89.4</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>110</v>
-      </c>
-      <c r="B108"/>
+        <v>216</v>
+      </c>
+      <c r="B108" t="s">
+        <v>217</v>
+      </c>
       <c r="C108" t="n">
         <v>2014</v>
       </c>
       <c r="D108" t="n">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>111</v>
-      </c>
-      <c r="B109"/>
+        <v>218</v>
+      </c>
+      <c r="B109" t="s">
+        <v>219</v>
+      </c>
       <c r="C109" t="n">
         <v>2014</v>
       </c>
       <c r="D109" t="n">
-        <v>77.5</v>
+        <v>69.8</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>112</v>
-      </c>
-      <c r="B110"/>
+        <v>220</v>
+      </c>
+      <c r="B110" t="s">
+        <v>221</v>
+      </c>
       <c r="C110" t="n">
         <v>2014</v>
       </c>
       <c r="D110" t="n">
-        <v>89.6</v>
+        <v>76.1</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>113</v>
-      </c>
-      <c r="B111"/>
+        <v>222</v>
+      </c>
+      <c r="B111" t="s">
+        <v>223</v>
+      </c>
       <c r="C111" t="n">
         <v>2014</v>
       </c>
       <c r="D111" t="n">
-        <v>66.3</v>
+        <v>89</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>114</v>
-      </c>
-      <c r="B112"/>
+        <v>224</v>
+      </c>
+      <c r="B112" t="s">
+        <v>225</v>
+      </c>
       <c r="C112" t="n">
         <v>2014</v>
       </c>
       <c r="D112" t="n">
-        <v>80.5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>115</v>
-      </c>
-      <c r="B113"/>
+        <v>226</v>
+      </c>
+      <c r="B113" t="s">
+        <v>227</v>
+      </c>
       <c r="C113" t="n">
         <v>2014</v>
       </c>
       <c r="D113" t="n">
-        <v>78.4</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2205,901 +2765,1240 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>116</v>
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="n">
-        <v>65</v>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>50.3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3"/>
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>84.3</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="n">
-        <v>49</v>
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>34.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="n">
-        <v>82</v>
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="n">
+        <v>75.9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="n">
-        <v>77</v>
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="n">
+        <v>78.9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="n">
-        <v>65</v>
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5.4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="n">
-        <v>82.1</v>
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="n">
+        <v>75.4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="n">
-        <v>83</v>
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="n">
+        <v>72.4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="n">
-        <v>89</v>
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="n">
+        <v>71.4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="n">
-        <v>86</v>
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="n">
-        <v>69.8</v>
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="n">
+        <v>69.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="n">
-        <v>69.7</v>
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="n">
-        <v>89</v>
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="n">
+        <v>82.7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" t="n">
-        <v>86</v>
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" t="n">
-        <v>88.2</v>
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" t="n">
-        <v>82.7</v>
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" t="n">
-        <v>75</v>
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="n">
+        <v>79.5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" t="n">
-        <v>79.5</v>
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="n">
+        <v>76.2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" t="n">
-        <v>65</v>
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="n">
+        <v>68.9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="n">
-        <v>29.2</v>
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="n">
-        <v>55</v>
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" t="n">
-        <v>75</v>
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="n">
+        <v>89</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" t="n">
-        <v>63</v>
+        <v>48</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" t="n">
-        <v>96</v>
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" t="n">
-        <v>82.7</v>
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" t="n">
-        <v>84</v>
+        <v>54</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" t="n">
+        <v>29.2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" t="n">
-        <v>74.8</v>
+        <v>56</v>
+      </c>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" t="n">
-        <v>82.5</v>
+        <v>58</v>
+      </c>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" t="n">
-        <v>78</v>
+        <v>60</v>
+      </c>
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" t="n">
-        <v>74.4</v>
+        <v>62</v>
+      </c>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" t="n">
+        <v>71.3</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" t="n">
-        <v>63.2</v>
+        <v>64</v>
+      </c>
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" t="n">
+        <v>73.7</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" t="n">
-        <v>90</v>
+        <v>66</v>
+      </c>
+      <c r="B33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" t="n">
+        <v>88.4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34" t="n">
-        <v>70</v>
+        <v>68</v>
+      </c>
+      <c r="B34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" t="n">
+        <v>74.8</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" t="n">
-        <v>78.4</v>
+        <v>70</v>
+      </c>
+      <c r="B35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" t="n">
+        <v>86.4</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36" t="n">
-        <v>80</v>
+        <v>72</v>
+      </c>
+      <c r="B36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" t="n">
+        <v>82.5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37" t="n">
-        <v>76.1</v>
+        <v>74</v>
+      </c>
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" t="n">
+        <v>20.9</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38" t="n">
-        <v>69</v>
+        <v>76</v>
+      </c>
+      <c r="B38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" t="n">
+        <v>94</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39" t="n">
-        <v>62.7</v>
+        <v>78</v>
+      </c>
+      <c r="B39" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40" t="n">
-        <v>89.4</v>
+        <v>80</v>
+      </c>
+      <c r="B40" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41" t="n">
-        <v>75.4</v>
+        <v>82</v>
+      </c>
+      <c r="B41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>44</v>
-      </c>
-      <c r="B42" t="n">
-        <v>69.5</v>
+        <v>84</v>
+      </c>
+      <c r="B42" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" t="n">
+        <v>85</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43" t="n">
-        <v>71</v>
+        <v>86</v>
+      </c>
+      <c r="B43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>46</v>
-      </c>
-      <c r="B44" t="n">
-        <v>77</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="B44" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44"/>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>47</v>
-      </c>
-      <c r="B45" t="n">
-        <v>76.2</v>
+        <v>90</v>
+      </c>
+      <c r="B45" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" t="n">
+        <v>78</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>48</v>
-      </c>
-      <c r="B46" t="n">
-        <v>80</v>
+        <v>92</v>
+      </c>
+      <c r="B46" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" t="n">
+        <v>79</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>49</v>
-      </c>
-      <c r="B47" t="n">
-        <v>85</v>
+        <v>94</v>
+      </c>
+      <c r="B47" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" t="n">
+        <v>92</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>50</v>
-      </c>
-      <c r="B48" t="n">
-        <v>75</v>
+        <v>96</v>
+      </c>
+      <c r="B48" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" t="n">
+        <v>74.4</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>51</v>
-      </c>
-      <c r="B49" t="n">
-        <v>74</v>
+        <v>98</v>
+      </c>
+      <c r="B49" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" t="n">
+        <v>85.4</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>52</v>
-      </c>
-      <c r="B50" t="n">
-        <v>68.9</v>
+        <v>100</v>
+      </c>
+      <c r="B50" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" t="n">
+        <v>63.2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>53</v>
-      </c>
-      <c r="B51" t="n">
-        <v>80</v>
+        <v>102</v>
+      </c>
+      <c r="B51" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51" t="n">
+        <v>69.7</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>54</v>
-      </c>
-      <c r="B52" t="n">
-        <v>84.6</v>
+        <v>104</v>
+      </c>
+      <c r="B52" t="s">
+        <v>105</v>
+      </c>
+      <c r="C52" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>55</v>
-      </c>
-      <c r="B53" t="n">
-        <v>80</v>
+        <v>106</v>
+      </c>
+      <c r="B53" t="s">
+        <v>107</v>
+      </c>
+      <c r="C53" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>56</v>
-      </c>
-      <c r="B54" t="n">
-        <v>63</v>
+        <v>108</v>
+      </c>
+      <c r="B54" t="s">
+        <v>109</v>
+      </c>
+      <c r="C54" t="n">
+        <v>84.6</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>57</v>
-      </c>
-      <c r="B55" t="n">
-        <v>69</v>
+        <v>110</v>
+      </c>
+      <c r="B55" t="s">
+        <v>111</v>
+      </c>
+      <c r="C55" t="n">
+        <v>89</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>58</v>
-      </c>
-      <c r="B56" t="n">
-        <v>81</v>
+        <v>112</v>
+      </c>
+      <c r="B56" t="s">
+        <v>113</v>
+      </c>
+      <c r="C56" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>59</v>
-      </c>
-      <c r="B57" t="n">
-        <v>70</v>
+        <v>114</v>
+      </c>
+      <c r="B57" t="s">
+        <v>115</v>
+      </c>
+      <c r="C57" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>60</v>
-      </c>
-      <c r="B58" t="n">
-        <v>84.3</v>
+        <v>116</v>
+      </c>
+      <c r="B58" t="s">
+        <v>117</v>
+      </c>
+      <c r="C58" t="n">
+        <v>55.9</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>61</v>
-      </c>
-      <c r="B59" t="n">
-        <v>71.4</v>
+        <v>118</v>
+      </c>
+      <c r="B59" t="s">
+        <v>119</v>
+      </c>
+      <c r="C59" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>62</v>
-      </c>
-      <c r="B60" t="n">
-        <v>63</v>
+        <v>120</v>
+      </c>
+      <c r="B60" t="s">
+        <v>121</v>
+      </c>
+      <c r="C60" t="n">
+        <v>73.4</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>63</v>
-      </c>
-      <c r="B61" t="n">
-        <v>71.3</v>
+        <v>122</v>
+      </c>
+      <c r="B61" t="s">
+        <v>123</v>
+      </c>
+      <c r="C61" t="n">
+        <v>20.3</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>64</v>
-      </c>
-      <c r="B62" t="n">
-        <v>55.9</v>
+        <v>124</v>
+      </c>
+      <c r="B62" t="s">
+        <v>125</v>
+      </c>
+      <c r="C62" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>65</v>
-      </c>
-      <c r="B63" t="n">
-        <v>20.3</v>
+        <v>126</v>
+      </c>
+      <c r="B63" t="s">
+        <v>127</v>
+      </c>
+      <c r="C63" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>66</v>
-      </c>
-      <c r="B64" t="n">
-        <v>82</v>
+        <v>128</v>
+      </c>
+      <c r="B64" t="s">
+        <v>129</v>
+      </c>
+      <c r="C64" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>67</v>
-      </c>
-      <c r="B65" t="n">
-        <v>3.6</v>
+        <v>130</v>
+      </c>
+      <c r="B65" t="s">
+        <v>131</v>
+      </c>
+      <c r="C65" t="n">
+        <v>77.5</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>68</v>
-      </c>
-      <c r="B66" t="n">
-        <v>88</v>
+        <v>132</v>
+      </c>
+      <c r="B66" t="s">
+        <v>133</v>
+      </c>
+      <c r="C66" t="n">
+        <v>84.5</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>69</v>
-      </c>
-      <c r="B67" t="n">
-        <v>77.6</v>
+        <v>134</v>
+      </c>
+      <c r="B67" t="s">
+        <v>135</v>
+      </c>
+      <c r="C67" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>70</v>
-      </c>
-      <c r="B68" t="n">
-        <v>15.4</v>
+        <v>136</v>
+      </c>
+      <c r="B68" t="s">
+        <v>137</v>
+      </c>
+      <c r="C68" t="n">
+        <v>82</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>71</v>
-      </c>
-      <c r="B69" t="n">
-        <v>46.8</v>
+        <v>138</v>
+      </c>
+      <c r="B69" t="s">
+        <v>139</v>
+      </c>
+      <c r="C69" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>72</v>
-      </c>
-      <c r="B70" t="n">
-        <v>50</v>
+        <v>140</v>
+      </c>
+      <c r="B70" t="s">
+        <v>141</v>
+      </c>
+      <c r="C70" t="n">
+        <v>82</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>73</v>
-      </c>
-      <c r="B71" t="n">
-        <v>50.3</v>
+        <v>142</v>
+      </c>
+      <c r="B71" t="s">
+        <v>143</v>
+      </c>
+      <c r="C71" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>74</v>
-      </c>
-      <c r="B72" t="n">
-        <v>78.9</v>
+        <v>144</v>
+      </c>
+      <c r="B72" t="s">
+        <v>145</v>
+      </c>
+      <c r="C72" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
+        <v>146</v>
+      </c>
+      <c r="B73" t="s">
+        <v>147</v>
+      </c>
+      <c r="C73" t="n">
         <v>75</v>
-      </c>
-      <c r="B73" t="n">
-        <v>72.4</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>76</v>
-      </c>
-      <c r="B74" t="n">
-        <v>84</v>
+        <v>148</v>
+      </c>
+      <c r="B74" t="s">
+        <v>149</v>
+      </c>
+      <c r="C74" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
+        <v>150</v>
+      </c>
+      <c r="B75" t="s">
+        <v>151</v>
+      </c>
+      <c r="C75" t="n">
         <v>77</v>
-      </c>
-      <c r="B75" t="n">
-        <v>20.9</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>78</v>
-      </c>
-      <c r="B76" t="n">
-        <v>73</v>
+        <v>152</v>
+      </c>
+      <c r="B76" t="s">
+        <v>153</v>
+      </c>
+      <c r="C76" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>79</v>
-      </c>
-      <c r="B77" t="n">
-        <v>70</v>
+        <v>154</v>
+      </c>
+      <c r="B77" t="s">
+        <v>155</v>
+      </c>
+      <c r="C77" t="n">
+        <v>62.7</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>80</v>
-      </c>
-      <c r="B78" t="n">
-        <v>84.1</v>
+        <v>156</v>
+      </c>
+      <c r="B78" t="s">
+        <v>157</v>
+      </c>
+      <c r="C78" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>81</v>
-      </c>
-      <c r="B79" t="n">
-        <v>34.5</v>
+        <v>158</v>
+      </c>
+      <c r="B79" t="s">
+        <v>159</v>
+      </c>
+      <c r="C79" t="n">
+        <v>97</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>82</v>
-      </c>
-      <c r="B80" t="n">
-        <v>75.9</v>
+        <v>160</v>
+      </c>
+      <c r="B80" t="s">
+        <v>161</v>
+      </c>
+      <c r="C80" t="n">
+        <v>89.6</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>83</v>
-      </c>
-      <c r="B81" t="n">
-        <v>5.4</v>
+        <v>162</v>
+      </c>
+      <c r="B81" t="s">
+        <v>163</v>
+      </c>
+      <c r="C81" t="n">
+        <v>88.2</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>84</v>
-      </c>
-      <c r="B82" t="n">
-        <v>73.4</v>
+        <v>164</v>
+      </c>
+      <c r="B82" t="s">
+        <v>165</v>
+      </c>
+      <c r="C82" t="n">
+        <v>3.6</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>85</v>
-      </c>
-      <c r="B83" t="n">
-        <v>42</v>
+        <v>166</v>
+      </c>
+      <c r="B83" t="s">
+        <v>167</v>
+      </c>
+      <c r="C83" t="n">
+        <v>88</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>86</v>
-      </c>
-      <c r="B84" t="n">
-        <v>28</v>
+        <v>168</v>
+      </c>
+      <c r="B84" t="s">
+        <v>169</v>
+      </c>
+      <c r="C84" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>87</v>
-      </c>
-      <c r="B85" t="n">
-        <v>70.1</v>
+        <v>170</v>
+      </c>
+      <c r="B85" t="s">
+        <v>171</v>
+      </c>
+      <c r="C85" t="n">
+        <v>82.1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>88</v>
-      </c>
-      <c r="B86" t="n">
-        <v>58</v>
+        <v>172</v>
+      </c>
+      <c r="B86" t="s">
+        <v>173</v>
+      </c>
+      <c r="C86" t="n">
+        <v>83</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>89</v>
-      </c>
-      <c r="B87" t="n">
-        <v>71</v>
+        <v>174</v>
+      </c>
+      <c r="B87" t="s">
+        <v>175</v>
+      </c>
+      <c r="C87" t="n">
+        <v>15.4</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>90</v>
-      </c>
-      <c r="B88" t="n">
-        <v>71</v>
+        <v>176</v>
+      </c>
+      <c r="B88" t="s">
+        <v>177</v>
+      </c>
+      <c r="C88" t="n">
+        <v>82.7</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>91</v>
-      </c>
-      <c r="B89" t="n">
+        <v>178</v>
+      </c>
+      <c r="B89" t="s">
+        <v>179</v>
+      </c>
+      <c r="C89" t="n">
         <v>89</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>92</v>
-      </c>
-      <c r="B90" t="n">
-        <v>73.7</v>
+        <v>180</v>
+      </c>
+      <c r="B90" t="s">
+        <v>181</v>
+      </c>
+      <c r="C90" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>93</v>
-      </c>
-      <c r="B91" t="n">
-        <v>94</v>
+        <v>182</v>
+      </c>
+      <c r="B91" t="s">
+        <v>183</v>
+      </c>
+      <c r="C91" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>94</v>
-      </c>
-      <c r="B92" t="n">
-        <v>56</v>
+        <v>184</v>
+      </c>
+      <c r="B92" t="s">
+        <v>185</v>
+      </c>
+      <c r="C92" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>95</v>
-      </c>
-      <c r="B93" t="n">
-        <v>85.4</v>
+        <v>186</v>
+      </c>
+      <c r="B93" t="s">
+        <v>187</v>
+      </c>
+      <c r="C93" t="n">
+        <v>77.6</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>96</v>
-      </c>
-      <c r="B94" t="n">
-        <v>75</v>
+        <v>188</v>
+      </c>
+      <c r="B94" t="s">
+        <v>189</v>
+      </c>
+      <c r="C94" t="n">
+        <v>81</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>97</v>
-      </c>
-      <c r="B95" t="n">
-        <v>63</v>
+        <v>190</v>
+      </c>
+      <c r="B95" t="s">
+        <v>191</v>
+      </c>
+      <c r="C95" t="n">
+        <v>66.3</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>98</v>
-      </c>
-      <c r="B96" t="n">
-        <v>75</v>
+        <v>192</v>
+      </c>
+      <c r="B96" t="s">
+        <v>193</v>
+      </c>
+      <c r="C96" t="n">
+        <v>99.1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>99</v>
-      </c>
-      <c r="B97" t="n">
-        <v>97</v>
+        <v>194</v>
+      </c>
+      <c r="B97" t="s">
+        <v>195</v>
+      </c>
+      <c r="C97" t="n">
+        <v>70.1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>100</v>
-      </c>
-      <c r="B98" t="n">
-        <v>99.1</v>
+        <v>196</v>
+      </c>
+      <c r="B98" t="s">
+        <v>197</v>
+      </c>
+      <c r="C98" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>101</v>
-      </c>
-      <c r="B99" t="n">
-        <v>98.9</v>
+        <v>198</v>
+      </c>
+      <c r="B99" t="s">
+        <v>199</v>
+      </c>
+      <c r="C99" t="n">
+        <v>84.1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>102</v>
-      </c>
-      <c r="B100" t="n">
-        <v>79</v>
+        <v>200</v>
+      </c>
+      <c r="B100" t="s">
+        <v>201</v>
+      </c>
+      <c r="C100" t="n">
+        <v>46.8</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>103</v>
-      </c>
-      <c r="B101" t="n">
-        <v>92</v>
+        <v>202</v>
+      </c>
+      <c r="B101" t="s">
+        <v>203</v>
+      </c>
+      <c r="C101" t="n">
+        <v>78.4</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>104</v>
-      </c>
-      <c r="B102" t="n">
-        <v>84.5</v>
+        <v>204</v>
+      </c>
+      <c r="B102" t="s">
+        <v>205</v>
+      </c>
+      <c r="C102" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>105</v>
-      </c>
-      <c r="B103" t="n">
-        <v>65</v>
+        <v>206</v>
+      </c>
+      <c r="B103" t="s">
+        <v>207</v>
+      </c>
+      <c r="C103" t="n">
+        <v>80.5</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>106</v>
-      </c>
-      <c r="B104" t="n">
-        <v>88.4</v>
+        <v>208</v>
+      </c>
+      <c r="B104" t="s">
+        <v>209</v>
+      </c>
+      <c r="C104" t="n">
+        <v>98.9</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105" t="n">
-        <v>86.4</v>
+        <v>210</v>
+      </c>
+      <c r="B105" t="s">
+        <v>211</v>
+      </c>
+      <c r="C105" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>108</v>
-      </c>
-      <c r="B106" t="n">
-        <v>89</v>
+        <v>212</v>
+      </c>
+      <c r="B106" t="s">
+        <v>213</v>
+      </c>
+      <c r="C106" t="n">
+        <v>78.4</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>109</v>
-      </c>
-      <c r="B107" t="n">
-        <v>57</v>
+        <v>214</v>
+      </c>
+      <c r="B107" t="s">
+        <v>215</v>
+      </c>
+      <c r="C107" t="n">
+        <v>89.4</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>110</v>
-      </c>
-      <c r="B108" t="n">
-        <v>72</v>
+        <v>216</v>
+      </c>
+      <c r="B108" t="s">
+        <v>217</v>
+      </c>
+      <c r="C108" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>111</v>
-      </c>
-      <c r="B109" t="n">
-        <v>77.5</v>
+        <v>218</v>
+      </c>
+      <c r="B109" t="s">
+        <v>219</v>
+      </c>
+      <c r="C109" t="n">
+        <v>69.8</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>112</v>
-      </c>
-      <c r="B110" t="n">
-        <v>89.6</v>
+        <v>220</v>
+      </c>
+      <c r="B110" t="s">
+        <v>221</v>
+      </c>
+      <c r="C110" t="n">
+        <v>76.1</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>113</v>
-      </c>
-      <c r="B111" t="n">
-        <v>66.3</v>
+        <v>222</v>
+      </c>
+      <c r="B111" t="s">
+        <v>223</v>
+      </c>
+      <c r="C111" t="n">
+        <v>89</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>114</v>
-      </c>
-      <c r="B112" t="n">
-        <v>80.5</v>
+        <v>224</v>
+      </c>
+      <c r="B112" t="s">
+        <v>225</v>
+      </c>
+      <c r="C112" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>115</v>
-      </c>
-      <c r="B113" t="n">
-        <v>78.4</v>
+        <v>226</v>
+      </c>
+      <c r="B113" t="s">
+        <v>227</v>
+      </c>
+      <c r="C113" t="n">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/uganda-household-san-cov/uganda-household-san-cov.xlsx
+++ b/user-data/uganda-household-san-cov/uganda-household-san-cov.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="242">
-  <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">entity-name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="244">
+  <si>
+    <t xml:space="preserve">district_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">district_name</t>
   </si>
   <si>
     <t xml:space="preserve">year</t>
@@ -646,6 +646,12 @@
     <t xml:space="preserve">Rukungiri</t>
   </si>
   <si>
+    <t xml:space="preserve">d111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sembabule</t>
+  </si>
+  <si>
     <t xml:space="preserve">d232</t>
   </si>
   <si>
@@ -670,12 +676,6 @@
     <t xml:space="preserve">Soroti</t>
   </si>
   <si>
-    <t xml:space="preserve">d111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ssembabule</t>
-  </si>
-  <si>
     <t xml:space="preserve">d212</t>
   </si>
   <si>
@@ -700,19 +700,31 @@
     <t xml:space="preserve">Zombo</t>
   </si>
   <si>
+    <t xml:space="preserve">2013</t>
+  </si>
+  <si>
     <t xml:space="preserve">2014</t>
   </si>
   <si>
+    <t xml:space="preserve">2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016</t>
+  </si>
+  <si>
     <t xml:space="preserve">Name: uganda-household-san-cov</t>
   </si>
   <si>
-    <t xml:space="preserve">Description: Household sanitation coverage (%).</t>
+    <t xml:space="preserve">Description: Proportion of the population that has access to improved sanitation facilities, by district.</t>
   </si>
   <si>
     <t xml:space="preserve">Units of measure: %</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: Water and environment sector performance reports 2010-2014, Ministry of Water and Environment.</t>
+    <t xml:space="preserve">Source: 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
   </si>
   <si>
     <t xml:space="preserve">Notes:</t>
@@ -721,25 +733,19 @@
     <t xml:space="preserve">On the 'Data-wide-value' sheet, we have provided the indicator in a wide format. The values you see listed there are from the 'value' column.</t>
   </si>
   <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">The following is data downloaded from Development Initiative's Datahub: http://data.devinit.org.</t>
+    <t xml:space="preserve">The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
   </si>
   <si>
     <t xml:space="preserve">It is licensed under a Creative Commons Attribution 4.0 International license.</t>
   </si>
   <si>
-    <t xml:space="preserve">More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For concerns, questions, or corrections: please email info@devinit.org.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If you experience any technical issues when opening the .xlsx and/or the .csv and/or the .zip files please contact info@devinit.org.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Copyright Development Initiatives Poverty Research Ltd. 2017.</t>
+    <t xml:space="preserve">More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For concerns, questions, or corrections: please email info@devinit.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copyright Development Initiatives Poverty Research Ltd. 2018</t>
   </si>
 </sst>
 </file>
@@ -1073,83 +1079,77 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5"/>
+      <c r="A5" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7"/>
+      <c r="A7" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -1188,1562 +1188,6038 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D2" t="n">
-        <v>50.3</v>
-      </c>
+        <v>2013</v>
+      </c>
+      <c r="D2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>2014</v>
       </c>
       <c r="D3" t="n">
-        <v>84.3</v>
+        <v>50.3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D4" t="n">
-        <v>34.5</v>
+        <v>56.6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D5" t="n">
-        <v>75.9</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D6" t="n">
-        <v>78.9</v>
-      </c>
+        <v>2013</v>
+      </c>
+      <c r="D6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>2014</v>
       </c>
       <c r="D7" t="n">
-        <v>5.4</v>
+        <v>84.3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D8" t="n">
-        <v>75.4</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D9" t="n">
-        <v>72.4</v>
+        <v>78.8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D10" t="n">
-        <v>71.4</v>
-      </c>
+        <v>2013</v>
+      </c>
+      <c r="D10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C11" t="n">
         <v>2014</v>
       </c>
       <c r="D11" t="n">
-        <v>63</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C12" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D12" t="n">
-        <v>69.5</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C13" t="n">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D13" t="n">
-        <v>71</v>
+        <v>66.5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C14" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D14" t="n">
-        <v>82.7</v>
-      </c>
+        <v>2013</v>
+      </c>
+      <c r="D14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="C15" t="n">
         <v>2014</v>
       </c>
       <c r="D15" t="n">
-        <v>57</v>
+        <v>75.9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="C16" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D16" t="n">
-        <v>75</v>
+        <v>81.4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C17" t="n">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D17" t="n">
-        <v>77</v>
+        <v>80.5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="C18" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D18" t="n">
-        <v>79.5</v>
-      </c>
+        <v>2013</v>
+      </c>
+      <c r="D18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="C19" t="n">
         <v>2014</v>
       </c>
       <c r="D19" t="n">
-        <v>76.2</v>
+        <v>78.9</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="C20" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D20" t="n">
-        <v>68.9</v>
+        <v>78.2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="C21" t="n">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D21" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="C22" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D22" t="n">
-        <v>71</v>
-      </c>
+        <v>2013</v>
+      </c>
+      <c r="D22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="C23" t="n">
         <v>2014</v>
       </c>
       <c r="D23" t="n">
-        <v>89</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="C24" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D24" t="n">
-        <v>84</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="C25" t="n">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D25" t="n">
-        <v>80</v>
+        <v>17.1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="C26" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D26" t="n">
-        <v>65</v>
-      </c>
+        <v>2013</v>
+      </c>
+      <c r="D26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="C27" t="n">
         <v>2014</v>
       </c>
       <c r="D27" t="n">
-        <v>29.2</v>
+        <v>75.4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="C28" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D28" t="n">
-        <v>80</v>
+        <v>78.9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="C29" t="n">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D29" t="n">
-        <v>84</v>
+        <v>84.5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="C30" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D30" t="n">
-        <v>55</v>
-      </c>
+        <v>2013</v>
+      </c>
+      <c r="D30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="C31" t="n">
         <v>2014</v>
       </c>
       <c r="D31" t="n">
-        <v>71.3</v>
+        <v>72.4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="C32" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D32" t="n">
-        <v>73.7</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="C33" t="n">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D33" t="n">
-        <v>88.4</v>
+        <v>72.8</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="B34" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="C34" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D34" t="n">
-        <v>74.8</v>
-      </c>
+        <v>2013</v>
+      </c>
+      <c r="D34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="B35" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="C35" t="n">
         <v>2014</v>
       </c>
       <c r="D35" t="n">
-        <v>86.4</v>
+        <v>71.4</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="B36" t="s">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="C36" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D36" t="n">
-        <v>82.5</v>
+        <v>78.3</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="B37" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="C37" t="n">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D37" t="n">
-        <v>20.9</v>
+        <v>80.3</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="C38" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D38" t="n">
-        <v>94</v>
-      </c>
+        <v>2013</v>
+      </c>
+      <c r="D38"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="B39" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="C39" t="n">
         <v>2014</v>
       </c>
       <c r="D39" t="n">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="B40" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="C40" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D40" t="n">
-        <v>69</v>
+        <v>69.8</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="B41" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="C41" t="n">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D41" t="n">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="B42" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="C42" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D42" t="n">
-        <v>85</v>
-      </c>
+        <v>2013</v>
+      </c>
+      <c r="D42"/>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="B43" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="C43" t="n">
         <v>2014</v>
       </c>
       <c r="D43" t="n">
-        <v>75</v>
+        <v>69.5</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="B44" t="s">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="C44" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D44"/>
+        <v>2015</v>
+      </c>
+      <c r="D44" t="n">
+        <v>58.4</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="B45" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="C45" t="n">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D45" t="n">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="B46" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="C46" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D46" t="n">
-        <v>79</v>
-      </c>
+        <v>2013</v>
+      </c>
+      <c r="D46"/>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="B47" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="C47" t="n">
         <v>2014</v>
       </c>
       <c r="D47" t="n">
-        <v>92</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="B48" t="s">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="C48" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D48" t="n">
-        <v>74.4</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>98</v>
+        <v>26</v>
       </c>
       <c r="B49" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="C49" t="n">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D49" t="n">
-        <v>85.4</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="B50" t="s">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="C50" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D50" t="n">
-        <v>63.2</v>
-      </c>
+        <v>2013</v>
+      </c>
+      <c r="D50"/>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="B51" t="s">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="C51" t="n">
         <v>2014</v>
       </c>
       <c r="D51" t="n">
-        <v>69.7</v>
+        <v>82.7</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="B52" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="C52" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D52" t="n">
-        <v>75</v>
+        <v>82.2</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="B53" t="s">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="C53" t="n">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D53" t="n">
-        <v>49</v>
+        <v>80.5</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="B54" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="C54" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D54" t="n">
-        <v>84.6</v>
-      </c>
+        <v>2013</v>
+      </c>
+      <c r="D54"/>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="B55" t="s">
-        <v>111</v>
+        <v>31</v>
       </c>
       <c r="C55" t="n">
         <v>2014</v>
       </c>
       <c r="D55" t="n">
-        <v>89</v>
+        <v>57</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="B56" t="s">
-        <v>113</v>
+        <v>31</v>
       </c>
       <c r="C56" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D56" t="n">
-        <v>72</v>
+        <v>78.3</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>114</v>
+        <v>30</v>
       </c>
       <c r="B57" t="s">
-        <v>115</v>
+        <v>31</v>
       </c>
       <c r="C57" t="n">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D57" t="n">
-        <v>63</v>
+        <v>87</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="B58" t="s">
-        <v>117</v>
+        <v>33</v>
       </c>
       <c r="C58" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D58" t="n">
-        <v>55.9</v>
-      </c>
+        <v>2013</v>
+      </c>
+      <c r="D58"/>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>118</v>
+        <v>32</v>
       </c>
       <c r="B59" t="s">
-        <v>119</v>
+        <v>33</v>
       </c>
       <c r="C59" t="n">
         <v>2014</v>
       </c>
       <c r="D59" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="B60" t="s">
-        <v>121</v>
+        <v>33</v>
       </c>
       <c r="C60" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D60" t="n">
-        <v>73.4</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>122</v>
+        <v>32</v>
       </c>
       <c r="B61" t="s">
-        <v>123</v>
+        <v>33</v>
       </c>
       <c r="C61" t="n">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D61" t="n">
-        <v>20.3</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>124</v>
+        <v>34</v>
       </c>
       <c r="B62" t="s">
-        <v>125</v>
+        <v>35</v>
       </c>
       <c r="C62" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D62" t="n">
-        <v>90</v>
-      </c>
+        <v>2013</v>
+      </c>
+      <c r="D62"/>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>126</v>
+        <v>34</v>
       </c>
       <c r="B63" t="s">
-        <v>127</v>
+        <v>35</v>
       </c>
       <c r="C63" t="n">
         <v>2014</v>
       </c>
       <c r="D63" t="n">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>128</v>
+        <v>34</v>
       </c>
       <c r="B64" t="s">
-        <v>129</v>
+        <v>35</v>
       </c>
       <c r="C64" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D64" t="n">
-        <v>63</v>
+        <v>80.8</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="B65" t="s">
-        <v>131</v>
+        <v>35</v>
       </c>
       <c r="C65" t="n">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D65" t="n">
-        <v>77.5</v>
+        <v>84</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>132</v>
+        <v>36</v>
       </c>
       <c r="B66" t="s">
-        <v>133</v>
+        <v>37</v>
       </c>
       <c r="C66" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D66" t="n">
-        <v>84.5</v>
-      </c>
+        <v>2013</v>
+      </c>
+      <c r="D66"/>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>134</v>
+        <v>36</v>
       </c>
       <c r="B67" t="s">
-        <v>135</v>
+        <v>37</v>
       </c>
       <c r="C67" t="n">
         <v>2014</v>
       </c>
       <c r="D67" t="n">
-        <v>42</v>
+        <v>79.5</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>136</v>
+        <v>36</v>
       </c>
       <c r="B68" t="s">
-        <v>137</v>
+        <v>37</v>
       </c>
       <c r="C68" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D68" t="n">
-        <v>82</v>
+        <v>91.6</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>138</v>
+        <v>36</v>
       </c>
       <c r="B69" t="s">
-        <v>139</v>
+        <v>37</v>
       </c>
       <c r="C69" t="n">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D69" t="n">
-        <v>63</v>
+        <v>68.8</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>140</v>
+        <v>38</v>
       </c>
       <c r="B70" t="s">
-        <v>141</v>
+        <v>39</v>
       </c>
       <c r="C70" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D70" t="n">
-        <v>82</v>
-      </c>
+        <v>2013</v>
+      </c>
+      <c r="D70"/>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>142</v>
+        <v>38</v>
       </c>
       <c r="B71" t="s">
-        <v>143</v>
+        <v>39</v>
       </c>
       <c r="C71" t="n">
         <v>2014</v>
       </c>
       <c r="D71" t="n">
-        <v>96</v>
+        <v>76.2</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>144</v>
+        <v>38</v>
       </c>
       <c r="B72" t="s">
-        <v>145</v>
+        <v>39</v>
       </c>
       <c r="C72" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D72" t="n">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>146</v>
+        <v>38</v>
       </c>
       <c r="B73" t="s">
-        <v>147</v>
+        <v>39</v>
       </c>
       <c r="C73" t="n">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D73" t="n">
-        <v>75</v>
+        <v>61.4</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>148</v>
+        <v>40</v>
       </c>
       <c r="B74" t="s">
-        <v>149</v>
+        <v>41</v>
       </c>
       <c r="C74" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D74" t="n">
-        <v>70</v>
-      </c>
+        <v>2013</v>
+      </c>
+      <c r="D74"/>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="B75" t="s">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="C75" t="n">
         <v>2014</v>
       </c>
       <c r="D75" t="n">
-        <v>77</v>
+        <v>68.9</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>152</v>
+        <v>40</v>
       </c>
       <c r="B76" t="s">
-        <v>153</v>
+        <v>41</v>
       </c>
       <c r="C76" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D76" t="n">
-        <v>75</v>
+        <v>69.9</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>154</v>
+        <v>40</v>
       </c>
       <c r="B77" t="s">
-        <v>155</v>
+        <v>41</v>
       </c>
       <c r="C77" t="n">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D77" t="n">
-        <v>62.7</v>
+        <v>70.6</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>156</v>
+        <v>42</v>
       </c>
       <c r="B78" t="s">
-        <v>157</v>
+        <v>43</v>
       </c>
       <c r="C78" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D78" t="n">
-        <v>70</v>
-      </c>
+        <v>2013</v>
+      </c>
+      <c r="D78"/>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>158</v>
+        <v>42</v>
       </c>
       <c r="B79" t="s">
-        <v>159</v>
+        <v>43</v>
       </c>
       <c r="C79" t="n">
         <v>2014</v>
       </c>
       <c r="D79" t="n">
-        <v>97</v>
+        <v>65</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>160</v>
+        <v>42</v>
       </c>
       <c r="B80" t="s">
-        <v>161</v>
+        <v>43</v>
       </c>
       <c r="C80" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D80" t="n">
-        <v>89.6</v>
+        <v>68.6</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>162</v>
+        <v>42</v>
       </c>
       <c r="B81" t="s">
-        <v>163</v>
+        <v>43</v>
       </c>
       <c r="C81" t="n">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D81" t="n">
-        <v>88.2</v>
+        <v>68</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>164</v>
+        <v>44</v>
       </c>
       <c r="B82" t="s">
-        <v>165</v>
+        <v>45</v>
       </c>
       <c r="C82" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D82" t="n">
-        <v>3.6</v>
-      </c>
+        <v>2013</v>
+      </c>
+      <c r="D82"/>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>166</v>
+        <v>44</v>
       </c>
       <c r="B83" t="s">
-        <v>167</v>
+        <v>45</v>
       </c>
       <c r="C83" t="n">
         <v>2014</v>
       </c>
       <c r="D83" t="n">
-        <v>88</v>
+        <v>71</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>168</v>
+        <v>44</v>
       </c>
       <c r="B84" t="s">
-        <v>169</v>
+        <v>45</v>
       </c>
       <c r="C84" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D84" t="n">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>170</v>
+        <v>44</v>
       </c>
       <c r="B85" t="s">
-        <v>171</v>
+        <v>45</v>
       </c>
       <c r="C85" t="n">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D85" t="n">
-        <v>82.1</v>
+        <v>72</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>172</v>
+        <v>46</v>
       </c>
       <c r="B86" t="s">
-        <v>173</v>
+        <v>47</v>
       </c>
       <c r="C86" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D86" t="n">
-        <v>83</v>
-      </c>
+        <v>2013</v>
+      </c>
+      <c r="D86"/>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>174</v>
+        <v>46</v>
       </c>
       <c r="B87" t="s">
-        <v>175</v>
+        <v>47</v>
       </c>
       <c r="C87" t="n">
         <v>2014</v>
       </c>
       <c r="D87" t="n">
-        <v>15.4</v>
+        <v>89</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>176</v>
+        <v>46</v>
       </c>
       <c r="B88" t="s">
-        <v>177</v>
+        <v>47</v>
       </c>
       <c r="C88" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D88" t="n">
-        <v>82.7</v>
+        <v>91.8</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>178</v>
+        <v>46</v>
       </c>
       <c r="B89" t="s">
-        <v>179</v>
+        <v>47</v>
       </c>
       <c r="C89" t="n">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D89" t="n">
-        <v>89</v>
+        <v>92.6</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>180</v>
+        <v>48</v>
       </c>
       <c r="B90" t="s">
-        <v>181</v>
+        <v>49</v>
       </c>
       <c r="C90" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D90" t="n">
-        <v>69</v>
-      </c>
+        <v>2013</v>
+      </c>
+      <c r="D90"/>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>182</v>
+        <v>48</v>
       </c>
       <c r="B91" t="s">
-        <v>183</v>
+        <v>49</v>
       </c>
       <c r="C91" t="n">
         <v>2014</v>
       </c>
       <c r="D91" t="n">
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>184</v>
+        <v>48</v>
       </c>
       <c r="B92" t="s">
-        <v>185</v>
+        <v>49</v>
       </c>
       <c r="C92" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D92" t="n">
-        <v>28</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>186</v>
+        <v>48</v>
       </c>
       <c r="B93" t="s">
-        <v>187</v>
+        <v>49</v>
       </c>
       <c r="C93" t="n">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D93" t="n">
-        <v>77.6</v>
+        <v>88.2</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>188</v>
+        <v>50</v>
       </c>
       <c r="B94" t="s">
-        <v>189</v>
+        <v>51</v>
       </c>
       <c r="C94" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D94" t="n">
-        <v>81</v>
-      </c>
+        <v>2013</v>
+      </c>
+      <c r="D94"/>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="B95" t="s">
-        <v>191</v>
+        <v>51</v>
       </c>
       <c r="C95" t="n">
         <v>2014</v>
       </c>
       <c r="D95" t="n">
-        <v>66.3</v>
+        <v>80</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>192</v>
+        <v>50</v>
       </c>
       <c r="B96" t="s">
-        <v>193</v>
+        <v>51</v>
       </c>
       <c r="C96" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D96" t="n">
-        <v>99.1</v>
+        <v>68</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>194</v>
+        <v>50</v>
       </c>
       <c r="B97" t="s">
-        <v>195</v>
+        <v>51</v>
       </c>
       <c r="C97" t="n">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D97" t="n">
-        <v>70.1</v>
+        <v>75</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>196</v>
+        <v>52</v>
       </c>
       <c r="B98" t="s">
-        <v>197</v>
+        <v>53</v>
       </c>
       <c r="C98" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D98" t="n">
-        <v>58</v>
-      </c>
+        <v>2013</v>
+      </c>
+      <c r="D98"/>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>198</v>
+        <v>52</v>
       </c>
       <c r="B99" t="s">
-        <v>199</v>
+        <v>53</v>
       </c>
       <c r="C99" t="n">
         <v>2014</v>
       </c>
       <c r="D99" t="n">
-        <v>84.1</v>
+        <v>65</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>200</v>
+        <v>52</v>
       </c>
       <c r="B100" t="s">
-        <v>201</v>
+        <v>53</v>
       </c>
       <c r="C100" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D100" t="n">
-        <v>46.8</v>
+        <v>67</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>202</v>
+        <v>52</v>
       </c>
       <c r="B101" t="s">
-        <v>203</v>
+        <v>53</v>
       </c>
       <c r="C101" t="n">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D101" t="n">
-        <v>78.4</v>
+        <v>68</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>204</v>
+        <v>54</v>
       </c>
       <c r="B102" t="s">
-        <v>205</v>
+        <v>55</v>
       </c>
       <c r="C102" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D102" t="n">
-        <v>86</v>
-      </c>
+        <v>2013</v>
+      </c>
+      <c r="D102"/>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>206</v>
+        <v>54</v>
       </c>
       <c r="B103" t="s">
-        <v>207</v>
+        <v>55</v>
       </c>
       <c r="C103" t="n">
         <v>2014</v>
       </c>
       <c r="D103" t="n">
-        <v>80.5</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>208</v>
+        <v>54</v>
       </c>
       <c r="B104" t="s">
-        <v>209</v>
+        <v>55</v>
       </c>
       <c r="C104" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D104" t="n">
-        <v>98.9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>210</v>
+        <v>54</v>
       </c>
       <c r="B105" t="s">
-        <v>211</v>
+        <v>55</v>
       </c>
       <c r="C105" t="n">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D105" t="n">
-        <v>70</v>
+        <v>38</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>212</v>
+        <v>56</v>
       </c>
       <c r="B106" t="s">
-        <v>213</v>
+        <v>57</v>
       </c>
       <c r="C106" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D106" t="n">
-        <v>78.4</v>
-      </c>
+        <v>2013</v>
+      </c>
+      <c r="D106"/>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>214</v>
+        <v>56</v>
       </c>
       <c r="B107" t="s">
-        <v>215</v>
+        <v>57</v>
       </c>
       <c r="C107" t="n">
         <v>2014</v>
       </c>
       <c r="D107" t="n">
-        <v>89.4</v>
+        <v>80</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>216</v>
+        <v>56</v>
       </c>
       <c r="B108" t="s">
-        <v>217</v>
+        <v>57</v>
       </c>
       <c r="C108" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D108" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>218</v>
+        <v>56</v>
       </c>
       <c r="B109" t="s">
-        <v>219</v>
+        <v>57</v>
       </c>
       <c r="C109" t="n">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D109" t="n">
-        <v>69.8</v>
+        <v>81.3</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>220</v>
+        <v>58</v>
       </c>
       <c r="B110" t="s">
-        <v>221</v>
+        <v>59</v>
       </c>
       <c r="C110" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D110" t="n">
-        <v>76.1</v>
-      </c>
+        <v>2013</v>
+      </c>
+      <c r="D110"/>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>222</v>
+        <v>58</v>
       </c>
       <c r="B111" t="s">
-        <v>223</v>
+        <v>59</v>
       </c>
       <c r="C111" t="n">
         <v>2014</v>
       </c>
       <c r="D111" t="n">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>224</v>
+        <v>58</v>
       </c>
       <c r="B112" t="s">
-        <v>225</v>
+        <v>59</v>
       </c>
       <c r="C112" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D112" t="n">
-        <v>50</v>
+        <v>86</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
+        <v>58</v>
+      </c>
+      <c r="B113" t="s">
+        <v>59</v>
+      </c>
+      <c r="C113" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D113" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>60</v>
+      </c>
+      <c r="B114" t="s">
+        <v>61</v>
+      </c>
+      <c r="C114" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D114"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>60</v>
+      </c>
+      <c r="B115" t="s">
+        <v>61</v>
+      </c>
+      <c r="C115" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D115" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>60</v>
+      </c>
+      <c r="B116" t="s">
+        <v>61</v>
+      </c>
+      <c r="C116" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D116" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>60</v>
+      </c>
+      <c r="B117" t="s">
+        <v>61</v>
+      </c>
+      <c r="C117" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D117" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>62</v>
+      </c>
+      <c r="B118" t="s">
+        <v>63</v>
+      </c>
+      <c r="C118" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D118"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>62</v>
+      </c>
+      <c r="B119" t="s">
+        <v>63</v>
+      </c>
+      <c r="C119" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D119" t="n">
+        <v>71.3</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>62</v>
+      </c>
+      <c r="B120" t="s">
+        <v>63</v>
+      </c>
+      <c r="C120" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D120" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>62</v>
+      </c>
+      <c r="B121" t="s">
+        <v>63</v>
+      </c>
+      <c r="C121" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D121" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>64</v>
+      </c>
+      <c r="B122" t="s">
+        <v>65</v>
+      </c>
+      <c r="C122" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D122"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>64</v>
+      </c>
+      <c r="B123" t="s">
+        <v>65</v>
+      </c>
+      <c r="C123" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D123" t="n">
+        <v>73.7</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>64</v>
+      </c>
+      <c r="B124" t="s">
+        <v>65</v>
+      </c>
+      <c r="C124" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D124" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>64</v>
+      </c>
+      <c r="B125" t="s">
+        <v>65</v>
+      </c>
+      <c r="C125" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D125" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>66</v>
+      </c>
+      <c r="B126" t="s">
+        <v>67</v>
+      </c>
+      <c r="C126" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D126"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>66</v>
+      </c>
+      <c r="B127" t="s">
+        <v>67</v>
+      </c>
+      <c r="C127" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D127" t="n">
+        <v>88.4</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>66</v>
+      </c>
+      <c r="B128" t="s">
+        <v>67</v>
+      </c>
+      <c r="C128" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D128" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>66</v>
+      </c>
+      <c r="B129" t="s">
+        <v>67</v>
+      </c>
+      <c r="C129" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D129" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>68</v>
+      </c>
+      <c r="B130" t="s">
+        <v>69</v>
+      </c>
+      <c r="C130" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D130"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>68</v>
+      </c>
+      <c r="B131" t="s">
+        <v>69</v>
+      </c>
+      <c r="C131" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D131" t="n">
+        <v>74.8</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>68</v>
+      </c>
+      <c r="B132" t="s">
+        <v>69</v>
+      </c>
+      <c r="C132" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D132" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>68</v>
+      </c>
+      <c r="B133" t="s">
+        <v>69</v>
+      </c>
+      <c r="C133" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D133" t="n">
+        <v>76.8</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>70</v>
+      </c>
+      <c r="B134" t="s">
+        <v>71</v>
+      </c>
+      <c r="C134" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D134"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>70</v>
+      </c>
+      <c r="B135" t="s">
+        <v>71</v>
+      </c>
+      <c r="C135" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D135" t="n">
+        <v>86.4</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>70</v>
+      </c>
+      <c r="B136" t="s">
+        <v>71</v>
+      </c>
+      <c r="C136" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D136" t="n">
+        <v>90.4</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>70</v>
+      </c>
+      <c r="B137" t="s">
+        <v>71</v>
+      </c>
+      <c r="C137" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D137" t="n">
+        <v>91.4</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>72</v>
+      </c>
+      <c r="B138" t="s">
+        <v>73</v>
+      </c>
+      <c r="C138" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D138"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>72</v>
+      </c>
+      <c r="B139" t="s">
+        <v>73</v>
+      </c>
+      <c r="C139" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D139" t="n">
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>72</v>
+      </c>
+      <c r="B140" t="s">
+        <v>73</v>
+      </c>
+      <c r="C140" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D140" t="n">
+        <v>81.3</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>72</v>
+      </c>
+      <c r="B141" t="s">
+        <v>73</v>
+      </c>
+      <c r="C141" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D141" t="n">
+        <v>75.3</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>74</v>
+      </c>
+      <c r="B142" t="s">
+        <v>75</v>
+      </c>
+      <c r="C142" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D142"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>74</v>
+      </c>
+      <c r="B143" t="s">
+        <v>75</v>
+      </c>
+      <c r="C143" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D143" t="n">
+        <v>20.9</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>74</v>
+      </c>
+      <c r="B144" t="s">
+        <v>75</v>
+      </c>
+      <c r="C144" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D144" t="n">
+        <v>19.1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>74</v>
+      </c>
+      <c r="B145" t="s">
+        <v>75</v>
+      </c>
+      <c r="C145" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D145" t="n">
+        <v>21.3</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>76</v>
+      </c>
+      <c r="B146" t="s">
+        <v>77</v>
+      </c>
+      <c r="C146" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D146"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>76</v>
+      </c>
+      <c r="B147" t="s">
+        <v>77</v>
+      </c>
+      <c r="C147" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D147" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>76</v>
+      </c>
+      <c r="B148" t="s">
+        <v>77</v>
+      </c>
+      <c r="C148" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D148" t="n">
+        <v>87.1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>76</v>
+      </c>
+      <c r="B149" t="s">
+        <v>77</v>
+      </c>
+      <c r="C149" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D149" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>78</v>
+      </c>
+      <c r="B150" t="s">
+        <v>79</v>
+      </c>
+      <c r="C150" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D150"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>78</v>
+      </c>
+      <c r="B151" t="s">
+        <v>79</v>
+      </c>
+      <c r="C151" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D151" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>78</v>
+      </c>
+      <c r="B152" t="s">
+        <v>79</v>
+      </c>
+      <c r="C152" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D152" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>78</v>
+      </c>
+      <c r="B153" t="s">
+        <v>79</v>
+      </c>
+      <c r="C153" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D153" t="n">
+        <v>83.7</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>80</v>
+      </c>
+      <c r="B154" t="s">
+        <v>81</v>
+      </c>
+      <c r="C154" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D154"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>80</v>
+      </c>
+      <c r="B155" t="s">
+        <v>81</v>
+      </c>
+      <c r="C155" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D155" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>80</v>
+      </c>
+      <c r="B156" t="s">
+        <v>81</v>
+      </c>
+      <c r="C156" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D156" t="n">
+        <v>77.6</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>80</v>
+      </c>
+      <c r="B157" t="s">
+        <v>81</v>
+      </c>
+      <c r="C157" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D157" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>82</v>
+      </c>
+      <c r="B158" t="s">
+        <v>83</v>
+      </c>
+      <c r="C158" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D158"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>82</v>
+      </c>
+      <c r="B159" t="s">
+        <v>83</v>
+      </c>
+      <c r="C159" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D159" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>82</v>
+      </c>
+      <c r="B160" t="s">
+        <v>83</v>
+      </c>
+      <c r="C160" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D160" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>82</v>
+      </c>
+      <c r="B161" t="s">
+        <v>83</v>
+      </c>
+      <c r="C161" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D161" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>84</v>
+      </c>
+      <c r="B162" t="s">
+        <v>85</v>
+      </c>
+      <c r="C162" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D162"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>84</v>
+      </c>
+      <c r="B163" t="s">
+        <v>85</v>
+      </c>
+      <c r="C163" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D163" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>84</v>
+      </c>
+      <c r="B164" t="s">
+        <v>85</v>
+      </c>
+      <c r="C164" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D164" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>84</v>
+      </c>
+      <c r="B165" t="s">
+        <v>85</v>
+      </c>
+      <c r="C165" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D165" t="n">
+        <v>74.2</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>86</v>
+      </c>
+      <c r="B166" t="s">
+        <v>87</v>
+      </c>
+      <c r="C166" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D166"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>86</v>
+      </c>
+      <c r="B167" t="s">
+        <v>87</v>
+      </c>
+      <c r="C167" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D167" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>86</v>
+      </c>
+      <c r="B168" t="s">
+        <v>87</v>
+      </c>
+      <c r="C168" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D168" t="n">
+        <v>90.8</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>86</v>
+      </c>
+      <c r="B169" t="s">
+        <v>87</v>
+      </c>
+      <c r="C169" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D169" t="n">
+        <v>92.5</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>88</v>
+      </c>
+      <c r="B170" t="s">
+        <v>89</v>
+      </c>
+      <c r="C170" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D170"/>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>88</v>
+      </c>
+      <c r="B171" t="s">
+        <v>89</v>
+      </c>
+      <c r="C171" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D171"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>88</v>
+      </c>
+      <c r="B172" t="s">
+        <v>89</v>
+      </c>
+      <c r="C172" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D172"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>88</v>
+      </c>
+      <c r="B173" t="s">
+        <v>89</v>
+      </c>
+      <c r="C173" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D173"/>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>90</v>
+      </c>
+      <c r="B174" t="s">
+        <v>91</v>
+      </c>
+      <c r="C174" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D174"/>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>90</v>
+      </c>
+      <c r="B175" t="s">
+        <v>91</v>
+      </c>
+      <c r="C175" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D175" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>90</v>
+      </c>
+      <c r="B176" t="s">
+        <v>91</v>
+      </c>
+      <c r="C176" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D176" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>90</v>
+      </c>
+      <c r="B177" t="s">
+        <v>91</v>
+      </c>
+      <c r="C177" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D177" t="n">
+        <v>70.2</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>92</v>
+      </c>
+      <c r="B178" t="s">
+        <v>93</v>
+      </c>
+      <c r="C178" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D178"/>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>92</v>
+      </c>
+      <c r="B179" t="s">
+        <v>93</v>
+      </c>
+      <c r="C179" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D179" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>92</v>
+      </c>
+      <c r="B180" t="s">
+        <v>93</v>
+      </c>
+      <c r="C180" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D180" t="n">
+        <v>78.1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>92</v>
+      </c>
+      <c r="B181" t="s">
+        <v>93</v>
+      </c>
+      <c r="C181" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D181" t="n">
+        <v>80.2</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>94</v>
+      </c>
+      <c r="B182" t="s">
+        <v>95</v>
+      </c>
+      <c r="C182" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D182"/>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>94</v>
+      </c>
+      <c r="B183" t="s">
+        <v>95</v>
+      </c>
+      <c r="C183" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D183" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>94</v>
+      </c>
+      <c r="B184" t="s">
+        <v>95</v>
+      </c>
+      <c r="C184" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D184" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>94</v>
+      </c>
+      <c r="B185" t="s">
+        <v>95</v>
+      </c>
+      <c r="C185" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D185" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>96</v>
+      </c>
+      <c r="B186" t="s">
+        <v>97</v>
+      </c>
+      <c r="C186" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D186"/>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>96</v>
+      </c>
+      <c r="B187" t="s">
+        <v>97</v>
+      </c>
+      <c r="C187" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D187" t="n">
+        <v>74.4</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>96</v>
+      </c>
+      <c r="B188" t="s">
+        <v>97</v>
+      </c>
+      <c r="C188" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D188" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>96</v>
+      </c>
+      <c r="B189" t="s">
+        <v>97</v>
+      </c>
+      <c r="C189" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D189" t="n">
+        <v>82.4</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>98</v>
+      </c>
+      <c r="B190" t="s">
+        <v>99</v>
+      </c>
+      <c r="C190" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D190"/>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>98</v>
+      </c>
+      <c r="B191" t="s">
+        <v>99</v>
+      </c>
+      <c r="C191" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D191" t="n">
+        <v>85.4</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>98</v>
+      </c>
+      <c r="B192" t="s">
+        <v>99</v>
+      </c>
+      <c r="C192" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D192" t="n">
+        <v>84.8</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>98</v>
+      </c>
+      <c r="B193" t="s">
+        <v>99</v>
+      </c>
+      <c r="C193" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D193" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>100</v>
+      </c>
+      <c r="B194" t="s">
+        <v>101</v>
+      </c>
+      <c r="C194" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D194"/>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>100</v>
+      </c>
+      <c r="B195" t="s">
+        <v>101</v>
+      </c>
+      <c r="C195" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D195" t="n">
+        <v>63.2</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>100</v>
+      </c>
+      <c r="B196" t="s">
+        <v>101</v>
+      </c>
+      <c r="C196" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D196" t="n">
+        <v>73.2</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>100</v>
+      </c>
+      <c r="B197" t="s">
+        <v>101</v>
+      </c>
+      <c r="C197" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D197" t="n">
+        <v>74.6</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>102</v>
+      </c>
+      <c r="B198" t="s">
+        <v>103</v>
+      </c>
+      <c r="C198" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D198"/>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>102</v>
+      </c>
+      <c r="B199" t="s">
+        <v>103</v>
+      </c>
+      <c r="C199" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D199" t="n">
+        <v>69.7</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>102</v>
+      </c>
+      <c r="B200" t="s">
+        <v>103</v>
+      </c>
+      <c r="C200" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D200" t="n">
+        <v>71.2</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>102</v>
+      </c>
+      <c r="B201" t="s">
+        <v>103</v>
+      </c>
+      <c r="C201" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D201" t="n">
+        <v>72.4</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>104</v>
+      </c>
+      <c r="B202" t="s">
+        <v>105</v>
+      </c>
+      <c r="C202" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D202"/>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>104</v>
+      </c>
+      <c r="B203" t="s">
+        <v>105</v>
+      </c>
+      <c r="C203" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D203" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>104</v>
+      </c>
+      <c r="B204" t="s">
+        <v>105</v>
+      </c>
+      <c r="C204" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D204" t="n">
+        <v>78.8</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>104</v>
+      </c>
+      <c r="B205" t="s">
+        <v>105</v>
+      </c>
+      <c r="C205" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D205" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>106</v>
+      </c>
+      <c r="B206" t="s">
+        <v>107</v>
+      </c>
+      <c r="C206" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D206"/>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>106</v>
+      </c>
+      <c r="B207" t="s">
+        <v>107</v>
+      </c>
+      <c r="C207" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D207" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>106</v>
+      </c>
+      <c r="B208" t="s">
+        <v>107</v>
+      </c>
+      <c r="C208" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D208" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>106</v>
+      </c>
+      <c r="B209" t="s">
+        <v>107</v>
+      </c>
+      <c r="C209" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D209" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>108</v>
+      </c>
+      <c r="B210" t="s">
+        <v>109</v>
+      </c>
+      <c r="C210" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D210"/>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>108</v>
+      </c>
+      <c r="B211" t="s">
+        <v>109</v>
+      </c>
+      <c r="C211" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D211" t="n">
+        <v>84.6</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>108</v>
+      </c>
+      <c r="B212" t="s">
+        <v>109</v>
+      </c>
+      <c r="C212" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D212" t="n">
+        <v>81.6</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>108</v>
+      </c>
+      <c r="B213" t="s">
+        <v>109</v>
+      </c>
+      <c r="C213" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D213" t="n">
+        <v>85.7</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>110</v>
+      </c>
+      <c r="B214" t="s">
+        <v>111</v>
+      </c>
+      <c r="C214" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D214"/>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>110</v>
+      </c>
+      <c r="B215" t="s">
+        <v>111</v>
+      </c>
+      <c r="C215" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D215" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>110</v>
+      </c>
+      <c r="B216" t="s">
+        <v>111</v>
+      </c>
+      <c r="C216" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D216" t="n">
+        <v>90.5</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>110</v>
+      </c>
+      <c r="B217" t="s">
+        <v>111</v>
+      </c>
+      <c r="C217" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D217" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>112</v>
+      </c>
+      <c r="B218" t="s">
+        <v>113</v>
+      </c>
+      <c r="C218" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D218"/>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>112</v>
+      </c>
+      <c r="B219" t="s">
+        <v>113</v>
+      </c>
+      <c r="C219" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D219" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>112</v>
+      </c>
+      <c r="B220" t="s">
+        <v>113</v>
+      </c>
+      <c r="C220" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D220" t="n">
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>112</v>
+      </c>
+      <c r="B221" t="s">
+        <v>113</v>
+      </c>
+      <c r="C221" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D221" t="n">
+        <v>68.2</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>114</v>
+      </c>
+      <c r="B222" t="s">
+        <v>115</v>
+      </c>
+      <c r="C222" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D222"/>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>114</v>
+      </c>
+      <c r="B223" t="s">
+        <v>115</v>
+      </c>
+      <c r="C223" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D223" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>114</v>
+      </c>
+      <c r="B224" t="s">
+        <v>115</v>
+      </c>
+      <c r="C224" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D224" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>114</v>
+      </c>
+      <c r="B225" t="s">
+        <v>115</v>
+      </c>
+      <c r="C225" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D225" t="n">
+        <v>77.3</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>116</v>
+      </c>
+      <c r="B226" t="s">
+        <v>117</v>
+      </c>
+      <c r="C226" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D226"/>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>116</v>
+      </c>
+      <c r="B227" t="s">
+        <v>117</v>
+      </c>
+      <c r="C227" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D227" t="n">
+        <v>55.9</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>116</v>
+      </c>
+      <c r="B228" t="s">
+        <v>117</v>
+      </c>
+      <c r="C228" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D228" t="n">
+        <v>50.5</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s">
+        <v>116</v>
+      </c>
+      <c r="B229" t="s">
+        <v>117</v>
+      </c>
+      <c r="C229" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D229" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s">
+        <v>118</v>
+      </c>
+      <c r="B230" t="s">
+        <v>119</v>
+      </c>
+      <c r="C230" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D230"/>
+    </row>
+    <row r="231">
+      <c r="A231" t="s">
+        <v>118</v>
+      </c>
+      <c r="B231" t="s">
+        <v>119</v>
+      </c>
+      <c r="C231" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D231" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s">
+        <v>118</v>
+      </c>
+      <c r="B232" t="s">
+        <v>119</v>
+      </c>
+      <c r="C232" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D232" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>118</v>
+      </c>
+      <c r="B233" t="s">
+        <v>119</v>
+      </c>
+      <c r="C233" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D233" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s">
+        <v>120</v>
+      </c>
+      <c r="B234" t="s">
+        <v>121</v>
+      </c>
+      <c r="C234" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D234"/>
+    </row>
+    <row r="235">
+      <c r="A235" t="s">
+        <v>120</v>
+      </c>
+      <c r="B235" t="s">
+        <v>121</v>
+      </c>
+      <c r="C235" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D235" t="n">
+        <v>73.4</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s">
+        <v>120</v>
+      </c>
+      <c r="B236" t="s">
+        <v>121</v>
+      </c>
+      <c r="C236" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D236" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s">
+        <v>120</v>
+      </c>
+      <c r="B237" t="s">
+        <v>121</v>
+      </c>
+      <c r="C237" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D237" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s">
+        <v>122</v>
+      </c>
+      <c r="B238" t="s">
+        <v>123</v>
+      </c>
+      <c r="C238" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D238"/>
+    </row>
+    <row r="239">
+      <c r="A239" t="s">
+        <v>122</v>
+      </c>
+      <c r="B239" t="s">
+        <v>123</v>
+      </c>
+      <c r="C239" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D239" t="n">
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s">
+        <v>122</v>
+      </c>
+      <c r="B240" t="s">
+        <v>123</v>
+      </c>
+      <c r="C240" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D240" t="n">
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s">
+        <v>122</v>
+      </c>
+      <c r="B241" t="s">
+        <v>123</v>
+      </c>
+      <c r="C241" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D241" t="n">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s">
+        <v>124</v>
+      </c>
+      <c r="B242" t="s">
+        <v>125</v>
+      </c>
+      <c r="C242" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D242"/>
+    </row>
+    <row r="243">
+      <c r="A243" t="s">
+        <v>124</v>
+      </c>
+      <c r="B243" t="s">
+        <v>125</v>
+      </c>
+      <c r="C243" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D243" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>124</v>
+      </c>
+      <c r="B244" t="s">
+        <v>125</v>
+      </c>
+      <c r="C244" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D244" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s">
+        <v>124</v>
+      </c>
+      <c r="B245" t="s">
+        <v>125</v>
+      </c>
+      <c r="C245" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D245" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s">
+        <v>126</v>
+      </c>
+      <c r="B246" t="s">
+        <v>127</v>
+      </c>
+      <c r="C246" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D246"/>
+    </row>
+    <row r="247">
+      <c r="A247" t="s">
+        <v>126</v>
+      </c>
+      <c r="B247" t="s">
+        <v>127</v>
+      </c>
+      <c r="C247" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D247" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s">
+        <v>126</v>
+      </c>
+      <c r="B248" t="s">
+        <v>127</v>
+      </c>
+      <c r="C248" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D248" t="n">
+        <v>83.5</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s">
+        <v>126</v>
+      </c>
+      <c r="B249" t="s">
+        <v>127</v>
+      </c>
+      <c r="C249" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D249" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s">
+        <v>128</v>
+      </c>
+      <c r="B250" t="s">
+        <v>129</v>
+      </c>
+      <c r="C250" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D250"/>
+    </row>
+    <row r="251">
+      <c r="A251" t="s">
+        <v>128</v>
+      </c>
+      <c r="B251" t="s">
+        <v>129</v>
+      </c>
+      <c r="C251" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D251" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s">
+        <v>128</v>
+      </c>
+      <c r="B252" t="s">
+        <v>129</v>
+      </c>
+      <c r="C252" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D252" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s">
+        <v>128</v>
+      </c>
+      <c r="B253" t="s">
+        <v>129</v>
+      </c>
+      <c r="C253" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D253" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s">
+        <v>130</v>
+      </c>
+      <c r="B254" t="s">
+        <v>131</v>
+      </c>
+      <c r="C254" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D254"/>
+    </row>
+    <row r="255">
+      <c r="A255" t="s">
+        <v>130</v>
+      </c>
+      <c r="B255" t="s">
+        <v>131</v>
+      </c>
+      <c r="C255" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D255" t="n">
+        <v>77.5</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s">
+        <v>130</v>
+      </c>
+      <c r="B256" t="s">
+        <v>131</v>
+      </c>
+      <c r="C256" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D256" t="n">
+        <v>81.6</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s">
+        <v>130</v>
+      </c>
+      <c r="B257" t="s">
+        <v>131</v>
+      </c>
+      <c r="C257" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D257" t="n">
+        <v>70.9</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>132</v>
+      </c>
+      <c r="B258" t="s">
+        <v>133</v>
+      </c>
+      <c r="C258" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D258"/>
+    </row>
+    <row r="259">
+      <c r="A259" t="s">
+        <v>132</v>
+      </c>
+      <c r="B259" t="s">
+        <v>133</v>
+      </c>
+      <c r="C259" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D259" t="n">
+        <v>84.5</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s">
+        <v>132</v>
+      </c>
+      <c r="B260" t="s">
+        <v>133</v>
+      </c>
+      <c r="C260" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D260" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s">
+        <v>132</v>
+      </c>
+      <c r="B261" t="s">
+        <v>133</v>
+      </c>
+      <c r="C261" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D261" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s">
+        <v>134</v>
+      </c>
+      <c r="B262" t="s">
+        <v>135</v>
+      </c>
+      <c r="C262" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D262"/>
+    </row>
+    <row r="263">
+      <c r="A263" t="s">
+        <v>134</v>
+      </c>
+      <c r="B263" t="s">
+        <v>135</v>
+      </c>
+      <c r="C263" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D263" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s">
+        <v>134</v>
+      </c>
+      <c r="B264" t="s">
+        <v>135</v>
+      </c>
+      <c r="C264" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D264" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s">
+        <v>134</v>
+      </c>
+      <c r="B265" t="s">
+        <v>135</v>
+      </c>
+      <c r="C265" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D265" t="n">
+        <v>43.6</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s">
+        <v>136</v>
+      </c>
+      <c r="B266" t="s">
+        <v>137</v>
+      </c>
+      <c r="C266" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D266"/>
+    </row>
+    <row r="267">
+      <c r="A267" t="s">
+        <v>136</v>
+      </c>
+      <c r="B267" t="s">
+        <v>137</v>
+      </c>
+      <c r="C267" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D267" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s">
+        <v>136</v>
+      </c>
+      <c r="B268" t="s">
+        <v>137</v>
+      </c>
+      <c r="C268" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D268" t="n">
+        <v>80.8</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s">
+        <v>136</v>
+      </c>
+      <c r="B269" t="s">
+        <v>137</v>
+      </c>
+      <c r="C269" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D269" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s">
+        <v>138</v>
+      </c>
+      <c r="B270" t="s">
+        <v>139</v>
+      </c>
+      <c r="C270" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D270"/>
+    </row>
+    <row r="271">
+      <c r="A271" t="s">
+        <v>138</v>
+      </c>
+      <c r="B271" t="s">
+        <v>139</v>
+      </c>
+      <c r="C271" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D271" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s">
+        <v>138</v>
+      </c>
+      <c r="B272" t="s">
+        <v>139</v>
+      </c>
+      <c r="C272" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D272" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s">
+        <v>138</v>
+      </c>
+      <c r="B273" t="s">
+        <v>139</v>
+      </c>
+      <c r="C273" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D273" t="n">
+        <v>65.6</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s">
+        <v>140</v>
+      </c>
+      <c r="B274" t="s">
+        <v>141</v>
+      </c>
+      <c r="C274" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D274"/>
+    </row>
+    <row r="275">
+      <c r="A275" t="s">
+        <v>140</v>
+      </c>
+      <c r="B275" t="s">
+        <v>141</v>
+      </c>
+      <c r="C275" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D275" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s">
+        <v>140</v>
+      </c>
+      <c r="B276" t="s">
+        <v>141</v>
+      </c>
+      <c r="C276" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D276" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s">
+        <v>140</v>
+      </c>
+      <c r="B277" t="s">
+        <v>141</v>
+      </c>
+      <c r="C277" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D277" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s">
+        <v>142</v>
+      </c>
+      <c r="B278" t="s">
+        <v>143</v>
+      </c>
+      <c r="C278" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D278"/>
+    </row>
+    <row r="279">
+      <c r="A279" t="s">
+        <v>142</v>
+      </c>
+      <c r="B279" t="s">
+        <v>143</v>
+      </c>
+      <c r="C279" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D279" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s">
+        <v>142</v>
+      </c>
+      <c r="B280" t="s">
+        <v>143</v>
+      </c>
+      <c r="C280" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D280" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s">
+        <v>142</v>
+      </c>
+      <c r="B281" t="s">
+        <v>143</v>
+      </c>
+      <c r="C281" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D281" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s">
+        <v>144</v>
+      </c>
+      <c r="B282" t="s">
+        <v>145</v>
+      </c>
+      <c r="C282" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D282"/>
+    </row>
+    <row r="283">
+      <c r="A283" t="s">
+        <v>144</v>
+      </c>
+      <c r="B283" t="s">
+        <v>145</v>
+      </c>
+      <c r="C283" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D283" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s">
+        <v>144</v>
+      </c>
+      <c r="B284" t="s">
+        <v>145</v>
+      </c>
+      <c r="C284" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D284" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s">
+        <v>144</v>
+      </c>
+      <c r="B285" t="s">
+        <v>145</v>
+      </c>
+      <c r="C285" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D285" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s">
+        <v>146</v>
+      </c>
+      <c r="B286" t="s">
+        <v>147</v>
+      </c>
+      <c r="C286" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D286"/>
+    </row>
+    <row r="287">
+      <c r="A287" t="s">
+        <v>146</v>
+      </c>
+      <c r="B287" t="s">
+        <v>147</v>
+      </c>
+      <c r="C287" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D287" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s">
+        <v>146</v>
+      </c>
+      <c r="B288" t="s">
+        <v>147</v>
+      </c>
+      <c r="C288" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D288" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s">
+        <v>146</v>
+      </c>
+      <c r="B289" t="s">
+        <v>147</v>
+      </c>
+      <c r="C289" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D289" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s">
+        <v>148</v>
+      </c>
+      <c r="B290" t="s">
+        <v>149</v>
+      </c>
+      <c r="C290" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D290"/>
+    </row>
+    <row r="291">
+      <c r="A291" t="s">
+        <v>148</v>
+      </c>
+      <c r="B291" t="s">
+        <v>149</v>
+      </c>
+      <c r="C291" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D291" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s">
+        <v>148</v>
+      </c>
+      <c r="B292" t="s">
+        <v>149</v>
+      </c>
+      <c r="C292" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D292" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s">
+        <v>148</v>
+      </c>
+      <c r="B293" t="s">
+        <v>149</v>
+      </c>
+      <c r="C293" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D293" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s">
+        <v>150</v>
+      </c>
+      <c r="B294" t="s">
+        <v>151</v>
+      </c>
+      <c r="C294" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D294"/>
+    </row>
+    <row r="295">
+      <c r="A295" t="s">
+        <v>150</v>
+      </c>
+      <c r="B295" t="s">
+        <v>151</v>
+      </c>
+      <c r="C295" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D295" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s">
+        <v>150</v>
+      </c>
+      <c r="B296" t="s">
+        <v>151</v>
+      </c>
+      <c r="C296" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D296" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s">
+        <v>150</v>
+      </c>
+      <c r="B297" t="s">
+        <v>151</v>
+      </c>
+      <c r="C297" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D297" t="n">
+        <v>84.5</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="s">
+        <v>152</v>
+      </c>
+      <c r="B298" t="s">
+        <v>153</v>
+      </c>
+      <c r="C298" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D298"/>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>152</v>
+      </c>
+      <c r="B299" t="s">
+        <v>153</v>
+      </c>
+      <c r="C299" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D299" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>152</v>
+      </c>
+      <c r="B300" t="s">
+        <v>153</v>
+      </c>
+      <c r="C300" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D300" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>152</v>
+      </c>
+      <c r="B301" t="s">
+        <v>153</v>
+      </c>
+      <c r="C301" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D301" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>154</v>
+      </c>
+      <c r="B302" t="s">
+        <v>155</v>
+      </c>
+      <c r="C302" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D302"/>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>154</v>
+      </c>
+      <c r="B303" t="s">
+        <v>155</v>
+      </c>
+      <c r="C303" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D303" t="n">
+        <v>62.7</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>154</v>
+      </c>
+      <c r="B304" t="s">
+        <v>155</v>
+      </c>
+      <c r="C304" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D304" t="n">
+        <v>67.2</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>154</v>
+      </c>
+      <c r="B305" t="s">
+        <v>155</v>
+      </c>
+      <c r="C305" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D305" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>156</v>
+      </c>
+      <c r="B306" t="s">
+        <v>157</v>
+      </c>
+      <c r="C306" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D306"/>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>156</v>
+      </c>
+      <c r="B307" t="s">
+        <v>157</v>
+      </c>
+      <c r="C307" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D307" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="s">
+        <v>156</v>
+      </c>
+      <c r="B308" t="s">
+        <v>157</v>
+      </c>
+      <c r="C308" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D308" t="n">
+        <v>93.2</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="s">
+        <v>156</v>
+      </c>
+      <c r="B309" t="s">
+        <v>157</v>
+      </c>
+      <c r="C309" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D309" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="s">
+        <v>158</v>
+      </c>
+      <c r="B310" t="s">
+        <v>159</v>
+      </c>
+      <c r="C310" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D310"/>
+    </row>
+    <row r="311">
+      <c r="A311" t="s">
+        <v>158</v>
+      </c>
+      <c r="B311" t="s">
+        <v>159</v>
+      </c>
+      <c r="C311" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D311" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="s">
+        <v>158</v>
+      </c>
+      <c r="B312" t="s">
+        <v>159</v>
+      </c>
+      <c r="C312" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D312" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s">
+        <v>158</v>
+      </c>
+      <c r="B313" t="s">
+        <v>159</v>
+      </c>
+      <c r="C313" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D313" t="n">
+        <v>98.6</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="s">
+        <v>160</v>
+      </c>
+      <c r="B314" t="s">
+        <v>161</v>
+      </c>
+      <c r="C314" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D314"/>
+    </row>
+    <row r="315">
+      <c r="A315" t="s">
+        <v>160</v>
+      </c>
+      <c r="B315" t="s">
+        <v>161</v>
+      </c>
+      <c r="C315" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D315" t="n">
+        <v>89.6</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s">
+        <v>160</v>
+      </c>
+      <c r="B316" t="s">
+        <v>161</v>
+      </c>
+      <c r="C316" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D316" t="n">
+        <v>91.1</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s">
+        <v>160</v>
+      </c>
+      <c r="B317" t="s">
+        <v>161</v>
+      </c>
+      <c r="C317" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D317" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s">
+        <v>162</v>
+      </c>
+      <c r="B318" t="s">
+        <v>163</v>
+      </c>
+      <c r="C318" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D318"/>
+    </row>
+    <row r="319">
+      <c r="A319" t="s">
+        <v>162</v>
+      </c>
+      <c r="B319" t="s">
+        <v>163</v>
+      </c>
+      <c r="C319" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D319" t="n">
+        <v>88.2</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="s">
+        <v>162</v>
+      </c>
+      <c r="B320" t="s">
+        <v>163</v>
+      </c>
+      <c r="C320" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D320" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="s">
+        <v>162</v>
+      </c>
+      <c r="B321" t="s">
+        <v>163</v>
+      </c>
+      <c r="C321" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D321" t="n">
+        <v>87.9</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="s">
+        <v>164</v>
+      </c>
+      <c r="B322" t="s">
+        <v>165</v>
+      </c>
+      <c r="C322" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D322"/>
+    </row>
+    <row r="323">
+      <c r="A323" t="s">
+        <v>164</v>
+      </c>
+      <c r="B323" t="s">
+        <v>165</v>
+      </c>
+      <c r="C323" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D323" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s">
+        <v>164</v>
+      </c>
+      <c r="B324" t="s">
+        <v>165</v>
+      </c>
+      <c r="C324" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D324" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s">
+        <v>164</v>
+      </c>
+      <c r="B325" t="s">
+        <v>165</v>
+      </c>
+      <c r="C325" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D325" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="s">
+        <v>166</v>
+      </c>
+      <c r="B326" t="s">
+        <v>167</v>
+      </c>
+      <c r="C326" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D326"/>
+    </row>
+    <row r="327">
+      <c r="A327" t="s">
+        <v>166</v>
+      </c>
+      <c r="B327" t="s">
+        <v>167</v>
+      </c>
+      <c r="C327" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D327" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s">
+        <v>166</v>
+      </c>
+      <c r="B328" t="s">
+        <v>167</v>
+      </c>
+      <c r="C328" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D328" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s">
+        <v>166</v>
+      </c>
+      <c r="B329" t="s">
+        <v>167</v>
+      </c>
+      <c r="C329" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D329" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="s">
+        <v>168</v>
+      </c>
+      <c r="B330" t="s">
+        <v>169</v>
+      </c>
+      <c r="C330" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D330"/>
+    </row>
+    <row r="331">
+      <c r="A331" t="s">
+        <v>168</v>
+      </c>
+      <c r="B331" t="s">
+        <v>169</v>
+      </c>
+      <c r="C331" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D331" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="s">
+        <v>168</v>
+      </c>
+      <c r="B332" t="s">
+        <v>169</v>
+      </c>
+      <c r="C332" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D332" t="n">
+        <v>65.3</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s">
+        <v>168</v>
+      </c>
+      <c r="B333" t="s">
+        <v>169</v>
+      </c>
+      <c r="C333" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D333" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="s">
+        <v>170</v>
+      </c>
+      <c r="B334" t="s">
+        <v>171</v>
+      </c>
+      <c r="C334" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D334"/>
+    </row>
+    <row r="335">
+      <c r="A335" t="s">
+        <v>170</v>
+      </c>
+      <c r="B335" t="s">
+        <v>171</v>
+      </c>
+      <c r="C335" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D335" t="n">
+        <v>82.1</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="s">
+        <v>170</v>
+      </c>
+      <c r="B336" t="s">
+        <v>171</v>
+      </c>
+      <c r="C336" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D336" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="s">
+        <v>170</v>
+      </c>
+      <c r="B337" t="s">
+        <v>171</v>
+      </c>
+      <c r="C337" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D337" t="n">
+        <v>83.2</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="s">
+        <v>172</v>
+      </c>
+      <c r="B338" t="s">
+        <v>173</v>
+      </c>
+      <c r="C338" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D338"/>
+    </row>
+    <row r="339">
+      <c r="A339" t="s">
+        <v>172</v>
+      </c>
+      <c r="B339" t="s">
+        <v>173</v>
+      </c>
+      <c r="C339" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D339" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="s">
+        <v>172</v>
+      </c>
+      <c r="B340" t="s">
+        <v>173</v>
+      </c>
+      <c r="C340" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D340" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="s">
+        <v>172</v>
+      </c>
+      <c r="B341" t="s">
+        <v>173</v>
+      </c>
+      <c r="C341" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D341" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="s">
+        <v>174</v>
+      </c>
+      <c r="B342" t="s">
+        <v>175</v>
+      </c>
+      <c r="C342" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D342"/>
+    </row>
+    <row r="343">
+      <c r="A343" t="s">
+        <v>174</v>
+      </c>
+      <c r="B343" t="s">
+        <v>175</v>
+      </c>
+      <c r="C343" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D343" t="n">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="s">
+        <v>174</v>
+      </c>
+      <c r="B344" t="s">
+        <v>175</v>
+      </c>
+      <c r="C344" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D344" t="n">
+        <v>22.3</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="s">
+        <v>174</v>
+      </c>
+      <c r="B345" t="s">
+        <v>175</v>
+      </c>
+      <c r="C345" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D345" t="n">
+        <v>31.4</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="s">
+        <v>176</v>
+      </c>
+      <c r="B346" t="s">
+        <v>177</v>
+      </c>
+      <c r="C346" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D346"/>
+    </row>
+    <row r="347">
+      <c r="A347" t="s">
+        <v>176</v>
+      </c>
+      <c r="B347" t="s">
+        <v>177</v>
+      </c>
+      <c r="C347" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D347" t="n">
+        <v>82.7</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="s">
+        <v>176</v>
+      </c>
+      <c r="B348" t="s">
+        <v>177</v>
+      </c>
+      <c r="C348" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D348" t="n">
+        <v>83.8</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="s">
+        <v>176</v>
+      </c>
+      <c r="B349" t="s">
+        <v>177</v>
+      </c>
+      <c r="C349" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D349" t="n">
+        <v>84.4</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="s">
+        <v>178</v>
+      </c>
+      <c r="B350" t="s">
+        <v>179</v>
+      </c>
+      <c r="C350" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D350"/>
+    </row>
+    <row r="351">
+      <c r="A351" t="s">
+        <v>178</v>
+      </c>
+      <c r="B351" t="s">
+        <v>179</v>
+      </c>
+      <c r="C351" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D351" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="s">
+        <v>178</v>
+      </c>
+      <c r="B352" t="s">
+        <v>179</v>
+      </c>
+      <c r="C352" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D352" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="s">
+        <v>178</v>
+      </c>
+      <c r="B353" t="s">
+        <v>179</v>
+      </c>
+      <c r="C353" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D353" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="s">
+        <v>180</v>
+      </c>
+      <c r="B354" t="s">
+        <v>181</v>
+      </c>
+      <c r="C354" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D354"/>
+    </row>
+    <row r="355">
+      <c r="A355" t="s">
+        <v>180</v>
+      </c>
+      <c r="B355" t="s">
+        <v>181</v>
+      </c>
+      <c r="C355" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D355" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="s">
+        <v>180</v>
+      </c>
+      <c r="B356" t="s">
+        <v>181</v>
+      </c>
+      <c r="C356" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D356" t="n">
+        <v>48.3</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="s">
+        <v>180</v>
+      </c>
+      <c r="B357" t="s">
+        <v>181</v>
+      </c>
+      <c r="C357" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D357" t="n">
+        <v>61.5</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="s">
+        <v>182</v>
+      </c>
+      <c r="B358" t="s">
+        <v>183</v>
+      </c>
+      <c r="C358" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D358"/>
+    </row>
+    <row r="359">
+      <c r="A359" t="s">
+        <v>182</v>
+      </c>
+      <c r="B359" t="s">
+        <v>183</v>
+      </c>
+      <c r="C359" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D359" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="s">
+        <v>182</v>
+      </c>
+      <c r="B360" t="s">
+        <v>183</v>
+      </c>
+      <c r="C360" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D360" t="n">
+        <v>84.1</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="s">
+        <v>182</v>
+      </c>
+      <c r="B361" t="s">
+        <v>183</v>
+      </c>
+      <c r="C361" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D361" t="n">
+        <v>84.1</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="s">
+        <v>184</v>
+      </c>
+      <c r="B362" t="s">
+        <v>185</v>
+      </c>
+      <c r="C362" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D362"/>
+    </row>
+    <row r="363">
+      <c r="A363" t="s">
+        <v>184</v>
+      </c>
+      <c r="B363" t="s">
+        <v>185</v>
+      </c>
+      <c r="C363" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D363" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="s">
+        <v>184</v>
+      </c>
+      <c r="B364" t="s">
+        <v>185</v>
+      </c>
+      <c r="C364" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D364" t="n">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="s">
+        <v>184</v>
+      </c>
+      <c r="B365" t="s">
+        <v>185</v>
+      </c>
+      <c r="C365" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D365" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="s">
+        <v>186</v>
+      </c>
+      <c r="B366" t="s">
+        <v>187</v>
+      </c>
+      <c r="C366" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D366"/>
+    </row>
+    <row r="367">
+      <c r="A367" t="s">
+        <v>186</v>
+      </c>
+      <c r="B367" t="s">
+        <v>187</v>
+      </c>
+      <c r="C367" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D367" t="n">
+        <v>77.6</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="s">
+        <v>186</v>
+      </c>
+      <c r="B368" t="s">
+        <v>187</v>
+      </c>
+      <c r="C368" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D368" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="s">
+        <v>186</v>
+      </c>
+      <c r="B369" t="s">
+        <v>187</v>
+      </c>
+      <c r="C369" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D369" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="s">
+        <v>188</v>
+      </c>
+      <c r="B370" t="s">
+        <v>189</v>
+      </c>
+      <c r="C370" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D370"/>
+    </row>
+    <row r="371">
+      <c r="A371" t="s">
+        <v>188</v>
+      </c>
+      <c r="B371" t="s">
+        <v>189</v>
+      </c>
+      <c r="C371" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D371" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="s">
+        <v>188</v>
+      </c>
+      <c r="B372" t="s">
+        <v>189</v>
+      </c>
+      <c r="C372" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D372" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="s">
+        <v>188</v>
+      </c>
+      <c r="B373" t="s">
+        <v>189</v>
+      </c>
+      <c r="C373" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D373" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="s">
+        <v>190</v>
+      </c>
+      <c r="B374" t="s">
+        <v>191</v>
+      </c>
+      <c r="C374" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D374"/>
+    </row>
+    <row r="375">
+      <c r="A375" t="s">
+        <v>190</v>
+      </c>
+      <c r="B375" t="s">
+        <v>191</v>
+      </c>
+      <c r="C375" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D375" t="n">
+        <v>66.3</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="s">
+        <v>190</v>
+      </c>
+      <c r="B376" t="s">
+        <v>191</v>
+      </c>
+      <c r="C376" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D376" t="n">
+        <v>66.9</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="s">
+        <v>190</v>
+      </c>
+      <c r="B377" t="s">
+        <v>191</v>
+      </c>
+      <c r="C377" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D377" t="n">
+        <v>66.7</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="s">
+        <v>192</v>
+      </c>
+      <c r="B378" t="s">
+        <v>193</v>
+      </c>
+      <c r="C378" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D378"/>
+    </row>
+    <row r="379">
+      <c r="A379" t="s">
+        <v>192</v>
+      </c>
+      <c r="B379" t="s">
+        <v>193</v>
+      </c>
+      <c r="C379" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D379" t="n">
+        <v>99.1</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="s">
+        <v>192</v>
+      </c>
+      <c r="B380" t="s">
+        <v>193</v>
+      </c>
+      <c r="C380" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D380" t="n">
+        <v>94.6</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="s">
+        <v>192</v>
+      </c>
+      <c r="B381" t="s">
+        <v>193</v>
+      </c>
+      <c r="C381" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D381" t="n">
+        <v>94.9</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="s">
+        <v>194</v>
+      </c>
+      <c r="B382" t="s">
+        <v>195</v>
+      </c>
+      <c r="C382" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D382"/>
+    </row>
+    <row r="383">
+      <c r="A383" t="s">
+        <v>194</v>
+      </c>
+      <c r="B383" t="s">
+        <v>195</v>
+      </c>
+      <c r="C383" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D383" t="n">
+        <v>70.1</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="s">
+        <v>194</v>
+      </c>
+      <c r="B384" t="s">
+        <v>195</v>
+      </c>
+      <c r="C384" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D384" t="n">
+        <v>74.6</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="s">
+        <v>194</v>
+      </c>
+      <c r="B385" t="s">
+        <v>195</v>
+      </c>
+      <c r="C385" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D385" t="n">
+        <v>74.8</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="s">
+        <v>196</v>
+      </c>
+      <c r="B386" t="s">
+        <v>197</v>
+      </c>
+      <c r="C386" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D386"/>
+    </row>
+    <row r="387">
+      <c r="A387" t="s">
+        <v>196</v>
+      </c>
+      <c r="B387" t="s">
+        <v>197</v>
+      </c>
+      <c r="C387" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D387" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="s">
+        <v>196</v>
+      </c>
+      <c r="B388" t="s">
+        <v>197</v>
+      </c>
+      <c r="C388" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D388" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="s">
+        <v>196</v>
+      </c>
+      <c r="B389" t="s">
+        <v>197</v>
+      </c>
+      <c r="C389" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D389" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="s">
+        <v>198</v>
+      </c>
+      <c r="B390" t="s">
+        <v>199</v>
+      </c>
+      <c r="C390" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D390"/>
+    </row>
+    <row r="391">
+      <c r="A391" t="s">
+        <v>198</v>
+      </c>
+      <c r="B391" t="s">
+        <v>199</v>
+      </c>
+      <c r="C391" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D391" t="n">
+        <v>84.1</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="s">
+        <v>198</v>
+      </c>
+      <c r="B392" t="s">
+        <v>199</v>
+      </c>
+      <c r="C392" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D392" t="n">
+        <v>89.9</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="s">
+        <v>198</v>
+      </c>
+      <c r="B393" t="s">
+        <v>199</v>
+      </c>
+      <c r="C393" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D393" t="n">
+        <v>89.9</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="s">
+        <v>200</v>
+      </c>
+      <c r="B394" t="s">
+        <v>201</v>
+      </c>
+      <c r="C394" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D394"/>
+    </row>
+    <row r="395">
+      <c r="A395" t="s">
+        <v>200</v>
+      </c>
+      <c r="B395" t="s">
+        <v>201</v>
+      </c>
+      <c r="C395" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D395" t="n">
+        <v>46.8</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="s">
+        <v>200</v>
+      </c>
+      <c r="B396" t="s">
+        <v>201</v>
+      </c>
+      <c r="C396" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D396" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="s">
+        <v>200</v>
+      </c>
+      <c r="B397" t="s">
+        <v>201</v>
+      </c>
+      <c r="C397" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D397" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="s">
+        <v>202</v>
+      </c>
+      <c r="B398" t="s">
+        <v>203</v>
+      </c>
+      <c r="C398" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D398"/>
+    </row>
+    <row r="399">
+      <c r="A399" t="s">
+        <v>202</v>
+      </c>
+      <c r="B399" t="s">
+        <v>203</v>
+      </c>
+      <c r="C399" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D399" t="n">
+        <v>78.4</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="s">
+        <v>202</v>
+      </c>
+      <c r="B400" t="s">
+        <v>203</v>
+      </c>
+      <c r="C400" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D400" t="n">
+        <v>82.9</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="s">
+        <v>202</v>
+      </c>
+      <c r="B401" t="s">
+        <v>203</v>
+      </c>
+      <c r="C401" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D401" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="s">
+        <v>204</v>
+      </c>
+      <c r="B402" t="s">
+        <v>205</v>
+      </c>
+      <c r="C402" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D402"/>
+    </row>
+    <row r="403">
+      <c r="A403" t="s">
+        <v>204</v>
+      </c>
+      <c r="B403" t="s">
+        <v>205</v>
+      </c>
+      <c r="C403" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D403" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="s">
+        <v>204</v>
+      </c>
+      <c r="B404" t="s">
+        <v>205</v>
+      </c>
+      <c r="C404" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D404" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="s">
+        <v>204</v>
+      </c>
+      <c r="B405" t="s">
+        <v>205</v>
+      </c>
+      <c r="C405" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D405" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="s">
+        <v>206</v>
+      </c>
+      <c r="B406" t="s">
+        <v>207</v>
+      </c>
+      <c r="C406" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D406"/>
+    </row>
+    <row r="407">
+      <c r="A407" t="s">
+        <v>206</v>
+      </c>
+      <c r="B407" t="s">
+        <v>207</v>
+      </c>
+      <c r="C407" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D407" t="n">
+        <v>80.5</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="s">
+        <v>206</v>
+      </c>
+      <c r="B408" t="s">
+        <v>207</v>
+      </c>
+      <c r="C408" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D408" t="n">
+        <v>83.7</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="s">
+        <v>206</v>
+      </c>
+      <c r="B409" t="s">
+        <v>207</v>
+      </c>
+      <c r="C409" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D409" t="n">
+        <v>85.4</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="s">
+        <v>208</v>
+      </c>
+      <c r="B410" t="s">
+        <v>209</v>
+      </c>
+      <c r="C410" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D410"/>
+    </row>
+    <row r="411">
+      <c r="A411" t="s">
+        <v>208</v>
+      </c>
+      <c r="B411" t="s">
+        <v>209</v>
+      </c>
+      <c r="C411" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D411" t="n">
+        <v>98.9</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="s">
+        <v>208</v>
+      </c>
+      <c r="B412" t="s">
+        <v>209</v>
+      </c>
+      <c r="C412" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D412" t="n">
+        <v>98.9</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="s">
+        <v>208</v>
+      </c>
+      <c r="B413" t="s">
+        <v>209</v>
+      </c>
+      <c r="C413" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D413" t="n">
+        <v>98.9</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="s">
+        <v>210</v>
+      </c>
+      <c r="B414" t="s">
+        <v>211</v>
+      </c>
+      <c r="C414" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D414"/>
+    </row>
+    <row r="415">
+      <c r="A415" t="s">
+        <v>210</v>
+      </c>
+      <c r="B415" t="s">
+        <v>211</v>
+      </c>
+      <c r="C415" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D415" t="n">
+        <v>69.8</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="s">
+        <v>210</v>
+      </c>
+      <c r="B416" t="s">
+        <v>211</v>
+      </c>
+      <c r="C416" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D416" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="s">
+        <v>210</v>
+      </c>
+      <c r="B417" t="s">
+        <v>211</v>
+      </c>
+      <c r="C417" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D417" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="s">
+        <v>212</v>
+      </c>
+      <c r="B418" t="s">
+        <v>213</v>
+      </c>
+      <c r="C418" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D418"/>
+    </row>
+    <row r="419">
+      <c r="A419" t="s">
+        <v>212</v>
+      </c>
+      <c r="B419" t="s">
+        <v>213</v>
+      </c>
+      <c r="C419" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D419" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="s">
+        <v>212</v>
+      </c>
+      <c r="B420" t="s">
+        <v>213</v>
+      </c>
+      <c r="C420" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D420" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="s">
+        <v>212</v>
+      </c>
+      <c r="B421" t="s">
+        <v>213</v>
+      </c>
+      <c r="C421" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D421" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="s">
+        <v>214</v>
+      </c>
+      <c r="B422" t="s">
+        <v>215</v>
+      </c>
+      <c r="C422" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D422"/>
+    </row>
+    <row r="423">
+      <c r="A423" t="s">
+        <v>214</v>
+      </c>
+      <c r="B423" t="s">
+        <v>215</v>
+      </c>
+      <c r="C423" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D423" t="n">
+        <v>78.4</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="s">
+        <v>214</v>
+      </c>
+      <c r="B424" t="s">
+        <v>215</v>
+      </c>
+      <c r="C424" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D424" t="n">
+        <v>88.9</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="s">
+        <v>214</v>
+      </c>
+      <c r="B425" t="s">
+        <v>215</v>
+      </c>
+      <c r="C425" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D425" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="s">
+        <v>216</v>
+      </c>
+      <c r="B426" t="s">
+        <v>217</v>
+      </c>
+      <c r="C426" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D426"/>
+    </row>
+    <row r="427">
+      <c r="A427" t="s">
+        <v>216</v>
+      </c>
+      <c r="B427" t="s">
+        <v>217</v>
+      </c>
+      <c r="C427" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D427" t="n">
+        <v>89.4</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="s">
+        <v>216</v>
+      </c>
+      <c r="B428" t="s">
+        <v>217</v>
+      </c>
+      <c r="C428" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D428" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="s">
+        <v>216</v>
+      </c>
+      <c r="B429" t="s">
+        <v>217</v>
+      </c>
+      <c r="C429" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D429" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="s">
+        <v>218</v>
+      </c>
+      <c r="B430" t="s">
+        <v>219</v>
+      </c>
+      <c r="C430" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D430"/>
+    </row>
+    <row r="431">
+      <c r="A431" t="s">
+        <v>218</v>
+      </c>
+      <c r="B431" t="s">
+        <v>219</v>
+      </c>
+      <c r="C431" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D431" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="s">
+        <v>218</v>
+      </c>
+      <c r="B432" t="s">
+        <v>219</v>
+      </c>
+      <c r="C432" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D432" t="n">
+        <v>78.6</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="s">
+        <v>218</v>
+      </c>
+      <c r="B433" t="s">
+        <v>219</v>
+      </c>
+      <c r="C433" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D433" t="n">
+        <v>83.2</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="s">
+        <v>220</v>
+      </c>
+      <c r="B434" t="s">
+        <v>221</v>
+      </c>
+      <c r="C434" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D434"/>
+    </row>
+    <row r="435">
+      <c r="A435" t="s">
+        <v>220</v>
+      </c>
+      <c r="B435" t="s">
+        <v>221</v>
+      </c>
+      <c r="C435" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D435" t="n">
+        <v>76.1</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="s">
+        <v>220</v>
+      </c>
+      <c r="B436" t="s">
+        <v>221</v>
+      </c>
+      <c r="C436" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D436" t="n">
+        <v>82.1</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="s">
+        <v>220</v>
+      </c>
+      <c r="B437" t="s">
+        <v>221</v>
+      </c>
+      <c r="C437" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D437" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="s">
+        <v>222</v>
+      </c>
+      <c r="B438" t="s">
+        <v>223</v>
+      </c>
+      <c r="C438" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D438"/>
+    </row>
+    <row r="439">
+      <c r="A439" t="s">
+        <v>222</v>
+      </c>
+      <c r="B439" t="s">
+        <v>223</v>
+      </c>
+      <c r="C439" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D439" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="s">
+        <v>222</v>
+      </c>
+      <c r="B440" t="s">
+        <v>223</v>
+      </c>
+      <c r="C440" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D440" t="n">
+        <v>89.5</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="s">
+        <v>222</v>
+      </c>
+      <c r="B441" t="s">
+        <v>223</v>
+      </c>
+      <c r="C441" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D441" t="n">
+        <v>89.7</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="s">
+        <v>224</v>
+      </c>
+      <c r="B442" t="s">
+        <v>225</v>
+      </c>
+      <c r="C442" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D442"/>
+    </row>
+    <row r="443">
+      <c r="A443" t="s">
+        <v>224</v>
+      </c>
+      <c r="B443" t="s">
+        <v>225</v>
+      </c>
+      <c r="C443" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D443" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="s">
+        <v>224</v>
+      </c>
+      <c r="B444" t="s">
+        <v>225</v>
+      </c>
+      <c r="C444" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D444" t="n">
+        <v>53.5</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="s">
+        <v>224</v>
+      </c>
+      <c r="B445" t="s">
+        <v>225</v>
+      </c>
+      <c r="C445" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D445" t="n">
+        <v>75.3</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="s">
         <v>226</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B446" t="s">
         <v>227</v>
       </c>
-      <c r="C113" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D113" t="n">
+      <c r="C446" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D446"/>
+    </row>
+    <row r="447">
+      <c r="A447" t="s">
+        <v>226</v>
+      </c>
+      <c r="B447" t="s">
+        <v>227</v>
+      </c>
+      <c r="C447" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D447" t="n">
         <v>71</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="s">
+        <v>226</v>
+      </c>
+      <c r="B448" t="s">
+        <v>227</v>
+      </c>
+      <c r="C448" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D448" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="s">
+        <v>226</v>
+      </c>
+      <c r="B449" t="s">
+        <v>227</v>
+      </c>
+      <c r="C449" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D449" t="n">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2765,174 +7241,240 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>228</v>
       </c>
       <c r="C1" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="D1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E1" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
+      <c r="B2"/>
       <c r="C2" t="n">
         <v>50.3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>56.6</v>
+      </c>
+      <c r="E2" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
+      <c r="B3"/>
       <c r="C3" t="n">
         <v>84.3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>83</v>
+      </c>
+      <c r="E3" t="n">
+        <v>78.8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
+      <c r="B4"/>
       <c r="C4" t="n">
         <v>34.5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>47</v>
+      </c>
+      <c r="E4" t="n">
+        <v>66.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
+      <c r="B5"/>
       <c r="C5" t="n">
         <v>75.9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>81.4</v>
+      </c>
+      <c r="E5" t="n">
+        <v>80.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B6"/>
       <c r="C6" t="n">
         <v>78.9</v>
+      </c>
+      <c r="D6" t="n">
+        <v>78.2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
+      <c r="B7"/>
       <c r="C7" t="n">
         <v>5.4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="E7" t="n">
+        <v>17.1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
+      <c r="B8"/>
       <c r="C8" t="n">
         <v>75.4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>78.9</v>
+      </c>
+      <c r="E8" t="n">
+        <v>84.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
+      <c r="B9"/>
       <c r="C9" t="n">
         <v>72.4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>72</v>
+      </c>
+      <c r="E9" t="n">
+        <v>72.8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
+      <c r="B10"/>
       <c r="C10" t="n">
         <v>71.4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="E10" t="n">
+        <v>80.3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
+      <c r="B11"/>
       <c r="C11" t="n">
         <v>63</v>
+      </c>
+      <c r="D11" t="n">
+        <v>69.8</v>
+      </c>
+      <c r="E11" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>24</v>
       </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
+      <c r="B12"/>
       <c r="C12" t="n">
         <v>69.5</v>
+      </c>
+      <c r="D12" t="n">
+        <v>58.4</v>
+      </c>
+      <c r="E12" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
         <v>26</v>
       </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
+      <c r="B13"/>
       <c r="C13" t="n">
         <v>71</v>
+      </c>
+      <c r="D13" t="n">
+        <v>75</v>
+      </c>
+      <c r="E13" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
         <v>28</v>
       </c>
-      <c r="B14" t="s">
-        <v>29</v>
-      </c>
+      <c r="B14"/>
       <c r="C14" t="n">
         <v>82.7</v>
+      </c>
+      <c r="D14" t="n">
+        <v>82.2</v>
+      </c>
+      <c r="E14" t="n">
+        <v>80.5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
         <v>30</v>
       </c>
-      <c r="B15" t="s">
-        <v>31</v>
-      </c>
+      <c r="B15"/>
       <c r="C15" t="n">
         <v>57</v>
+      </c>
+      <c r="D15" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="E15" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
         <v>32</v>
       </c>
-      <c r="B16" t="s">
-        <v>33</v>
-      </c>
+      <c r="B16"/>
       <c r="C16" t="n">
+        <v>75</v>
+      </c>
+      <c r="D16" t="n">
+        <v>75</v>
+      </c>
+      <c r="E16" t="n">
         <v>75</v>
       </c>
     </row>
@@ -2940,153 +7482,209 @@
       <c r="A17" t="s">
         <v>34</v>
       </c>
-      <c r="B17" t="s">
-        <v>35</v>
-      </c>
+      <c r="B17"/>
       <c r="C17" t="n">
         <v>77</v>
+      </c>
+      <c r="D17" t="n">
+        <v>80.8</v>
+      </c>
+      <c r="E17" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
         <v>36</v>
       </c>
-      <c r="B18" t="s">
-        <v>37</v>
-      </c>
+      <c r="B18"/>
       <c r="C18" t="n">
         <v>79.5</v>
+      </c>
+      <c r="D18" t="n">
+        <v>91.6</v>
+      </c>
+      <c r="E18" t="n">
+        <v>68.8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
         <v>38</v>
       </c>
-      <c r="B19" t="s">
-        <v>39</v>
-      </c>
+      <c r="B19"/>
       <c r="C19" t="n">
         <v>76.2</v>
+      </c>
+      <c r="D19" t="n">
+        <v>80</v>
+      </c>
+      <c r="E19" t="n">
+        <v>61.4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
         <v>40</v>
       </c>
-      <c r="B20" t="s">
-        <v>41</v>
-      </c>
+      <c r="B20"/>
       <c r="C20" t="n">
         <v>68.9</v>
+      </c>
+      <c r="D20" t="n">
+        <v>69.9</v>
+      </c>
+      <c r="E20" t="n">
+        <v>70.6</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
         <v>42</v>
       </c>
-      <c r="B21" t="s">
-        <v>43</v>
-      </c>
+      <c r="B21"/>
       <c r="C21" t="n">
         <v>65</v>
+      </c>
+      <c r="D21" t="n">
+        <v>68.6</v>
+      </c>
+      <c r="E21" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
         <v>44</v>
       </c>
-      <c r="B22" t="s">
-        <v>45</v>
-      </c>
+      <c r="B22"/>
       <c r="C22" t="n">
         <v>71</v>
+      </c>
+      <c r="D22" t="n">
+        <v>72</v>
+      </c>
+      <c r="E22" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
         <v>46</v>
       </c>
-      <c r="B23" t="s">
-        <v>47</v>
-      </c>
+      <c r="B23"/>
       <c r="C23" t="n">
         <v>89</v>
+      </c>
+      <c r="D23" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="E23" t="n">
+        <v>92.6</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
         <v>48</v>
       </c>
-      <c r="B24" t="s">
-        <v>49</v>
-      </c>
+      <c r="B24"/>
       <c r="C24" t="n">
         <v>84</v>
+      </c>
+      <c r="D24" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="E24" t="n">
+        <v>88.2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
         <v>50</v>
       </c>
-      <c r="B25" t="s">
-        <v>51</v>
-      </c>
+      <c r="B25"/>
       <c r="C25" t="n">
         <v>80</v>
+      </c>
+      <c r="D25" t="n">
+        <v>68</v>
+      </c>
+      <c r="E25" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
         <v>52</v>
       </c>
-      <c r="B26" t="s">
-        <v>53</v>
-      </c>
+      <c r="B26"/>
       <c r="C26" t="n">
         <v>65</v>
+      </c>
+      <c r="D26" t="n">
+        <v>67</v>
+      </c>
+      <c r="E26" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
         <v>54</v>
       </c>
-      <c r="B27" t="s">
-        <v>55</v>
-      </c>
+      <c r="B27"/>
       <c r="C27" t="n">
         <v>29.2</v>
+      </c>
+      <c r="D27" t="n">
+        <v>36</v>
+      </c>
+      <c r="E27" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
         <v>56</v>
       </c>
-      <c r="B28" t="s">
-        <v>57</v>
-      </c>
+      <c r="B28"/>
       <c r="C28" t="n">
         <v>80</v>
+      </c>
+      <c r="D28" t="n">
+        <v>85</v>
+      </c>
+      <c r="E28" t="n">
+        <v>81.3</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
         <v>58</v>
       </c>
-      <c r="B29" t="s">
-        <v>59</v>
-      </c>
+      <c r="B29"/>
       <c r="C29" t="n">
         <v>84</v>
+      </c>
+      <c r="D29" t="n">
+        <v>86</v>
+      </c>
+      <c r="E29" t="n">
+        <v>89</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
         <v>60</v>
       </c>
-      <c r="B30" t="s">
-        <v>61</v>
-      </c>
+      <c r="B30"/>
       <c r="C30" t="n">
+        <v>55</v>
+      </c>
+      <c r="D30" t="n">
+        <v>55</v>
+      </c>
+      <c r="E30" t="n">
         <v>55</v>
       </c>
     </row>
@@ -3094,360 +7692,488 @@
       <c r="A31" t="s">
         <v>62</v>
       </c>
-      <c r="B31" t="s">
-        <v>63</v>
-      </c>
+      <c r="B31"/>
       <c r="C31" t="n">
         <v>71.3</v>
+      </c>
+      <c r="D31" t="n">
+        <v>73</v>
+      </c>
+      <c r="E31" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
         <v>64</v>
       </c>
-      <c r="B32" t="s">
-        <v>65</v>
-      </c>
+      <c r="B32"/>
       <c r="C32" t="n">
         <v>73.7</v>
+      </c>
+      <c r="D32" t="n">
+        <v>74</v>
+      </c>
+      <c r="E32" t="n">
+        <v>91</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
         <v>66</v>
       </c>
-      <c r="B33" t="s">
-        <v>67</v>
-      </c>
+      <c r="B33"/>
       <c r="C33" t="n">
         <v>88.4</v>
+      </c>
+      <c r="D33" t="n">
+        <v>87</v>
+      </c>
+      <c r="E33" t="n">
+        <v>89</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
         <v>68</v>
       </c>
-      <c r="B34" t="s">
-        <v>69</v>
-      </c>
+      <c r="B34"/>
       <c r="C34" t="n">
         <v>74.8</v>
+      </c>
+      <c r="D34" t="n">
+        <v>75</v>
+      </c>
+      <c r="E34" t="n">
+        <v>76.8</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
         <v>70</v>
       </c>
-      <c r="B35" t="s">
-        <v>71</v>
-      </c>
+      <c r="B35"/>
       <c r="C35" t="n">
         <v>86.4</v>
+      </c>
+      <c r="D35" t="n">
+        <v>90.4</v>
+      </c>
+      <c r="E35" t="n">
+        <v>91.4</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
         <v>72</v>
       </c>
-      <c r="B36" t="s">
-        <v>73</v>
-      </c>
+      <c r="B36"/>
       <c r="C36" t="n">
         <v>82.5</v>
+      </c>
+      <c r="D36" t="n">
+        <v>81.3</v>
+      </c>
+      <c r="E36" t="n">
+        <v>75.3</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
         <v>74</v>
       </c>
-      <c r="B37" t="s">
-        <v>75</v>
-      </c>
+      <c r="B37"/>
       <c r="C37" t="n">
         <v>20.9</v>
+      </c>
+      <c r="D37" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="E37" t="n">
+        <v>21.3</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
         <v>76</v>
       </c>
-      <c r="B38" t="s">
-        <v>77</v>
-      </c>
+      <c r="B38"/>
       <c r="C38" t="n">
         <v>94</v>
+      </c>
+      <c r="D38" t="n">
+        <v>87.1</v>
+      </c>
+      <c r="E38" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
         <v>78</v>
       </c>
-      <c r="B39" t="s">
-        <v>79</v>
-      </c>
+      <c r="B39"/>
       <c r="C39" t="n">
         <v>56</v>
+      </c>
+      <c r="D39" t="n">
+        <v>81</v>
+      </c>
+      <c r="E39" t="n">
+        <v>83.7</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
         <v>80</v>
       </c>
-      <c r="B40" t="s">
-        <v>81</v>
-      </c>
+      <c r="B40"/>
       <c r="C40" t="n">
         <v>69</v>
+      </c>
+      <c r="D40" t="n">
+        <v>77.6</v>
+      </c>
+      <c r="E40" t="n">
+        <v>83</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
         <v>82</v>
       </c>
-      <c r="B41" t="s">
-        <v>83</v>
-      </c>
+      <c r="B41"/>
       <c r="C41" t="n">
         <v>65</v>
+      </c>
+      <c r="D41" t="n">
+        <v>69</v>
+      </c>
+      <c r="E41" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
         <v>84</v>
       </c>
-      <c r="B42" t="s">
-        <v>85</v>
-      </c>
+      <c r="B42"/>
       <c r="C42" t="n">
         <v>85</v>
+      </c>
+      <c r="D42" t="n">
+        <v>70</v>
+      </c>
+      <c r="E42" t="n">
+        <v>74.2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
         <v>86</v>
       </c>
-      <c r="B43" t="s">
-        <v>87</v>
-      </c>
+      <c r="B43"/>
       <c r="C43" t="n">
         <v>75</v>
+      </c>
+      <c r="D43" t="n">
+        <v>90.8</v>
+      </c>
+      <c r="E43" t="n">
+        <v>92.5</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
         <v>88</v>
       </c>
-      <c r="B44" t="s">
-        <v>89</v>
-      </c>
+      <c r="B44"/>
       <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
     </row>
     <row r="45">
       <c r="A45" t="s">
         <v>90</v>
       </c>
-      <c r="B45" t="s">
-        <v>91</v>
-      </c>
+      <c r="B45"/>
       <c r="C45" t="n">
         <v>78</v>
+      </c>
+      <c r="D45" t="n">
+        <v>78</v>
+      </c>
+      <c r="E45" t="n">
+        <v>70.2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
         <v>92</v>
       </c>
-      <c r="B46" t="s">
-        <v>93</v>
-      </c>
+      <c r="B46"/>
       <c r="C46" t="n">
         <v>79</v>
+      </c>
+      <c r="D46" t="n">
+        <v>78.1</v>
+      </c>
+      <c r="E46" t="n">
+        <v>80.2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
         <v>94</v>
       </c>
-      <c r="B47" t="s">
-        <v>95</v>
-      </c>
+      <c r="B47"/>
       <c r="C47" t="n">
         <v>92</v>
+      </c>
+      <c r="D47" t="n">
+        <v>93</v>
+      </c>
+      <c r="E47" t="n">
+        <v>93</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
         <v>96</v>
       </c>
-      <c r="B48" t="s">
-        <v>97</v>
-      </c>
+      <c r="B48"/>
       <c r="C48" t="n">
         <v>74.4</v>
+      </c>
+      <c r="D48" t="n">
+        <v>77</v>
+      </c>
+      <c r="E48" t="n">
+        <v>82.4</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
         <v>98</v>
       </c>
-      <c r="B49" t="s">
-        <v>99</v>
-      </c>
+      <c r="B49"/>
       <c r="C49" t="n">
         <v>85.4</v>
+      </c>
+      <c r="D49" t="n">
+        <v>84.8</v>
+      </c>
+      <c r="E49" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
         <v>100</v>
       </c>
-      <c r="B50" t="s">
-        <v>101</v>
-      </c>
+      <c r="B50"/>
       <c r="C50" t="n">
         <v>63.2</v>
+      </c>
+      <c r="D50" t="n">
+        <v>73.2</v>
+      </c>
+      <c r="E50" t="n">
+        <v>74.6</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
         <v>102</v>
       </c>
-      <c r="B51" t="s">
-        <v>103</v>
-      </c>
+      <c r="B51"/>
       <c r="C51" t="n">
         <v>69.7</v>
+      </c>
+      <c r="D51" t="n">
+        <v>71.2</v>
+      </c>
+      <c r="E51" t="n">
+        <v>72.4</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
         <v>104</v>
       </c>
-      <c r="B52" t="s">
-        <v>105</v>
-      </c>
+      <c r="B52"/>
       <c r="C52" t="n">
         <v>75</v>
+      </c>
+      <c r="D52" t="n">
+        <v>78.8</v>
+      </c>
+      <c r="E52" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
         <v>106</v>
       </c>
-      <c r="B53" t="s">
-        <v>107</v>
-      </c>
+      <c r="B53"/>
       <c r="C53" t="n">
         <v>49</v>
+      </c>
+      <c r="D53" t="n">
+        <v>51</v>
+      </c>
+      <c r="E53" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
         <v>108</v>
       </c>
-      <c r="B54" t="s">
-        <v>109</v>
-      </c>
+      <c r="B54"/>
       <c r="C54" t="n">
         <v>84.6</v>
+      </c>
+      <c r="D54" t="n">
+        <v>81.6</v>
+      </c>
+      <c r="E54" t="n">
+        <v>85.7</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
         <v>110</v>
       </c>
-      <c r="B55" t="s">
-        <v>111</v>
-      </c>
+      <c r="B55"/>
       <c r="C55" t="n">
         <v>89</v>
+      </c>
+      <c r="D55" t="n">
+        <v>90.5</v>
+      </c>
+      <c r="E55" t="n">
+        <v>91</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
         <v>112</v>
       </c>
-      <c r="B56" t="s">
-        <v>113</v>
-      </c>
+      <c r="B56"/>
       <c r="C56" t="n">
         <v>72</v>
+      </c>
+      <c r="D56" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="E56" t="n">
+        <v>68.2</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
         <v>114</v>
       </c>
-      <c r="B57" t="s">
-        <v>115</v>
-      </c>
+      <c r="B57"/>
       <c r="C57" t="n">
         <v>63</v>
+      </c>
+      <c r="D57" t="n">
+        <v>75</v>
+      </c>
+      <c r="E57" t="n">
+        <v>77.3</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
         <v>116</v>
       </c>
-      <c r="B58" t="s">
-        <v>117</v>
-      </c>
+      <c r="B58"/>
       <c r="C58" t="n">
         <v>55.9</v>
+      </c>
+      <c r="D58" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="E58" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
         <v>118</v>
       </c>
-      <c r="B59" t="s">
-        <v>119</v>
-      </c>
+      <c r="B59"/>
       <c r="C59" t="n">
         <v>73</v>
+      </c>
+      <c r="D59" t="n">
+        <v>78</v>
+      </c>
+      <c r="E59" t="n">
+        <v>78</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
         <v>120</v>
       </c>
-      <c r="B60" t="s">
-        <v>121</v>
-      </c>
+      <c r="B60"/>
       <c r="C60" t="n">
         <v>73.4</v>
+      </c>
+      <c r="D60" t="n">
+        <v>86</v>
+      </c>
+      <c r="E60" t="n">
+        <v>78</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
         <v>122</v>
       </c>
-      <c r="B61" t="s">
-        <v>123</v>
-      </c>
+      <c r="B61"/>
       <c r="C61" t="n">
         <v>20.3</v>
+      </c>
+      <c r="D61" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="E61" t="n">
+        <v>8.4</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
         <v>124</v>
       </c>
-      <c r="B62" t="s">
-        <v>125</v>
-      </c>
+      <c r="B62"/>
       <c r="C62" t="n">
         <v>90</v>
+      </c>
+      <c r="D62" t="n">
+        <v>91</v>
+      </c>
+      <c r="E62" t="n">
+        <v>92</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
         <v>126</v>
       </c>
-      <c r="B63" t="s">
-        <v>127</v>
-      </c>
+      <c r="B63"/>
       <c r="C63" t="n">
+        <v>80</v>
+      </c>
+      <c r="D63" t="n">
+        <v>83.5</v>
+      </c>
+      <c r="E63" t="n">
         <v>80</v>
       </c>
     </row>
@@ -3455,450 +8181,614 @@
       <c r="A64" t="s">
         <v>128</v>
       </c>
-      <c r="B64" t="s">
-        <v>129</v>
-      </c>
+      <c r="B64"/>
       <c r="C64" t="n">
         <v>63</v>
+      </c>
+      <c r="D64" t="n">
+        <v>55</v>
+      </c>
+      <c r="E64" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
         <v>130</v>
       </c>
-      <c r="B65" t="s">
-        <v>131</v>
-      </c>
+      <c r="B65"/>
       <c r="C65" t="n">
         <v>77.5</v>
+      </c>
+      <c r="D65" t="n">
+        <v>81.6</v>
+      </c>
+      <c r="E65" t="n">
+        <v>70.9</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
         <v>132</v>
       </c>
-      <c r="B66" t="s">
-        <v>133</v>
-      </c>
+      <c r="B66"/>
       <c r="C66" t="n">
         <v>84.5</v>
+      </c>
+      <c r="D66" t="n">
+        <v>86</v>
+      </c>
+      <c r="E66" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
         <v>134</v>
       </c>
-      <c r="B67" t="s">
-        <v>135</v>
-      </c>
+      <c r="B67"/>
       <c r="C67" t="n">
         <v>42</v>
+      </c>
+      <c r="D67" t="n">
+        <v>40</v>
+      </c>
+      <c r="E67" t="n">
+        <v>43.6</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
         <v>136</v>
       </c>
-      <c r="B68" t="s">
-        <v>137</v>
-      </c>
+      <c r="B68"/>
       <c r="C68" t="n">
         <v>82</v>
+      </c>
+      <c r="D68" t="n">
+        <v>80.8</v>
+      </c>
+      <c r="E68" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
         <v>138</v>
       </c>
-      <c r="B69" t="s">
-        <v>139</v>
-      </c>
+      <c r="B69"/>
       <c r="C69" t="n">
         <v>63</v>
+      </c>
+      <c r="D69" t="n">
+        <v>65</v>
+      </c>
+      <c r="E69" t="n">
+        <v>65.6</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
         <v>140</v>
       </c>
-      <c r="B70" t="s">
-        <v>141</v>
-      </c>
+      <c r="B70"/>
       <c r="C70" t="n">
         <v>82</v>
+      </c>
+      <c r="D70" t="n">
+        <v>78</v>
+      </c>
+      <c r="E70" t="n">
+        <v>83</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
         <v>142</v>
       </c>
-      <c r="B71" t="s">
-        <v>143</v>
-      </c>
+      <c r="B71"/>
       <c r="C71" t="n">
         <v>96</v>
+      </c>
+      <c r="D71" t="n">
+        <v>76</v>
+      </c>
+      <c r="E71" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
         <v>144</v>
       </c>
-      <c r="B72" t="s">
-        <v>145</v>
-      </c>
+      <c r="B72"/>
       <c r="C72" t="n">
         <v>86</v>
+      </c>
+      <c r="D72" t="n">
+        <v>86</v>
+      </c>
+      <c r="E72" t="n">
+        <v>89</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
         <v>146</v>
       </c>
-      <c r="B73" t="s">
-        <v>147</v>
-      </c>
+      <c r="B73"/>
       <c r="C73" t="n">
         <v>75</v>
+      </c>
+      <c r="D73" t="n">
+        <v>75</v>
+      </c>
+      <c r="E73" t="n">
+        <v>79</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
         <v>148</v>
       </c>
-      <c r="B74" t="s">
-        <v>149</v>
-      </c>
+      <c r="B74"/>
       <c r="C74" t="n">
         <v>70</v>
+      </c>
+      <c r="D74" t="n">
+        <v>70</v>
+      </c>
+      <c r="E74" t="n">
+        <v>82</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
         <v>150</v>
       </c>
-      <c r="B75" t="s">
-        <v>151</v>
-      </c>
+      <c r="B75"/>
       <c r="C75" t="n">
         <v>77</v>
+      </c>
+      <c r="D75" t="n">
+        <v>84</v>
+      </c>
+      <c r="E75" t="n">
+        <v>84.5</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
         <v>152</v>
       </c>
-      <c r="B76" t="s">
-        <v>153</v>
-      </c>
+      <c r="B76"/>
       <c r="C76" t="n">
         <v>75</v>
+      </c>
+      <c r="D76" t="n">
+        <v>77</v>
+      </c>
+      <c r="E76" t="n">
+        <v>79</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
         <v>154</v>
       </c>
-      <c r="B77" t="s">
-        <v>155</v>
-      </c>
+      <c r="B77"/>
       <c r="C77" t="n">
         <v>62.7</v>
+      </c>
+      <c r="D77" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="E77" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
         <v>156</v>
       </c>
-      <c r="B78" t="s">
-        <v>157</v>
-      </c>
+      <c r="B78"/>
       <c r="C78" t="n">
         <v>70</v>
+      </c>
+      <c r="D78" t="n">
+        <v>93.2</v>
+      </c>
+      <c r="E78" t="n">
+        <v>81</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
         <v>158</v>
       </c>
-      <c r="B79" t="s">
-        <v>159</v>
-      </c>
+      <c r="B79"/>
       <c r="C79" t="n">
         <v>97</v>
+      </c>
+      <c r="D79" t="n">
+        <v>98</v>
+      </c>
+      <c r="E79" t="n">
+        <v>98.6</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
         <v>160</v>
       </c>
-      <c r="B80" t="s">
-        <v>161</v>
-      </c>
+      <c r="B80"/>
       <c r="C80" t="n">
         <v>89.6</v>
+      </c>
+      <c r="D80" t="n">
+        <v>91.1</v>
+      </c>
+      <c r="E80" t="n">
+        <v>92</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
         <v>162</v>
       </c>
-      <c r="B81" t="s">
-        <v>163</v>
-      </c>
+      <c r="B81"/>
       <c r="C81" t="n">
         <v>88.2</v>
+      </c>
+      <c r="D81" t="n">
+        <v>89</v>
+      </c>
+      <c r="E81" t="n">
+        <v>87.9</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
         <v>164</v>
       </c>
-      <c r="B82" t="s">
-        <v>165</v>
-      </c>
+      <c r="B82"/>
       <c r="C82" t="n">
         <v>3.6</v>
+      </c>
+      <c r="D82" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E82" t="n">
+        <v>2.3</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
         <v>166</v>
       </c>
-      <c r="B83" t="s">
-        <v>167</v>
-      </c>
+      <c r="B83"/>
       <c r="C83" t="n">
         <v>88</v>
+      </c>
+      <c r="D83" t="n">
+        <v>91</v>
+      </c>
+      <c r="E83" t="n">
+        <v>94</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
         <v>168</v>
       </c>
-      <c r="B84" t="s">
-        <v>169</v>
-      </c>
+      <c r="B84"/>
       <c r="C84" t="n">
         <v>65</v>
+      </c>
+      <c r="D84" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="E84" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
         <v>170</v>
       </c>
-      <c r="B85" t="s">
-        <v>171</v>
-      </c>
+      <c r="B85"/>
       <c r="C85" t="n">
         <v>82.1</v>
+      </c>
+      <c r="D85" t="n">
+        <v>82</v>
+      </c>
+      <c r="E85" t="n">
+        <v>83.2</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
         <v>172</v>
       </c>
-      <c r="B86" t="s">
-        <v>173</v>
-      </c>
+      <c r="B86"/>
       <c r="C86" t="n">
         <v>83</v>
+      </c>
+      <c r="D86" t="n">
+        <v>81</v>
+      </c>
+      <c r="E86" t="n">
+        <v>91</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
         <v>174</v>
       </c>
-      <c r="B87" t="s">
-        <v>175</v>
-      </c>
+      <c r="B87"/>
       <c r="C87" t="n">
         <v>15.4</v>
+      </c>
+      <c r="D87" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="E87" t="n">
+        <v>31.4</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
         <v>176</v>
       </c>
-      <c r="B88" t="s">
-        <v>177</v>
-      </c>
+      <c r="B88"/>
       <c r="C88" t="n">
         <v>82.7</v>
+      </c>
+      <c r="D88" t="n">
+        <v>83.8</v>
+      </c>
+      <c r="E88" t="n">
+        <v>84.4</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
         <v>178</v>
       </c>
-      <c r="B89" t="s">
-        <v>179</v>
-      </c>
+      <c r="B89"/>
       <c r="C89" t="n">
         <v>89</v>
+      </c>
+      <c r="D89" t="n">
+        <v>87</v>
+      </c>
+      <c r="E89" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
         <v>180</v>
       </c>
-      <c r="B90" t="s">
-        <v>181</v>
-      </c>
+      <c r="B90"/>
       <c r="C90" t="n">
         <v>69</v>
+      </c>
+      <c r="D90" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="E90" t="n">
+        <v>61.5</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
         <v>182</v>
       </c>
-      <c r="B91" t="s">
-        <v>183</v>
-      </c>
+      <c r="B91"/>
       <c r="C91" t="n">
         <v>74</v>
+      </c>
+      <c r="D91" t="n">
+        <v>84.1</v>
+      </c>
+      <c r="E91" t="n">
+        <v>84.1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
         <v>184</v>
       </c>
-      <c r="B92" t="s">
-        <v>185</v>
-      </c>
+      <c r="B92"/>
       <c r="C92" t="n">
         <v>28</v>
+      </c>
+      <c r="D92" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="E92" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
         <v>186</v>
       </c>
-      <c r="B93" t="s">
-        <v>187</v>
-      </c>
+      <c r="B93"/>
       <c r="C93" t="n">
         <v>77.6</v>
+      </c>
+      <c r="D93" t="n">
+        <v>77</v>
+      </c>
+      <c r="E93" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
         <v>188</v>
       </c>
-      <c r="B94" t="s">
-        <v>189</v>
-      </c>
+      <c r="B94"/>
       <c r="C94" t="n">
         <v>81</v>
+      </c>
+      <c r="D94" t="n">
+        <v>83</v>
+      </c>
+      <c r="E94" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
         <v>190</v>
       </c>
-      <c r="B95" t="s">
-        <v>191</v>
-      </c>
+      <c r="B95"/>
       <c r="C95" t="n">
         <v>66.3</v>
+      </c>
+      <c r="D95" t="n">
+        <v>66.9</v>
+      </c>
+      <c r="E95" t="n">
+        <v>66.7</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
         <v>192</v>
       </c>
-      <c r="B96" t="s">
-        <v>193</v>
-      </c>
+      <c r="B96"/>
       <c r="C96" t="n">
         <v>99.1</v>
+      </c>
+      <c r="D96" t="n">
+        <v>94.6</v>
+      </c>
+      <c r="E96" t="n">
+        <v>94.9</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
         <v>194</v>
       </c>
-      <c r="B97" t="s">
-        <v>195</v>
-      </c>
+      <c r="B97"/>
       <c r="C97" t="n">
         <v>70.1</v>
+      </c>
+      <c r="D97" t="n">
+        <v>74.6</v>
+      </c>
+      <c r="E97" t="n">
+        <v>74.8</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
         <v>196</v>
       </c>
-      <c r="B98" t="s">
-        <v>197</v>
-      </c>
+      <c r="B98"/>
       <c r="C98" t="n">
         <v>58</v>
+      </c>
+      <c r="D98" t="n">
+        <v>58</v>
+      </c>
+      <c r="E98" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
         <v>198</v>
       </c>
-      <c r="B99" t="s">
-        <v>199</v>
-      </c>
+      <c r="B99"/>
       <c r="C99" t="n">
         <v>84.1</v>
+      </c>
+      <c r="D99" t="n">
+        <v>89.9</v>
+      </c>
+      <c r="E99" t="n">
+        <v>89.9</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
         <v>200</v>
       </c>
-      <c r="B100" t="s">
-        <v>201</v>
-      </c>
+      <c r="B100"/>
       <c r="C100" t="n">
         <v>46.8</v>
+      </c>
+      <c r="D100" t="n">
+        <v>54</v>
+      </c>
+      <c r="E100" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
         <v>202</v>
       </c>
-      <c r="B101" t="s">
-        <v>203</v>
-      </c>
+      <c r="B101"/>
       <c r="C101" t="n">
         <v>78.4</v>
+      </c>
+      <c r="D101" t="n">
+        <v>82.9</v>
+      </c>
+      <c r="E101" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
         <v>204</v>
       </c>
-      <c r="B102" t="s">
-        <v>205</v>
-      </c>
+      <c r="B102"/>
       <c r="C102" t="n">
         <v>86</v>
+      </c>
+      <c r="D102" t="n">
+        <v>86</v>
+      </c>
+      <c r="E102" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
         <v>206</v>
       </c>
-      <c r="B103" t="s">
-        <v>207</v>
-      </c>
+      <c r="B103"/>
       <c r="C103" t="n">
         <v>80.5</v>
+      </c>
+      <c r="D103" t="n">
+        <v>83.7</v>
+      </c>
+      <c r="E103" t="n">
+        <v>85.4</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
         <v>208</v>
       </c>
-      <c r="B104" t="s">
-        <v>209</v>
-      </c>
+      <c r="B104"/>
       <c r="C104" t="n">
+        <v>98.9</v>
+      </c>
+      <c r="D104" t="n">
+        <v>98.9</v>
+      </c>
+      <c r="E104" t="n">
         <v>98.9</v>
       </c>
     </row>
@@ -3906,10 +8796,14 @@
       <c r="A105" t="s">
         <v>210</v>
       </c>
-      <c r="B105" t="s">
-        <v>211</v>
-      </c>
+      <c r="B105"/>
       <c r="C105" t="n">
+        <v>69.8</v>
+      </c>
+      <c r="D105" t="n">
+        <v>71</v>
+      </c>
+      <c r="E105" t="n">
         <v>70</v>
       </c>
     </row>
@@ -3917,88 +8811,120 @@
       <c r="A106" t="s">
         <v>212</v>
       </c>
-      <c r="B106" t="s">
-        <v>213</v>
-      </c>
+      <c r="B106"/>
       <c r="C106" t="n">
-        <v>78.4</v>
+        <v>70</v>
+      </c>
+      <c r="D106" t="n">
+        <v>80</v>
+      </c>
+      <c r="E106" t="n">
+        <v>85</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
         <v>214</v>
       </c>
-      <c r="B107" t="s">
-        <v>215</v>
-      </c>
+      <c r="B107"/>
       <c r="C107" t="n">
-        <v>89.4</v>
+        <v>78.4</v>
+      </c>
+      <c r="D107" t="n">
+        <v>88.9</v>
+      </c>
+      <c r="E107" t="n">
+        <v>89</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
         <v>216</v>
       </c>
-      <c r="B108" t="s">
-        <v>217</v>
-      </c>
+      <c r="B108"/>
       <c r="C108" t="n">
-        <v>80</v>
+        <v>89.4</v>
+      </c>
+      <c r="D108" t="n">
+        <v>77</v>
+      </c>
+      <c r="E108" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
         <v>218</v>
       </c>
-      <c r="B109" t="s">
-        <v>219</v>
-      </c>
+      <c r="B109"/>
       <c r="C109" t="n">
-        <v>69.8</v>
+        <v>80</v>
+      </c>
+      <c r="D109" t="n">
+        <v>78.6</v>
+      </c>
+      <c r="E109" t="n">
+        <v>83.2</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
         <v>220</v>
       </c>
-      <c r="B110" t="s">
-        <v>221</v>
-      </c>
+      <c r="B110"/>
       <c r="C110" t="n">
         <v>76.1</v>
+      </c>
+      <c r="D110" t="n">
+        <v>82.1</v>
+      </c>
+      <c r="E110" t="n">
+        <v>81</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
         <v>222</v>
       </c>
-      <c r="B111" t="s">
-        <v>223</v>
-      </c>
+      <c r="B111"/>
       <c r="C111" t="n">
         <v>89</v>
+      </c>
+      <c r="D111" t="n">
+        <v>89.5</v>
+      </c>
+      <c r="E111" t="n">
+        <v>89.7</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
         <v>224</v>
       </c>
-      <c r="B112" t="s">
-        <v>225</v>
-      </c>
+      <c r="B112"/>
       <c r="C112" t="n">
         <v>50</v>
+      </c>
+      <c r="D112" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="E112" t="n">
+        <v>75.3</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
         <v>226</v>
       </c>
-      <c r="B113" t="s">
-        <v>227</v>
-      </c>
+      <c r="B113"/>
       <c r="C113" t="n">
         <v>71</v>
+      </c>
+      <c r="D113" t="n">
+        <v>76</v>
+      </c>
+      <c r="E113" t="n">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/uganda-household-san-cov/uganda-household-san-cov.xlsx
+++ b/user-data/uganda-household-san-cov/uganda-household-san-cov.xlsx
@@ -721,7 +721,7 @@
     <t xml:space="preserve">Units of measure: %</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 30</t>
+    <t xml:space="preserve">Source: 31</t>
   </si>
   <si>
     <t xml:space="preserve"/>
